--- a/all_packages.xlsx
+++ b/all_packages.xlsx
@@ -3308,7 +3308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3316,13 +3316,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3334,16 +3346,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3638,2490 +3655,3054 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:B380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="A352" sqref="A352:B352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="29.140625" style="1"/>
+    <col min="1" max="3" width="29.140625" style="1"/>
+    <col min="4" max="4" width="29.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="29.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>394</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>525</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>533</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>540</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>548</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>556</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>564</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>580</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>586</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>594</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>602</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>608</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>614</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>620</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>626</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>632</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>638</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>644</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>650</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>656</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>662</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>668</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>674</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>680</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>686</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>692</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>692</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>702</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>708</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>714</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="E90" s="1" t="s">
+    </row>
+    <row r="91" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="G90" s="1" t="s">
+    </row>
+    <row r="252" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="B342" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="G91" s="1" t="s">
+    <row r="343" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="B343" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G92" s="1" t="s">
+    <row r="344" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="B344" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G93" s="1" t="s">
+    <row r="345" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="B345" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G94" s="1" t="s">
+    <row r="346" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="B346" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G95" s="1" t="s">
+    <row r="347" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="B347" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G96" s="1" t="s">
+    <row r="348" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="B348" s="1" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="97" spans="7:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G97" s="1" t="s">
+    <row r="349" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="B349" s="1" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="98" spans="7:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G98" s="1" t="s">
+    <row r="350" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="B350" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="99" spans="7:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G99" s="1" t="s">
+    <row r="351" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="B351" s="1" t="s">
         <v>735</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>

--- a/all_packages.xlsx
+++ b/all_packages.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="746">
   <si>
     <t>Base</t>
   </si>
@@ -54,57 +54,15 @@
     <t>antiword</t>
   </si>
   <si>
-    <t>Wraps the 'AntiWord' utility to extract text from Microsoft
-    Word documents. The utility only supports the old 'doc' format, not the 
-    new xml based 'docx' format. Use the 'xml2' package to read the latter.</t>
-  </si>
-  <si>
     <t>Amelia</t>
   </si>
   <si>
-    <t>A tool that "multiply imputes" missing data in a single cross-section
-  (such as a survey), from a time series (like variables collected for
-  each year in a country), or from a time-series-cross-sectional data
-  set (such as collected by years for each of several countries).
-  Amelia II implements our bootstrapping-based algorithm that gives
-  essentially the same answers as the standard IP or EMis approaches,
-  is usually considerably faster than existing approaches and can
-  handle many more variables.  Unlike Amelia I and other statistically
-  rigorous imputation software, it virtually never crashes (but please
-  let us know if you find to the contrary!).  The program also
-  generalizes existing approaches by allowing for trends in time series
-  across observations within a cross-sectional unit, as well as priors
-  that allow experts to incorporate beliefs they have about the values
-  of missing cells in their data.  Amelia II also includes useful
-  diagnostics of the fit of multiple imputation models.  The program
-  works from the R command line or via a graphical user interface that
-  does not require users to know R.</t>
-  </si>
-  <si>
     <t>afex</t>
   </si>
   <si>
-    <t>Convenience functions for analyzing factorial experiments using ANOVA or
-          mixed models. aov_ez(), aov_car(), and aov_4() allow specification of between,
-          within (i.e., repeated-measures), or mixed between-within (i.e., split-plot)
-          ANOVAs for data in long format (i.e., one observation per row), aggregating
-          multiple observations per individual and cell of the design. mixed() fits mixed
-          models using lme4::lmer() and computes p-values for all fixed effects using
-          either Kenward-Roger or Satterthwaite approximation for degrees of freedom (LMM
-          only), parametric bootstrap (LMMs and GLMMs), or likelihood ratio tests (LMMs
-          and GLMMs). afex uses type 3 sums of squares as default (imitating commercial
-          statistical software).</t>
-  </si>
-  <si>
     <t>anim.plots</t>
   </si>
   <si>
-    <t>Simple animated versions of basic R plots, using the 'animation'
-    package. Includes animated versions of plot, barplot, persp, contour,
-    filled.contour, hist, curve, points, lines, text, symbols, segments, and
-    arrows.</t>
-  </si>
-  <si>
     <t>bigrquery</t>
   </si>
   <si>
@@ -114,34 +72,12 @@
     <t>ascii</t>
   </si>
   <si>
-    <t>Coerce R object to asciidoc, txt2tags, restructuredText,
-        org, textile or pandoc syntax.  Package comes with a set of
-        drivers for Sweave.</t>
-  </si>
-  <si>
     <t>arules</t>
   </si>
   <si>
-    <t>Provides the infrastructure for representing,
-    manipulating and analyzing transaction data and patterns (frequent
-    itemsets and association rules). Also provides interfaces to
-    C implementations of the association mining algorithms Apriori and Eclat
-    by C. Borgelt.</t>
-  </si>
-  <si>
     <t>animation</t>
   </si>
   <si>
-    <t>Provides functions for animations in statistics, covering topics
-    in probability theory, mathematical statistics, multivariate statistics,
-    non-parametric statistics, sampling survey, linear models, time series,
-    computational statistics, data mining and machine learning. These functions
-    may be helpful in teaching statistics and data analysis. Also provided in
-    this package are a series of functions to save animations to various formats,
-    e.g. Flash, 'GIF', HTML pages, 'PDF' and videos. 'PDF' animations can be
-    inserted into 'Sweave' / 'knitr' easily.</t>
-  </si>
-  <si>
     <t>bookdown</t>
   </si>
   <si>
@@ -151,20 +87,9 @@
     <t>assertive</t>
   </si>
   <si>
-    <t>Lots of predicates (is_* functions) to check the state of your
-    variables, and assertions (assert_* functions) to throw errors if they
-    aren't in the right form.</t>
-  </si>
-  <si>
     <t>Boruta</t>
   </si>
   <si>
-    <t>An all relevant feature selection wrapper algorithm.
-    It finds relevant features by comparing original attributes'
-    importance with importance achievable at random, estimated
-    using their permuted copies.</t>
-  </si>
-  <si>
     <t>arulesViz</t>
   </si>
   <si>
@@ -174,63 +99,21 @@
     <t>cartography</t>
   </si>
   <si>
-    <t>Create and integrate maps in your R workflow. This package allows
-    various cartographic representations such as proportional symbols, chroropleth,
-    typology, flows or discontinuities maps. It also offers several features enhancing 
-    the graphic presentation of maps like cartographic palettes, layout 
-    elements (scale, north arrow, title...), labels, legends or access to some 
-    cartographic APIs. See Giraud and Lambert (2017) &lt;doi:10.1007/978-3-319-57336-6_13&gt;.</t>
-  </si>
-  <si>
     <t>hexSticker</t>
   </si>
   <si>
-    <t>Helper functions for creating reproducible hexagon sticker purely
-    in R.</t>
-  </si>
-  <si>
     <t>assertr</t>
   </si>
   <si>
-    <t>Provides functionality to assert conditions
-    that have to be met so that errors in data used in
-    analysis pipelines can fail quickly. Similar to
-    'stopifnot()' but more powerful, friendly, and easier
-    for use in pipelines.</t>
-  </si>
-  <si>
     <t>colorspace</t>
   </si>
   <si>
-    <t>Carries out mapping between assorted color spaces including
-             RGB, HSV, HLS, CIEXYZ, CIELUV, HCL (polar CIELUV),
-	     CIELAB and polar CIELAB. Qualitative, sequential, and
-	     diverging color palettes based on HCL colors are provided
-	     along with an interactive palette picker (with either a Tcl/Tk
-	     or a shiny GUI).</t>
-  </si>
-  <si>
     <t>bayesAB</t>
   </si>
   <si>
-    <t>A suite of functions that allow the user to analyze A/B test
-    data in a Bayesian framework. Intended to be a drop-in replacement for
-    common frequentist hypothesis test such as the t-test and chi-sq test.</t>
-  </si>
-  <si>
     <t>choroplethr</t>
   </si>
   <si>
-    <t xml:space="preserve">Choropleths are thematic maps where geographic regions, such as
-    states, are colored according to some metric, such as the number of people
-    who live in that state. This package simplifies this process by 1.
-    Providing ready-made functions for creating choropleths of common maps. 2.
-    Providing data and API connections to interesting data sources for making
-    choropleths. 3. Providing a framework for creating choropleths from
-    arbitrary shapefiles. 4. Overlaying those maps over reference maps from
-    Google Maps. </t>
-  </si>
-  <si>
     <t>liftr</t>
   </si>
   <si>
@@ -240,96 +123,30 @@
     <t>assertthat</t>
   </si>
   <si>
-    <t>assertthat is an extension to stopifnot() that makes it
-    easy to declare the pre and post conditions that you code should
-    satisfy, while also producing friendly error messages so that your
-    users know what they've done wrong.</t>
-  </si>
-  <si>
     <t>colourpicker</t>
   </si>
   <si>
-    <t>A colour picker that can be used as an input in Shiny apps
-    or Rmarkdown documents. The colour picker supports alpha opacity, custom
-    colour palettes, and many more options. A Plot Colour Helper tool is
-    available as an RStudio Addin, which helps you pick colours to use in your
-    plots. A more generic Colour Picker RStudio Addin is also provided to let 
-    you select colours to use in your R code.</t>
-  </si>
-  <si>
     <t>bayesboot</t>
   </si>
   <si>
-    <t>Functions for performing the Bayesian bootstrap as introduced by
-    Rubin (1981) &lt;doi:10.1214/aos/1176345338&gt; and for summarizing the result.
-    The implementation can handle both summary statistics that works on a
-    weighted version of the data and summary statistics that works on a
-    resampled data set.</t>
-  </si>
-  <si>
     <t>choroplethrMaps</t>
   </si>
   <si>
-    <t>Contains 3 maps. 1) US States 2) US Counties 3) Countries of the
-    world.</t>
-  </si>
-  <si>
     <t>manipulate</t>
   </si>
   <si>
-    <t>Interactive plotting functions for use within RStudio.
-  The manipulate function accepts a plotting expression and a set of
-  controls (e.g. slider, picker, checkbox, or button) which are used
-  to dynamically change values within the expression. When a value is
-  changed using its corresponding control the expression is
-  automatically re-executed and the plot is redrawn.</t>
-  </si>
-  <si>
     <t>beepr</t>
   </si>
   <si>
-    <t>The sole function of this package is beep(), with the purpose to
-    make it easy to play notification sounds on whatever platform you are on.
-    It is intended to be useful, for example, if you are running a long analysis
-    in the background and want to know when it is ready.</t>
-  </si>
-  <si>
     <t>condformat</t>
   </si>
   <si>
-    <t>Apply and visualize conditional formatting to data frames in R.
-    It renders a data frame with cells formatted according to
-    criteria defined by rules, using a tidy evaluation syntax. The table is
-    printed either opening a web browser or within the 'RStudio' viewer if
-    available. The conditional formatting rules allow to highlight cells
-    matching a condition or add a gradient background to a given column. This
-    package supports both 'HTML' and 'LaTeX' outputs in 'knitr' reports, and
-    exporting to an 'xlsx' file.</t>
-  </si>
-  <si>
     <t>broom</t>
   </si>
   <si>
-    <t>Convert statistical analysis objects from R into tidy data frames,
-    so that they can more easily be combined, reshaped and otherwise processed
-    with tools like 'dplyr', 'tidyr' and 'ggplot2'. The package provides three
-    S3 generics: tidy, which summarizes a model's statistical findings such as
-    coefficients of a regression; augment, which adds columns to the original
-    data such as predictions, residuals and cluster assignments; and glance, which
-    provides a one-row summary of model-level statistics.</t>
-  </si>
-  <si>
     <t>cowplot</t>
   </si>
   <si>
-    <t>Some helpful extensions and modifications to the 'ggplot2'
-    package. In particular, this package makes it easy to combine multiple
-    'ggplot2' plots into one and label them with letters, e.g. A, B, C, etc.,
-    as is often required for scientific publications. The package also provides
-    a streamlined and clean theme that is used in the Wilke lab, hence the
-    package name, which stands for Claus O. Wilke's plot package.</t>
-  </si>
-  <si>
     <t>pipefittr</t>
   </si>
   <si>
@@ -339,20 +156,9 @@
     <t>charlatan</t>
   </si>
   <si>
-    <t>Make fake data, supporting addresses, person names, dates,
-    times, colors, coordinates, currencies, digital object identifiers
-    ('DOIs'), jobs, phone numbers, 'DNA' sequences, doubles and integers
-    from distributions and within a range.</t>
-  </si>
-  <si>
     <t>countrycode</t>
   </si>
   <si>
-    <t>Standardize country names, convert them into one of
-    eleven coding schemes, convert between coding schemes, and
-    assign region descriptors.</t>
-  </si>
-  <si>
     <t>BTYD</t>
   </si>
   <si>
@@ -362,58 +168,21 @@
     <t>d3heatmap</t>
   </si>
   <si>
-    <t>Create interactive heat maps that are usable from the R console, in
-    the 'RStudio' viewer pane, in 'R Markdown' documents, and in 'Shiny' apps. Hover
-    the mouse pointer over a cell to show details, drag a rectangle to zoom, and
-    click row/column labels to highlight.</t>
-  </si>
-  <si>
     <t>printr</t>
   </si>
   <si>
-    <t>Extends the S3 generic function knit_print() in 'knitr'
-    to automatically print some objects using an appropriate format such as
-    Markdown or LaTeX. For example, data frames are automatically printed as
-    tables, and the help() pages can also be rendered in 'knitr' documents.</t>
-  </si>
-  <si>
     <t>checkmate</t>
   </si>
   <si>
-    <t>Tests and assertions to perform frequent argument checks. A
-    substantial part of the package was written in C to minimize any worries
-    about execution time overhead.</t>
-  </si>
-  <si>
     <t>DataCombine</t>
   </si>
   <si>
-    <t>Tools for combining and cleaning data sets, particularly
-    with grouped and time series data.</t>
-  </si>
-  <si>
     <t>BTYDplus</t>
   </si>
   <si>
-    <t>Provides advanced statistical methods to describe and predict customers'
-  purchase behavior in a non-contractual setting. It uses historic transaction records to fit a
-  probabilistic model, which then allows to compute quantities of managerial interest on a cohort-
-  as well as on a customer level (Customer Lifetime Value, Customer Equity, P(alive), etc.). This
-  package complements the BTYD package by providing several additional buy-till-you-die models, that
-  have been published in the marketing literature, but whose implementation are complex and non-trivial.
-  These models are: NBD, MBG/NBD, BG/CNBD-k, MBG/CNBD-k, Pareto/NBD (HB), Pareto/NBD (Abe) and Pareto/GGG.</t>
-  </si>
-  <si>
     <t>d3Tree</t>
   </si>
   <si>
-    <t>Create and customize interactive collapsible 'D3' trees using the 'D3'
-    JavaScript library and the 'htmlwidgets' package. These trees can be used
-    directly from the R console, from 'RStudio', in Shiny apps and R Markdown documents.
-    When in Shiny the tree layout is observed by the server and can be used as a reactive filter
-    of structured data.</t>
-  </si>
-  <si>
     <t>quantmod</t>
   </si>
   <si>
@@ -423,41 +192,12 @@
     <t>checkpoint</t>
   </si>
   <si>
-    <t>The goal of checkpoint is to solve the problem of package
-    reproducibility in R. Specifically, checkpoint allows you to install packages
-    as they existed on CRAN on a specific snapshot date as if you had a CRAN time
-    machine. To achieve reproducibility, the checkpoint() function installs the
-    packages required or called by your project and scripts to a local library
-    exactly as they existed at the specified point in time. Only those packages
-    are available to your project, thereby avoiding any package updates that came
-    later and may have altered your results. In this way, anyone using checkpoint's
-    checkpoint() can ensure the reproducibility of your scripts or projects at any
-    time. To create the snapshot archives, once a day (at midnight UTC) Microsoft
-    refreshes the Austria CRAN mirror on the "Microsoft R Archived Network"
-    server (&lt;https://mran.microsoft.com/&gt;). Immediately after completion
-    of the rsync mirror process, the process takes a snapshot, thus creating the
-    archive. Snapshot archives exist starting from 2014-09-17.</t>
-  </si>
-  <si>
     <t>dataCompareR</t>
   </si>
   <si>
-    <t>Easy comparison of two tabular data
-    objects in R. Specifically designed to show differences between two sets of
-    data in a useful way that should make it easier to understand the differences,
-    and if necessary, help you work out how to remedy them. Aims
-    to offer a more useful output than all.equal() when your two data sets do not
-    match, but isn't intended to replace all.equal() as a way to test for equality.</t>
-  </si>
-  <si>
     <t>car</t>
   </si>
   <si>
-    <t xml:space="preserve">
-  Functions and Datasets to Accompany J. Fox and S. Weisberg, 
-  An R Companion to Applied Regression, Second Edition, Sage, 2011.</t>
-  </si>
-  <si>
     <t>DiagrammeR</t>
   </si>
   <si>
@@ -467,70 +207,24 @@
     <t>reprex</t>
   </si>
   <si>
-    <t>Convenience wrapper that uses the 'rmarkdown' package to render
-  small snippets of code to target formats that include both code and output.
-  The goal is to encourage the sharing of small, reproducible, and runnable
-  examples on code-oriented websites, such as &lt;http://stackoverflow.com&gt; and
-  &lt;https://github.com&gt;, or in email. 'reprex' also extracts clean, runnable R
-  code from various common formats, such as copy/paste from an R session.</t>
-  </si>
-  <si>
     <t>clipr</t>
   </si>
   <si>
-    <t>Simple utility functions to read from and write to the Windows,
-    OS X, and X11 clipboards.</t>
-  </si>
-  <si>
     <t>dataMaid</t>
   </si>
   <si>
-    <t>Data cleaning is an important first step of any statistical
-    analysis. dataMaid provides an extendable suite of test for common potential
-    errors in a dataset. It produces a document with a thorough summary of the
-    checks and the results that a human can use to identify possible errors.</t>
-  </si>
-  <si>
     <t>caret</t>
   </si>
   <si>
-    <t>Misc functions for training and plotting classification and
-    regression models.</t>
-  </si>
-  <si>
     <t>directlabels</t>
   </si>
   <si>
-    <t>An extensible framework
- for automatically placing direct labels onto multicolor 'lattice' or
- 'ggplot2' plots.
- Label positions are described using Positioning Methods
- which can be re-used across several different plots.
- There are heuristics for examining "trellis" and "ggplot" objects
- and inferring an appropriate Positioning Method.</t>
-  </si>
-  <si>
     <t>smpic</t>
   </si>
   <si>
-    <t>Creates images that are the proper size for social media. Beautiful
-    plots, charts and graphs wither and die if they are not shared. Social media 
-    is perfect for this but every platform has its own image dimensions. With 
-    'smpic' you can easily save your plots with the exact dimensions needed for 
-    the different platforms.</t>
-  </si>
-  <si>
     <t>CodeDepends</t>
   </si>
   <si>
-    <t>Tools for analyzing R expressions
-  or blocks of code and determining the dependencies between them.
-  It focuses on R scripts, but can be used on the bodies of functions.
-  There are many facilities including the ability to summarize  or get a high-level
-  view of code, determining dependencies between variables,  code improvement
-  suggestions.</t>
-  </si>
-  <si>
     <t>dataPreparation</t>
   </si>
   <si>
@@ -540,19 +234,9 @@
     <t>changepoint</t>
   </si>
   <si>
-    <t>Implements various mainstream and specialised changepoint methods for finding single and multiple changepoints within data.  Many popular non-parametric and frequentist methods are included.  The cpt.mean(), cpt.var(), cpt.meanvar() functions should be your first point of call.</t>
-  </si>
-  <si>
     <t>dygraphs</t>
   </si>
   <si>
-    <t>An R interface to the 'dygraphs' JavaScript charting library
-    (a copy of which is included in the package). Provides rich facilities
-    for charting time-series data in R, including highly configurable
-    series- and axis-display and interactive features like zoom/pan and
-    series/point highlighting.</t>
-  </si>
-  <si>
     <t>ColinFay/aside</t>
   </si>
   <si>
@@ -562,42 +246,15 @@
     <t>constants</t>
   </si>
   <si>
-    <t>CODATA internationally recommended values of the fundamental physical 
-    constants, provided as symbols for direct use within the R language. Optionally, 
-    the values with errors and/or the values with units are also provided if the 
-    'errors' and/or the 'units' packages are installed. The Committee on Data
-    for Science and Technology (CODATA) is an interdisciplinary committee of the
-    International Council for Science which periodically provides the internationally 
-    accepted set of values of the fundamental physical constants. This package 
-    contains the "2014 CODATA" version, published on 25 June 2015:
-    Mohr, P. J., Newell, D. B. and Taylor, B. N. (2016)
-    &lt;DOI:10.1103/RevModPhys.88.035009&gt;, &lt;DOI:10.1063/1.4954402&gt;.</t>
-  </si>
-  <si>
     <t>dbplyr</t>
   </si>
   <si>
-    <t>A 'dplyr' back end for databases that allows you to work with 
-    remote database tables as if they are in-memory data frames. Basic features
-    works with any database that has a 'DBI' back end; more advanced features 
-    require 'SQL' translation to be provided by the package author.</t>
-  </si>
-  <si>
     <t>chunked</t>
   </si>
   <si>
-    <t>Text data can be processed chunkwise using 'dplyr' commands. These
-    are recorded and executed per data chunk, so large files can be processed with
-    limited memory using the 'LaF' package.</t>
-  </si>
-  <si>
     <t>gdalUtils</t>
   </si>
   <si>
-    <t>Wrappers for the Geospatial Data Abstraction Library (GDAL)
-    Utilities.</t>
-  </si>
-  <si>
     <t>hrbrmstr/msgxtractr</t>
   </si>
   <si>
@@ -607,27 +264,12 @@
     <t>cranlogs</t>
   </si>
   <si>
-    <t>'API' to the database of 'CRAN' package downloads from the
-    'RStudio' 'CRAN mirror'. The database itself is at &lt;http://cranlogs.r-pkg.org&gt;,
-    see &lt;https://github.com/metacran/cranlogs.app&gt; for the raw 'API'.</t>
-  </si>
-  <si>
     <t>desctable</t>
   </si>
   <si>
-    <t>Easily create descriptive and comparative tables.
-    It makes use and integrates directly with the tidyverse family of packages, and pipes.
-    Tables are produced as data frames/lists of data frames for easy manipulation after creation,
-    and ready to be saved as csv, or piped to DT::datatable() or pander::pander() to integrate into reports.</t>
-  </si>
-  <si>
     <t>class</t>
   </si>
   <si>
-    <t>Various functions for classification, including k-nearest
-  neighbour, Learning Vector Quantization and Self-Organizing Maps.</t>
-  </si>
-  <si>
     <t>geofacet</t>
   </si>
   <si>
@@ -652,14 +294,6 @@
     <t>cld2</t>
   </si>
   <si>
-    <t>Bindings to Google's C++ library Compact Language Detector 2
-    (see &lt;https://github.com/cld2owners/cld2#readme&gt; for more information). Probabilistically
-    detects over 80 languages in plain text or HTML. For mixed-language input it returns the
-    top three detected languages and their approximate proportion of the total classified 
-    text bytes (e.g. 80% English and 20% French out of 1000 bytes). There is also a 'cld3'
-    package on CRAN which uses a neural network model instead.</t>
-  </si>
-  <si>
     <t>geonames</t>
   </si>
   <si>
@@ -675,27 +309,12 @@
     <t>cronR</t>
   </si>
   <si>
-    <t>Create, edit, and remove 'cron' jobs on your unix-alike system. The package provides a set of easy-to-use wrappers
-    to 'crontab'. It also provides an RStudio add-in to easily launch and schedule your scripts.</t>
-  </si>
-  <si>
     <t>diffobj</t>
   </si>
   <si>
-    <t>Generate a colorized diff of two R objects for an intuitive
-    visualization of their differences.</t>
-  </si>
-  <si>
     <t>cld3</t>
   </si>
   <si>
-    <t>Google's Compact Language Detector 3 is a neural network model for language 
-    identification and the successor of 'cld2' (available from CRAN). The algorithm is still
-    experimental and takes a novel approach to language detection with different properties
-    and outcomes. It can be useful to combine this with the Bayesian classifier results 
-    from 'cld2'. See &lt;https://github.com/google/cld3#readme&gt; for more information.</t>
-  </si>
-  <si>
     <t>geoR</t>
   </si>
   <si>
@@ -711,20 +330,9 @@
     <t>ctv</t>
   </si>
   <si>
-    <t>Infrastructure for task views to CRAN-style repositories: Querying task views and installing the associated
-             packages (client-side tools), generating HTML pages and storing task view information in the repository
-	     (server-side tools).</t>
-  </si>
-  <si>
     <t>DT</t>
   </si>
   <si>
-    <t>Data objects in R can be rendered as HTML tables using the
-    JavaScript library 'DataTables' (typically via R Markdown or Shiny). The
-    'DataTables' library has been included in this R package. The package name
-    'DT' is an abbreviation of 'DataTables'.</t>
-  </si>
-  <si>
     <t>C50</t>
   </si>
   <si>
@@ -752,43 +360,12 @@
     <t>dummies</t>
   </si>
   <si>
-    <t>Expands factors, characters and other eligible classes
-        into dummy/indicator variables.</t>
-  </si>
-  <si>
     <t>cleanNLP</t>
   </si>
   <si>
-    <t>Provides a set of fast tools for converting a textual corpus into a set of normalized
-  tables. Users may make use of a Python back end with 'spaCy' &lt;https://spacy.io&gt;
-  or the Java back end 'CoreNLP' &lt;http://stanfordnlp.github.io/CoreNLP/&gt;. A minimal back
-  end with no external dependencies is also provided. Exposed annotation tasks include
-  tokenization, part of speech tagging, named entity recognition, entity linking, sentiment
-  analysis, dependency parsing, coreference resolution, and word embeddings. Summary
-  statistics regarding token unigram, part of speech tag, and dependency type frequencies
-  are also included to assist with analyses.</t>
-  </si>
-  <si>
     <t>GeoXp</t>
   </si>
   <si>
-    <t>GeoXp is a tool for researchers in spatial statistics,
-        spatial econometrics, geography, ecology etc allowing to link
-        dynamically statistical plots with elementary maps. This
-        coupling consists in the fact that the selection of a zone on
-        the map results in the automatic highlighting of the
-        corresponding points on the statistical graph or reversely the
-        selection of a portion of the graph results in the automatic
-        highlighting of the corresponding points on the map. GeoXp
-        includes tools from different areas of spatial statistics
-        including geostatistics as well as spatial econometrics and
-        point processes. Besides elementary plots like boxplots,
-        histograms or simple scatterplot, GeoXp also couples with maps
-        Moran scatterplots, variogram cloud, Lorentz Curves,...In order
-        to make the most of the multidimensionality of the data, GeoXp
-        includes some dimension reduction techniques such as PCA.</t>
-  </si>
-  <si>
     <t>ropensci/tabulizer</t>
   </si>
   <si>
@@ -804,35 +381,12 @@
     <t>factoextra</t>
   </si>
   <si>
-    <t>Provides some easy-to-use functions to extract and visualize the
-    output of multivariate data analyses, including 'PCA' (Principal Component
-    Analysis), 'CA' (Correspondence Analysis), 'MCA' (Multiple Correspondence
-    Analysis), 'FAMD' (Factor Analysis of Mixed Data), 'MFA' (Multiple Factor Analysis) and 'HMFA' (Hierarchical Multiple
-    Factor Analysis) functions from different R packages. It contains also functions
-    for simplifying some clustering analysis steps and provides 'ggplot2' - based
-    elegant data visualization.</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
-    <t>Methods for Cluster analysis.  Much extended the original from
-	Peter Rousseeuw, Anja Struyf and Mia Hubert,
-	based on Kaufman and Rousseeuw (1990) "Finding Groups in Data".</t>
-  </si>
-  <si>
     <t>GGally</t>
   </si>
   <si>
-    <t xml:space="preserve">
-    The R package 'ggplot2' is a plotting system based on the grammar of graphics.
-    'GGally' extends 'ggplot2' by adding several functions
-    to reduce the complexity of combining geometric objects with transformed data.
-    Some of these functions include a pairwise plot matrix, a two group pairwise plot
-    matrix, a parallel coordinates plot, a survival plot, and several functions to
-    plot networks.</t>
-  </si>
-  <si>
     <t>ThinkRstat/littleboxes</t>
   </si>
   <si>
@@ -854,25 +408,9 @@
     <t>confinterpret</t>
   </si>
   <si>
-    <t>Produces descriptive interpretations of confidence intervals.
-    Includes (extensible) support for various test types, specified as sets
-    of interpretations dependent on where the lower and upper confidence limits
-    sit. Provides plotting functions for graphical display of interpretations.</t>
-  </si>
-  <si>
     <t>ggalt</t>
   </si>
   <si>
-    <t>A compendium of new geometries, coordinate systems, statistical 
-    transformations, scales and fonts for 'ggplot2', including splines, 1d and 2d densities, 
-    univariate average shifted histograms, a new map coordinate system based on the 
-    'PROJ.4'-library along with geom_cartogram() that mimics the original functionality of 
-    geom_map(), formatters for "bytes", a stat_stepribbon() function, increased 'plotly'
-    compatibility and the 'StateFace' open source font 'ProPublica'. Further new 
-    functionality includes lollipop charts, dumbbell charts, the ability to encircle
-    points and coordinate-system-based text annotations.</t>
-  </si>
-  <si>
     <t>MangoTheCat/goodpractice</t>
   </si>
   <si>
@@ -882,42 +420,15 @@
     <t>extrafont</t>
   </si>
   <si>
-    <t>Tools to using fonts other than the standard PostScript fonts.
-    This package makes it easy to use system TrueType fonts and with PDF or
-    PostScript output files, and with bitmap output files in Windows. extrafont
-    can also be used with fonts packaged specifically to be used with, such as
-    the fontcm package, which has Computer Modern PostScript fonts with math
-    symbols. See https://github.com/wch/extrafont for instructions and
-    examples.</t>
-  </si>
-  <si>
     <t>filesstrings</t>
   </si>
   <si>
-    <t>Convenient functions for moving files, deleting directories, 
-    and a variety of string operations that facilitate manipulating file names 
-    and extracting information from strings.</t>
-  </si>
-  <si>
     <t>corrr</t>
   </si>
   <si>
-    <t>A tool for exploring correlations.
-    It makes it possible to easily perform routine tasks when
-    exploring correlation matrices such as ignoring the diagonal,
-    focusing on the correlations of certain variables against others,
-    or rearranging and visualising the matrix in terms of the
-    strength of the correlations.</t>
-  </si>
-  <si>
     <t>ggbeeswarm</t>
   </si>
   <si>
-    <t>Provides two methods of plotting categorical scatter plots such
-    that the arrangement of points within a category reflects the density of
-    data at that region, and avoids over-plotting.</t>
-  </si>
-  <si>
     <t>hadley/pkgdown</t>
   </si>
   <si>
@@ -927,39 +438,15 @@
     <t>formatR</t>
   </si>
   <si>
-    <t>Provides a function tidy_source() to format R source code. Spaces
-    and indent will be added to the code automatically, and comments will be
-    preserved under certain conditions, so that R code will be more
-    human-readable and tidy. There is also a Shiny app as a user interface in
-    this package (see tidy_app()).</t>
-  </si>
-  <si>
     <t>foreign</t>
   </si>
   <si>
-    <t>Reading and writing data stored by some versions of
-	'Epi Info', 'Minitab', 'S', 'SAS', 'SPSS', 'Stata', 'Systat', 'Weka',
-	and for reading and writing some 'dBase' files.</t>
-  </si>
-  <si>
     <t>corrplot</t>
   </si>
   <si>
-    <t>A graphical display of a correlation matrix or general matrix.
-    It also contains some algorithms to do matrix reordering. In addition,
-    corrplot is good at details, including choosing color, text labels,
-    color labels, layout, etc.</t>
-  </si>
-  <si>
     <t>ggcorrplot</t>
   </si>
   <si>
-    <t>The 'ggcorrplot' package can be used to visualize easily a
-    correlation matrix using 'ggplot2'. It provides a solution for reordering the
-    correlation matrix and displays the significance level on the plot. It also
-    includes a function for computing a matrix of correlation p-values.</t>
-  </si>
-  <si>
     <t>gsimchoni/kandinsky</t>
   </si>
   <si>
@@ -975,18 +462,9 @@
     <t>fuzzyjoin</t>
   </si>
   <si>
-    <t>Join tables together based not on whether columns
-  match exactly, but whether they are similar by some comparison.
-  Implementations include string distance and regular expression
-  matching.</t>
-  </si>
-  <si>
     <t>cshapes</t>
   </si>
   <si>
-    <t xml:space="preserve">Package for CShapes, a GIS dataset of country boundaries (1946-today). Includes functions for data extraction and the computation of distance matrices and -lists.  </t>
-  </si>
-  <si>
     <t>ggedit</t>
   </si>
   <si>
@@ -1002,11 +480,6 @@
     <t>futile.logger</t>
   </si>
   <si>
-    <t>Provides a simple yet powerful logging utility. Based loosely on
-    log4j, futile.logger takes advantage of R idioms to make logging a
-    convenient and easy to use replacement for cat and print statements.</t>
-  </si>
-  <si>
     <t>ghibli</t>
   </si>
   <si>
@@ -1016,22 +489,9 @@
     <t>e1071</t>
   </si>
   <si>
-    <t>Functions for latent class analysis, short time Fourier
-	     transform, fuzzy clustering, support vector machines,
-	     shortest path computation, bagged clustering, naive Bayes
-	     classifier, ...</t>
-  </si>
-  <si>
     <t>ggforce</t>
   </si>
   <si>
-    <t>The aim of 'ggplot2' is to aid in visual data investigations. This
-    focus has led to a lack of facilities for composing specialised plots.
-    'ggforce' aims to be a collection of mainly new stats and geoms that fills
-    this gap. All additional functionality is aimed to come through the official
-    extension system so using 'ggforce' should be a stable experience.</t>
-  </si>
-  <si>
     <t>edgararuiz/dbplot</t>
   </si>
   <si>
@@ -1041,93 +501,27 @@
     <t>gistr</t>
   </si>
   <si>
-    <t>Work with 'GitHub' 'gists' from 'R' (e.g., 
-    &lt;http://en.wikipedia.org/wiki/GitHub#Gist&gt;, 
-    &lt;https://help.github.com/articles/about-gists/&gt;). A 'gist'
-    is simply one or more files with code/text/images/etc. This package allows
-    the user to create new 'gists', update 'gists' with new files, rename files,
-    delete files, get and delete 'gists', star and 'un-star' 'gists', fork 'gists',
-    open a 'gist' in your default browser, get embed code for a 'gist', list
-    'gist' 'commits', and get rate limit information when 'authenticated'. Some
-    requests require authentication and some do not. 'Gists' website: 
-    &lt;https://gist.github.com/&gt;.</t>
-  </si>
-  <si>
     <t>gsubfn</t>
   </si>
   <si>
-    <t>gsubfn is like gsub but can take a replacement function
-   or certain other objects instead of the replacement string.
-   Matches and back references are input to the replacement function and 
-   replaced by the function output.   gsubfn can be used to split strings 
-   based on content rather than delimiters and for quasi-perl-style string 
-   interpolation. The package also has facilities for translating formulas 
-   to functions and allowing such formulas in function calls instead of 
-   functions.  This can be used with R functions such as apply, sapply,
-   lapply, optim, integrate, xyplot, Filter and any other function that 
-   expects another function as an input argument or functions like cat
-   or sql calls that may involve strings where substitution is desirable.</t>
-  </si>
-  <si>
     <t>effects</t>
   </si>
   <si>
-    <t xml:space="preserve">
-  Graphical and tabular effect displays, e.g., of interactions, for 
-  various statistical models with linear predictors.</t>
-  </si>
-  <si>
     <t>ggfortify</t>
   </si>
   <si>
-    <t>Unified plotting tools for statistics commonly used, such as GLM,
-    time series, PCA families, clustering and survival analysis. The package offers
-    a single plotting interface for these analysis results and plots in a unified
-    style using 'ggplot2'.</t>
-  </si>
-  <si>
     <t>Simplifies plotting of database and sparklyr data</t>
   </si>
   <si>
     <t>glue</t>
   </si>
   <si>
-    <t>An implementation of interpreted string literals, inspired by
-  Python's Literal String Interpolation &lt;https://www.python.org/dev/peps/pep-0498/&gt; and Docstrings
-  &lt;https://www.python.org/dev/peps/pep-0257/&gt; and Julia's Triple-Quoted String Literals
-  &lt;https://docs.julialang.org/en/stable/manual/strings/#triple-quoted-string-literals&gt;.</t>
-  </si>
-  <si>
     <t>imputeTS</t>
   </si>
   <si>
-    <t>Imputation (replacement) of missing values 
-             in univariate time series. 
-             Offers several imputation functions
-             and missing data plots. 
-             Available imputation algorithms include: 
-            'Mean', 'LOCF', 'Interpolation', 
-            'Moving Average', 'Seasonal Decomposition', 
-            'Kalman Smoothing on Structural Time Series models',
-            'Kalman Smoothing on ARIMA models'.</t>
-  </si>
-  <si>
     <t>expss</t>
   </si>
   <si>
-    <t>Package provides tabulation functions with support for 'SPSS'-style 
-        labels, multiple / nested banners, weights, multiple-response variables 
-        and significance testing. There are facilities for nice output of tables 
-        in 'knitr', R notebooks, 'Shiny' and 'Jupyter' notebooks. Proper methods 
-        for labelled variables add value labels support to base R functions and to 
-        some functions from other packages. Additionally, the package offers 
-        useful functions for data processing in marketing research / social 
-        surveys - popular data transformation functions from 'SPSS' Statistics 
-        ('RECODE', 'COUNT', 'COMPUTE', 'DO IF', etc.) and 'Excel' ('COUNTIF', 
-        'VLOOKUP', etc.). Package is intended to help people to move data 
-        processing from 'Excel'/'SPSS' to R.</t>
-  </si>
-  <si>
     <t>gghighlight</t>
   </si>
   <si>
@@ -1149,32 +543,12 @@
     <t>janitor</t>
   </si>
   <si>
-    <t>The main janitor functions can: perfectly format data.frame column
-    names; provide quick one- and two-variable tabulations (i.e., frequency
-    tables and crosstabs); and isolate duplicate records. Other janitor functions
-    nicely format the tabulation results. These tabulate-and-report functions
-    approximate popular features of SPSS and Microsoft Excel. This package
-    follows the principles of the "tidyverse" and works well with the pipe function
-    %&gt;%. janitor was built with beginning-to-intermediate R users in mind and is
-    optimized for user-friendliness. Advanced R users can already do everything
-    covered here, but with janitor they can do it faster and save their thinking for
-    the fun stuff.</t>
-  </si>
-  <si>
     <t>fBasics</t>
   </si>
   <si>
-    <t>Environment for teaching 
-	"Financial Engineering and Computational Finance".</t>
-  </si>
-  <si>
     <t>ggimage</t>
   </si>
   <si>
-    <t>Supports image files and graphic objects to be visualized in
-    'ggplot2' graphic system.</t>
-  </si>
-  <si>
     <t>ThinkR-open/remedy</t>
   </si>
   <si>
@@ -1190,21 +564,9 @@
     <t>likert</t>
   </si>
   <si>
-    <t>An approach to analyzing Likert response items, with an emphasis on visualizations. 
-    The stacked bar plot is the preferred method for presenting Likert results. Tabular results
-    are also implemented along with density plots to assist researchers in determining whether 
-    Likert responses can be used quantitatively instead of qualitatively. See the likert(), 
-    summary.likert(), and plot.likert() functions to get started.</t>
-  </si>
-  <si>
     <t>FFTrees</t>
   </si>
   <si>
-    <t>Create, visualize, and test fast-and-frugal decision trees (FFTs). FFTs are very simple decision trees for
-    binary classification problems. FFTs can be preferable to more complex algorithms because they are easy to communicate, require very little information, and are
-    robust against overfitting.</t>
-  </si>
-  <si>
     <t>ggiraph</t>
   </si>
   <si>
@@ -1214,48 +576,18 @@
     <t>here</t>
   </si>
   <si>
-    <t>Constructs paths to your project's files.
-    The 'here()' function uses a reasonable heuristics to find your project's
-    files, based on the current working directory at the time when the package
-    is loaded. Use it as a drop-in replacement for 'file.path()', it will always
-    locate the files relative to your project root.</t>
-  </si>
-  <si>
     <t>lumberjack</t>
   </si>
   <si>
-    <t>A function composition ('pipe') operator and extensible 
-    framework that allows for easy logging of changes in data.</t>
-  </si>
-  <si>
     <t>forecast</t>
   </si>
   <si>
-    <t>Methods and tools for displaying and analysing
-             univariate time series forecasts including exponential smoothing
-             via state space models and automatic ARIMA modelling.</t>
-  </si>
-  <si>
     <t>ggmap</t>
   </si>
   <si>
-    <t>A collection of functions to visualize spatial data and models
-    on top of static maps from various online sources (e.g Google Maps and Stamen
-    Maps). It includes tools common to those tasks, including functions for
-    geolocation and routing.</t>
-  </si>
-  <si>
     <t>Hmisc</t>
   </si>
   <si>
-    <t>Contains many functions useful for data
-	analysis, high-level graphics, utility operations, functions for
-	computing sample size and power, importing and annotating datasets,
-	imputing missing values, advanced table making, variable clustering,
-	character string manipulation, conversion of R objects to LaTeX and html code,
-	and recoding variables.</t>
-  </si>
-  <si>
     <t>mi</t>
   </si>
   <si>
@@ -1271,64 +603,18 @@
     <t>ggplotgui</t>
   </si>
   <si>
-    <t xml:space="preserve">Easily explore data by creating ggplots through a (shiny-)GUI. R-code to recreate graph provided.   </t>
-  </si>
-  <si>
     <t>htmltab</t>
   </si>
   <si>
-    <t>HTML tables are a valuable data source but extracting and recasting
-    these data into a useful format can be tedious. This package allows to collect
-    structured information from HTML tables. It is similar to readHTMLTable()
-    of the XML package but provides three major advantages. First, the function
-    automatically expands row and column spans in the header and body cells.
-    Second, users are given more control over the identification of header and body
-    rows which will end up in the R table, including semantic header information
-    that appear throughout the body. Third, the function preprocesses table code,
-    corrects common types of malformations, removes unneeded parts and so helps to
-    alleviate the need for tedious post-processing.</t>
-  </si>
-  <si>
     <t>mice</t>
   </si>
   <si>
-    <t>Multiple imputation using Fully Conditional Specification (FCS)
-    implemented by the MICE algorithm as described in Van Buuren and
-    Groothuis-Oudshoorn (2011) &lt;doi:10.18637/jss.v045.i03&gt;. Each variable has
-    its own imputation model. Built-in imputation models are provided for
-    continuous data (predictive mean matching, normal), binary data (logistic
-    regression), unordered categorical data (polytomous logistic regression)
-    and ordered categorical data (proportional odds). MICE can also impute
-    continuous two-level data (normal model, pan, second-level variables).
-    Passive imputation can be used to maintain consistency between variables.
-    Various diagnostic plots are available to inspect the quality of the
-    imputations.</t>
-  </si>
-  <si>
     <t>gap</t>
   </si>
   <si>
-    <t>It is designed as an integrated package for genetic data
-        analysis of both population and family data. Currently, it
-        contains functions for sample size calculations of both
-        population-based and family-based designs, probability of
-        familial disease aggregation, kinship calculation, statistics
-        in linkage analysis, and association analysis involving genetic
-        markers including haplotype analysis with or without environmental
-        covariates.</t>
-  </si>
-  <si>
     <t>ggpubr</t>
   </si>
   <si>
-    <t>'ggplot2' is an excellent and flexible package for elegant data
-    visualization in R. However the default generated plots requires some formatting
-    before we can send them for publication. Furthermore, to customize a 'ggplot',
-    the syntax is opaque and this raises the level of difficulty for researchers
-    with no advanced R programming skills. 'ggpubr' provides some easy-to-use
-    functions for creating and customizing 'ggplot2'- based publication ready plots.</t>
-  </si>
-  <si>
     <t>htmltools</t>
   </si>
   <si>
@@ -1338,34 +624,12 @@
     <t>missForest</t>
   </si>
   <si>
-    <t>The function 'missForest' in this package is used to
-        impute missing values particularly in the case of mixed-type
-        data. It uses a random forest trained on the observed values of
-        a data matrix to predict the missing values. It can be used to
-        impute continuous and/or categorical data including complex
-        interactions and non-linear relations. It yields an out-of-bag
-        (OOB) imputation error estimate without the need of a test set
-        or elaborate cross-validation. It can be run in parallel to 
-        save computation time.</t>
-  </si>
-  <si>
     <t>gapminder</t>
   </si>
   <si>
-    <t>An excerpt of the data available at Gapminder.org. For each of 142
-    countries, the package provides values for life expectancy, GDP per capita,
-    and population, every five years, from 1952 to 2007.</t>
-  </si>
-  <si>
     <t>ggraph</t>
   </si>
   <si>
-    <t>The grammar of graphics as implemented in ggplot2 is a poor fit for
-    graph and network visualizations due to its reliance on tabular data input.
-    ggraph is an extension of the ggplot2 API tailored to graph visualizations
-    and provides the same flexible approach to building up plots layer by layer.</t>
-  </si>
-  <si>
     <t>humanFormat</t>
   </si>
   <si>
@@ -1381,43 +645,15 @@
     <t>gbm</t>
   </si>
   <si>
-    <t>An implementation of extensions to Freund and
-        Schapire's AdaBoost algorithm and Friedman's gradient boosting
-        machine. Includes regression methods for least squares,
-        absolute loss, t-distribution loss, quantile regression,
-        logistic, multinomial logistic, Poisson, Cox proportional
-        hazards partial likelihood, AdaBoost exponential loss,
-        Huberized hinge loss, and Learning to Rank measures
-        (LambdaMart).</t>
-  </si>
-  <si>
     <t>ggrepel</t>
   </si>
   <si>
-    <t>Provides text and label geoms for 'ggplot2' that help to avoid
-    overlapping text labels. Labels repel away from each other and away from the
-    data points.</t>
-  </si>
-  <si>
     <t>Kmisc</t>
   </si>
   <si>
-    <t>This package contains a collection of functions for common data
-    extraction and reshaping operations, string manipulation, and
-    functions for table and plot generation for R Markdown documents.</t>
-  </si>
-  <si>
     <t>munsell</t>
   </si>
   <si>
-    <t>Provides easy access to, and manipulation of, the Munsell 
-    colours. Provides a mapping between Munsell's 
-    original notation (e.g. "5R 5/10") and hexadecimal strings suitable 
-    for use directly in R graphics. Also provides utilities 
-    to explore slices through the Munsell colour tree, to transform 
-    Munsell colours and display colour palettes.</t>
-  </si>
-  <si>
     <t>glmnet</t>
   </si>
   <si>
@@ -1433,75 +669,30 @@
     <t>later</t>
   </si>
   <si>
-    <t>Executes arbitrary R or C functions some time after the current
-    time, after the R execution stack has emptied.</t>
-  </si>
-  <si>
     <t>naniar</t>
   </si>
   <si>
-    <t xml:space="preserve">Missing values are ubiquitous in data and need to be explored and
-    handled in the initial stages of analysis. 'naniar' provides data structures 
-    and functions that facilitate the plotting of missing values and examination 
-    of imputations. This allows missing data dependencies to be explored with 
-    minimal deviation from the common work patterns of 'ggplot2' and tidy data. </t>
-  </si>
-  <si>
     <t>googleLanguageR</t>
   </si>
   <si>
-    <t>Call 'Google Cloud' machine learning APIs for text and speech tasks.
-  Call the 'Cloud Translation' API &lt;https://cloud.google.com/translate/&gt; for detection 
-  and translation of text, the 'Natural Language' API &lt;https://cloud.google.com/natural-language/&gt; to 
-  analyse text for sentiment, entities or syntax or the 'Cloud Speech' API 
-  &lt;https://cloud.google.com/speech/&gt; to transcribe sound files to text.</t>
-  </si>
-  <si>
     <t>ggsci</t>
   </si>
   <si>
-    <t>A collection of 'ggplot2' color palettes inspired by
-    plots in scientific journals, data visualization libraries,
-    science fiction movies, and TV shows.</t>
-  </si>
-  <si>
     <t>lessR</t>
   </si>
   <si>
-    <t xml:space="preserve">Each function accomplishes the work of several or more standard R functions. For example, two function calls, Read() and CountAll(), read the data and generate summary statistics for all variables in the data frame, plus histograms and bar charts as appropriate.  Other functions provide for descriptive statistics, a comprehensive regression analysis, analysis of variance and t-test, plotting including the introduced here Violin/Box/Scatter plot for a numerical variable, bar chart, histogram, box plot, density curves, calibrated power curve, reading multiple data formats with the same function call, variable labels, color themes, Trellis graphics and a built-in help system. A confirmatory factor analysis of multiple indicator measurement models is available, as are pedagogical routines for data simulation such as for the Central Limit Theorem. Compatible with 'RStudio' and 'knitr' including generation of R markdown instructions for interpretative output. </t>
-  </si>
-  <si>
     <t>psych</t>
   </si>
   <si>
-    <t>A general purpose toolbox for personality, psychometric theory and experimental psychology.   Functions are primarily for multivariate analysis and scale construction using factor analysis, principal component analysis, cluster analysis and reliability analysis, although others provide basic descriptive statistics. Item Response Theory is done using  factor analysis of tetrachoric and polychoric correlations. Functions for analyzing data at multiple levels include within and between group statistics, including correlations and factor analysis.   Functions for simulating and testing particular item and test structures are included. Several functions  serve as a useful front end for structural equation modeling.  Graphical displays of path diagrams, factor analysis and structural equation models are created using basic graphics. Some of the functions are written to support a book on psychometric theory as well as publications in personality research. For more information, see the &lt;http://personality-project.org/r&gt; web page.</t>
-  </si>
-  <si>
     <t>hunspell</t>
   </si>
   <si>
-    <t>A spell checker and morphological analyzer library designed for
-    languages with rich morphology and complex word compounding or character
-    encoding. The package can check and analyze individual words as well as
-    search for incorrect words within a text, latex, html or xml document. Use
-    the 'devtools' package to spell check R documentation with 'hunspell'.</t>
-  </si>
-  <si>
     <t>ggseas</t>
   </si>
   <si>
-    <t>Provides 'ggplot2' 'stats' that estimate seasonally adjusted series 
-    and rolling summaries such as rolling average on the fly for time series.</t>
-  </si>
-  <si>
     <t>lintr</t>
   </si>
   <si>
-    <t>Checks adherence to a given style, syntax errors and possible
-    semantic issues.  Supports on the fly checking of R code edited with 'RStudio IDE', 'Emacs',
-    'Vim', 'Sublime Text' and 'Atom'.</t>
-  </si>
-  <si>
     <t>RandomFields</t>
   </si>
   <si>
@@ -1511,53 +702,18 @@
     <t>kernlab</t>
   </si>
   <si>
-    <t>Kernel-based machine learning methods for classification,
-        regression, clustering, novelty detection, quantile regression
-        and dimensionality reduction.  Among other methods 'kernlab'
-        includes Support Vector Machines, Spectral Clustering, Kernel
-        PCA, Gaussian Processes and a QP solver.</t>
-  </si>
-  <si>
     <t>ggtern</t>
   </si>
   <si>
-    <t>Extends the functionality of 'ggplot2', providing the capability
-    to plot ternary diagrams for (subset of) the 'ggplot2' geometries. Additionally,
-    'ggtern' has implemented several NEW geometries which are unavailable to the
-    standard 'ggplot2' release. For further examples and documentation, please
-    proceed to the 'ggtern' website.</t>
-  </si>
-  <si>
     <t>logging</t>
   </si>
   <si>
-    <t>logging is a pure R package that implements the ubiquitous
-        log4j package.</t>
-  </si>
-  <si>
     <t>RColorBrewer</t>
   </si>
   <si>
-    <t>Provides color schemes for maps (and other graphics)
-        designed by Cynthia Brewer as described at http://colorbrewer2.org</t>
-  </si>
-  <si>
     <t>koRpus</t>
   </si>
   <si>
-    <t>A set of tools to analyze texts. Includes, amongst others, functions for automatic language detection, hyphenation,
-               several indices of lexical diversity (e.g., type token ratio, HD-D/vocd-D, MTLD) and readability (e.g., Flesch, SMOG,
-               LIX, Dale-Chall). Basic import functions for language corpora are also provided, to enable frequency analyses (supports
-               Celex and Leipzig Corpora Collection file formats) and measures like tf-idf. Support for additional languages can be
-               added on-the-fly or by plugin packages. Note: For full functionality a local installation of TreeTagger is recommended.
-               'koRpus' also includes a plugin for the R GUI and IDE RKWard, providing graphical dialogs for its basic features. The
-               respective R package 'rkward' cannot be installed directly from a repository, as it is a part of RKWard. To make full
-               use of this feature, please install RKWard from &lt;https://rkward.kde.org&gt; (plugins are detected automatically). Due to
-               some restrictions on CRAN, the full package sources are only available from the project homepage. To ask for help,
-               report bugs, request features, or discuss the development of the package, please subscribe to the koRpus-dev mailing
-               list (&lt;http://korpusml.reaktanz.de&gt;).</t>
-  </si>
-  <si>
     <t>ggThemeAssist</t>
   </si>
   <si>
@@ -1567,45 +723,15 @@
     <t>magrittr</t>
   </si>
   <si>
-    <t>Provides a mechanism for chaining commands with a
-    new forward-pipe operator, %&gt;%. This operator will forward a
-    value, or the result of an expression, into the next function
-    call/expression. There is flexible support for the type
-    of right-hand side expressions. For more information, see
-    package vignette.
-    To quote Rene Magritte, "Ceci n'est pas un pipe."</t>
-  </si>
-  <si>
     <t>sigr</t>
   </si>
   <si>
-    <t>Succinctly and correctly format statistical summaries of
-    various models and tests (F-test, Chi-Sq-test, Fisher-test, T-test, and rank-significance).  The main purpose is unified reporting and planning
-    of experimental results, working around issue such as the difficulty of
-    extracting model summary facts (such as with 'lm'/'glm').  This package also
-    includes empirical tests, such as bootstrap estimates.</t>
-  </si>
-  <si>
     <t>lambda.tools</t>
   </si>
   <si>
-    <t>Provides tools that manipulate and transform data using methods
-    and techniques consistent with functional programming. The idea is that
-    through the use of these tools, a program can be reasoned about insomuch
-    that the implementation can be proven to be equivalent to the mathematical
-    model.</t>
-  </si>
-  <si>
     <t>ggthemes</t>
   </si>
   <si>
-    <t>Some extra themes, geoms, and scales for 'ggplot2'.
-    Provides 'ggplot2' themes and scales that replicate the look of plots
-    by Edward Tufte, Stephen Few, 'Fivethirtyeight', 'The Economist', 'Stata',
-    'Excel', and 'The Wall Street Journal', among others.
-    Provides 'geoms' for Tufte's box plot and range frame.</t>
-  </si>
-  <si>
     <t>mallet</t>
   </si>
   <si>
@@ -1615,49 +741,18 @@
     <t>sjmisc</t>
   </si>
   <si>
-    <t>Collection of miscellaneous utility functions, supporting data 
-    transformation tasks like recoding, dichotomizing or grouping variables, 
-    setting and replacing missing values. The data transformation functions 
-    also support labelled data, and all integrate seamlessly into a 
-    'tidyverse'-workflow.</t>
-  </si>
-  <si>
     <t>leaflet.minicharts</t>
   </si>
   <si>
-    <t>Add and modify small charts on an interactive map created with 
-    package 'leaflet'. These charts can be used to represent at same time multiple 
-    variables on a single map.</t>
-  </si>
-  <si>
     <t>ggvis</t>
   </si>
   <si>
-    <t>An implementation of an interactive grammar of graphics, taking the
-    best parts of 'ggplot2', combining them with the reactive framework of
-    'shiny' and drawing web graphics using 'vega'.</t>
-  </si>
-  <si>
     <t>MASS</t>
   </si>
   <si>
-    <t>Functions and datasets to support Venables and Ripley,
-  "Modern Applied Statistics with S" (4th edition, 2002).</t>
-  </si>
-  <si>
     <t>sjPlot</t>
   </si>
   <si>
-    <t>Collection of plotting and table output functions for data
-    visualization. Results of various statistical analyses (that are commonly used
-    in social sciences) can be visualized using this package, including simple and
-    cross tabulated frequencies, histograms, box plots, (generalized) linear models,
-    mixed effects models, principal component analysis and correlation matrices, 
-    cluster analyses, scatter plots, stacked scales, effects plots of regression 
-    models (including interaction terms) and much more. This package supports
-    labelled data.</t>
-  </si>
-  <si>
     <t>leaps</t>
   </si>
   <si>
@@ -1673,117 +768,36 @@
     <t>Matrix</t>
   </si>
   <si>
-    <t>Classes and methods for dense and sparse matrices and
-    operations on them using 'LAPACK' and 'SuiteSparse'.</t>
-  </si>
-  <si>
     <t>sjstats</t>
   </si>
   <si>
-    <t>Collection of convenient functions for common statistical computations,
-             which are not directly provided by R's base or stats packages.
-             This package aims at providing, first, shortcuts for statistical
-             measures, which otherwise could only be calculated with additional
-             effort (like standard errors or root mean squared errors). Second,
-             these shortcut functions are generic (if appropriate), and can be
-             applied not only to vectors, but also to other objects as well
-             (e.g., the Coefficient of Variation can be computed for vectors,
-             linear models, or linear mixed models; the r2()-function returns
-             the r-squared value for 'lm', 'glm', 'merMod' or 'lme' objects).
-             The focus of most functions lies on summary statistics or fit
-             measures for regression models, including generalized linear
-             models and mixed effects models. However, some of the functions
-             also deal with other statistical measures, like Cronbach's Alpha,
-             Cramer's V, Phi etc.</t>
-  </si>
-  <si>
     <t>lime</t>
   </si>
   <si>
-    <t>When building complex models, it is often difficult to explain why
-    the model should be trusted. While global measures such as accuracy are
-    useful, they cannot be used for explaining why a model made a specific
-    prediction. 'lime' (a port of the 'lime' 'Python' package) is a method for
-    explaining the outcome of black box models by fitting a local model around
-    the point in question an perturbations of this point. The approach is
-    described in more detail in the article by Ribeiro et al. (2016) 
-    &lt;arXiv:1602.04938&gt;.</t>
-  </si>
-  <si>
     <t>gpclib</t>
   </si>
   <si>
-    <t>General polygon clipping routines for R based on Alan
-        Murta's C library</t>
-  </si>
-  <si>
     <t>microbenchmark</t>
   </si>
   <si>
-    <t>Provides infrastructure to accurately measure and compare
-        the execution time of R expressions.</t>
-  </si>
-  <si>
     <t>Simpsons</t>
   </si>
   <si>
-    <t>This package detects instances of Simpson's Paradox in
-        datasets. It examines subpopulations in the data, either
-        user-defined or by means of cluster analysis, to test whether a
-        regression at the level of the group is in the opposite
-        direction at the level of subpopulations.</t>
-  </si>
-  <si>
     <t>liquidSVM</t>
   </si>
   <si>
-    <t>Support vector machines (SVMs) and related kernel-based learning
-    algorithms are a well-known class of machine learning algorithms, for
-    non-parametric classification and regression.
-    liquidSVM is an implementation of SVMs whose key features are:
-    fully integrated hyper-parameter selection,
-    extreme speed on both small and large data sets,
-    full flexibility for experts, and
-    inclusion of a variety of different learning scenarios:
-    multi-class classification, ROC, and Neyman-Pearson learning, and
-    least-squares, quantile, and expectile regression.</t>
-  </si>
-  <si>
     <t>gridExtra</t>
   </si>
   <si>
-    <t>Provides a number of user-level functions to work with "grid"
-    graphics, notably to arrange multiple grid-based plots on a page, and draw
-    tables.</t>
-  </si>
-  <si>
     <t>mime</t>
   </si>
   <si>
-    <t>Guesses the MIME type from a filename extension using the data
-    derived from /etc/mime.types in UNIX-type systems.</t>
-  </si>
-  <si>
     <t>stringdist</t>
   </si>
   <si>
-    <t>Implements an approximate string matching version of R's native
-    'match' function. Can calculate various string distances based on edits
-    (Damerau-Levenshtein, Hamming, Levenshtein, optimal sting alignment), qgrams (q-
-    gram, cosine, jaccard distance) or heuristic metrics (Jaro, Jaro-Winkler). An
-    implementation of soundex is provided as well. Distances can be computed between
-    character vectors while taking proper care of encoding or between integer
-    vectors representing generic sequences.</t>
-  </si>
-  <si>
     <t>lmtest</t>
   </si>
   <si>
-    <t>A collection of tests, data sets, and examples
- for diagnostic checking in linear regression models. Furthermore,
- some generic tools for inference in parametric models are provided.</t>
-  </si>
-  <si>
     <t>gtable</t>
   </si>
   <si>
@@ -1793,58 +807,18 @@
     <t>miniCRAN</t>
   </si>
   <si>
-    <t>Makes it possible to create an internally consistent
-    repository consisting of selected packages from CRAN-like repositories.
-    The user specifies a set of desired packages, and 'miniCRAN' recursively
-    reads the dependency tree for these packages, then downloads only this
-    subset. The user can then install packages from this repository directly,
-    rather than from CRAN.  This is useful in production settings, e.g. server
-    behind a firewall, or remote locations with slow (or zero) Internet access.</t>
-  </si>
-  <si>
     <t>summarytools</t>
   </si>
   <si>
-    <t>Built around three key functions: 1) freq() generates
-    frequency tables reporting counts and proportions (including cumulative) for factors
-    and other discrete data; 2) descr() gives all common central tendency statistics and 
-    measures of dispersion for numerical data; 3) dfSummary() gives as much information
-    as possible on a dataframe's columns in a legible table. freq() and
-    descr() support weights, and all three functions support 'Hmisc' or 'pander' labels.  
-    A variety of output formats are available (plain text, 'rmarkdown' and HTML).
-    An additional misc function, what.is(), displays all common properties of an object
-    (its class, type, mode, attributes, etc.) and extends the base is() function, 
-    checking the object against most is.() functions.</t>
-  </si>
-  <si>
     <t>margins</t>
   </si>
   <si>
-    <t>An R port of Stata's 'margins' command, which can be used to
-    calculate marginal (or partial) effects from model objects.</t>
-  </si>
-  <si>
     <t>gtrendsR</t>
   </si>
   <si>
-    <t>An interface for retrieving and displaying the information returned
-    online by Google Trends is provided. Trends (number of hits) over the time as
-    well as geographic representation of the results can be displayed.</t>
-  </si>
-  <si>
     <t>naturalsort</t>
   </si>
   <si>
-    <t>Provides functions related to human natural ordering.
-    It handles adjacent digits in a character sequence as a number so that
-    natural sort function arranges a character vector by their numbers, not digit
-    characters. It is typically seen when operating systems lists file names. For
-    example, a sequence a-1.png, a-2.png, a-10.png looks naturally ordered because 1
-    &lt; 2 &lt; 10 and natural sort algorithm arranges so whereas general sort algorithms
-    arrange it into a-1.png, a-10.png, a-2.png owing to their third and fourth
-    characters.</t>
-  </si>
-  <si>
     <t>tabplot</t>
   </si>
   <si>
@@ -1854,140 +828,42 @@
     <t>Modeler</t>
   </si>
   <si>
-    <t>Defines classes and methods to learn models and use them
-  to predict binary outcomes.  These are generic tools, but we also
-  include specific examples for many common classifiers.</t>
-  </si>
-  <si>
     <t>heatmaply</t>
   </si>
   <si>
-    <t>Create interactive cluster 'heatmaps' that can be saved as a stand-
-    alone HTML file, embedded in 'R Markdown' documents or in a 'Shiny' app, and
-    available in the 'RStudio' viewer pane. Hover the mouse pointer over a cell to
-    show details or drag a rectangle to zoom. A 'heatmap' is a popular graphical
-    method for visualizing high-dimensional data, in which a table of numbers
-    are encoded as a grid of colored cells. The rows and columns of the matrix
-    are ordered to highlight patterns and are often accompanied by 'dendrograms'.
-    'Heatmaps' are used in many fields for visualizing observations, correlations,
-    missing values patterns, and more. Interactive 'heatmaps' allow the inspection
-    of specific value by hovering the mouse over a cell, as well as zooming into
-    a region of the 'heatmap' by dragging a rectangle around the relevant area.
-    This work is based on the 'ggplot2' and 'plotly.js' engine. It produces
-    similar 'heatmaps' as 'heatmap.2' or 'd3heatmap', with the advantage of speed
-    ('plotly.js' is able to handle larger size matrix), the ability to zoom from
-    the 'dendrogram' panes, and the placing of factor variables in the sides of the
-    'heatmap'.</t>
-  </si>
-  <si>
     <t>numform</t>
   </si>
   <si>
-    <t>Format numbers and plots for publication; includes the removal of leading zeros,
-          standardization of number of digits, addition of affixes, and a p-value formatter.
-          These tools combine the functionality of several 'base' functions such as paste(),
-          format(), and sprintf() into specific use case functions that are named in a way
-          that is consistent with usage, making their names easy to remember and easy to
-          deploy.</t>
-  </si>
-  <si>
     <t>tadaatoolbox</t>
   </si>
   <si>
-    <t>Contains functions for the easy display of statistical tests as well as
-    some convenience functions for data cleanup. It is meant to ease existing workflows
-    with packages like 'sjPlot', 'dplyr', and 'ggplot2'. The primary components are the functions
-    prefixed with 'tadaa_', which are built to work in an interactive environment, but also print
-    tidy markdown tables powered by 'pixiedust' for the creation of 'RMarkdown' reports.</t>
-  </si>
-  <si>
     <t>neuralnet</t>
   </si>
   <si>
-    <t>Training of neural networks using backpropagation,
-    resilient backpropagation with (Riedmiller, 1994) or without
-    weight backtracking (Riedmiller and Braun, 1993) or the
-    modified globally convergent version by Anastasiadis et al.
-    (2005). The package allows flexible settings through
-    custom-choice of error and activation function. Furthermore,
-    the calculation of generalized weights (Intrator O &amp; Intrator
-    N, 1993) is implemented.</t>
-  </si>
-  <si>
     <t>hexbin</t>
   </si>
   <si>
-    <t>Binning and plotting functions for hexagonal bins. Now
-        uses and relies on grid graphics and formal (S4) classes and
-        methods.</t>
-  </si>
-  <si>
     <t>officer</t>
   </si>
   <si>
-    <t>Access and manipulate 'Microsoft Word' and 'Microsoft PowerPoint' documents from R. 
-  The package focus on tabular and graphical reporting from R; it also provides two functions 
-  that let users get document content into data objects. A set of functions 
-  lets add and remove images, tables and paragraphs of text in new or existing documents. 
-  When working with 'PowerPoint' presentations, slides can be added or removed; shapes inside 
-  slides can also be added or removed. When working with 'Word' documents, a cursor can be 
-  used to help insert or delete content at a specific location in the document. The package 
-  does not require any installation of Microsoft product to be able to write Microsoft files.</t>
-  </si>
-  <si>
     <t>tatoo</t>
   </si>
   <si>
-    <t xml:space="preserve">
-  Functions to combine data.frames in ways that require additional effort in 
-  base R, and to add metadata (id, title, ...) that can be used for printing and 
-  xlsx export. The 'Tatoo_report' class is provided as a 
-  convenient helper to write several such tables to a workbook, one table per 
-  worksheet.</t>
-  </si>
-  <si>
     <t>nloptr</t>
   </si>
   <si>
     <t>optparse</t>
   </si>
   <si>
-    <t>A command line parser inspired by Python's 'optparse' library to
-    be used with Rscript to write "#!" shebang scripts that accept short and
-    long flag/options.</t>
-  </si>
-  <si>
     <t>unpivotr</t>
   </si>
   <si>
-    <t>Tools for converting data from complex or irregular layouts to a
-    columnar structure.  For example, tables with multilevel column or row
-    headers, or spreadsheets.  Header and data cells are selected by their
-    contents and position, as well as formatting and comments where available,
-    and are associated with one other by their proximity in given directions.
-    Functions for data frames and HTML tables are provided.</t>
-  </si>
-  <si>
     <t>NMF</t>
   </si>
   <si>
-    <t>Provides a framework to perform Non-negative Matrix
-    Factorization (NMF). The package implements a set of already published algorithms
-    and seeding methods, and provides a framework to test, develop and plug
-    new/custom algorithms. Most of the built-in algorithms have been optimized
-    in C++, and the main interface function provides an easy way of performing
-    parallel computations on multicore machines.</t>
-  </si>
-  <si>
     <t>highcharter</t>
   </si>
   <si>
-    <t>A wrapper for the 'Highcharts' library including
-  shortcut functions to plot R objects. 'Highcharts' 
-  &lt;http://www.highcharts.com/&gt; is a charting library offering
-  numerous chart types with a simple configuration syntax.</t>
-  </si>
-  <si>
     <t>pathological</t>
   </si>
   <si>
@@ -1997,85 +873,24 @@
     <t>VIM</t>
   </si>
   <si>
-    <t>New tools for the visualization of missing and/or imputed values
-    are introduced, which can be used for exploring the data and the structure of
-    the missing and/or imputed values. Depending on this structure of the missing
-    values, the corresponding methods may help to identify the mechanism generating
-    the missing values and allows to explore the data including missing values.
-    In addition, the quality of imputation can be visually explored using various
-    univariate, bivariate, multiple and multivariate plot methods. A graphical user
-    interface available in the separate package VIMGUI allows an easy handling of
-    the implemented plot methods.</t>
-  </si>
-  <si>
     <t>osmdata</t>
   </si>
   <si>
-    <t>Download and import of 'OpenStreetMap' ('OSM') data as 'sf' or 'sp'
-    objects.  'OSM' data are extracted from the 'Overpass' web server and
-    processed with very fast 'C++' routines for return to 'R'.</t>
-  </si>
-  <si>
     <t>hrbrthemes</t>
   </si>
   <si>
-    <t>A compilation of extra 'ggplot2' themes, scales and utilities, including a 
-    spell check function plot label fields and an overall emphasis on typography. 
-    A copy of the 'Google' font 'Roboto Condensed' &lt;https://github.com/google/roboto/&gt; 
-    is also included to support one of the typography-oriented themes.</t>
-  </si>
-  <si>
     <t>pdftools</t>
   </si>
   <si>
-    <t>Utilities based on 'libpoppler' for extracting text, fonts, attachments and 
-    metadata from a PDF file. Also supports high quality rendering of PDF documents info
-    PNG, JPEG, TIFF format, or into raw bitmap vectors for further processing in R.</t>
-  </si>
-  <si>
     <t>viridis</t>
   </si>
   <si>
-    <t>Port of the new 'matplotlib' color maps ('viridis' - the default
-    -, 'magma', 'plasma' and 'inferno') to 'R'. 'matplotlib' &lt;http://matplotlib.org/
-    &gt; is a popular plotting library for 'python'. These color maps are designed
-    in such a way that they will analytically be perfectly perceptually-uniform,
-    both in regular form and also when converted to black-and-white. They are
-    also designed to be perceived by readers with the most common form of color
-    blindness.</t>
-  </si>
-  <si>
     <t>party</t>
   </si>
   <si>
-    <t>A computational toolbox for recursive partitioning.
-  The core of the package is ctree(), an implementation of
-  conditional inference trees which embed tree-structured 
-  regression models into a well defined theory of conditional
-  inference procedures. This non-parametric class of regression
-  trees is applicable to all kinds of regression problems, including
-  nominal, ordinal, numeric, censored as well as multivariate response
-  variables and arbitrary measurement scales of the covariates. 
-  Based on conditional inference trees, cforest() provides an
-  implementation of Breiman's random forests. The function mob()
-  implements an algorithm for recursive partitioning based on
-  parametric models (e.g. linear models, GLMs or survival
-  regression) employing parameter instability tests for split
-  selection. Extensible functionality for visualizing tree-structured
-  regression models is available. The methods are described in
-  Hothorn et al. (2006) &lt;doi:10.1198/106186006X133933&gt;,
-  Zeileis et al. (2008) &lt;doi:10.1198/106186008X319331&gt; and 
-  Strobl et al. (2007) &lt;doi:10.1186/1471-2105-8-25&gt;.</t>
-  </si>
-  <si>
     <t>htmlwidgets</t>
   </si>
   <si>
-    <t>A framework for creating HTML widgets that render in various
-    contexts including the R console, 'R Markdown' documents, and 'Shiny'
-    web applications.</t>
-  </si>
-  <si>
     <t>pkggraph</t>
   </si>
   <si>
@@ -2085,86 +900,27 @@
     <t>visdat</t>
   </si>
   <si>
-    <t>Create preliminary exploratory data visualisations of an entire 
-  dataset to identify problems or unexpected features using 'ggplot2'.</t>
-  </si>
-  <si>
     <t>PerformanceAnalytics</t>
   </si>
   <si>
-    <t>Collection of econometric functions for
-    performance and risk analysis. This package aims to aid
-    practitioners and researchers in utilizing the latest
-    research in analysis of non-normal return streams.  In
-    general, it is most tested on return (rather than
-    price) data on a regular scale, but most functions will
-    work with irregular return data as well, and increasing
-    numbers of functions will work with P&amp;L or price data
-    where possible.</t>
-  </si>
-  <si>
     <t>igraph</t>
   </si>
   <si>
-    <t>Routines for simple graphs and network analysis. It can
-  handle large graphs very well and provides functions for generating random
-  and regular graphs, graph visualization, centrality methods and much more.</t>
-  </si>
-  <si>
     <t>plumber</t>
   </si>
   <si>
-    <t>Gives the ability to automatically generate and serve an HTTP API
-    from R functions using the annotations in the R documentation around your
-    functions.</t>
-  </si>
-  <si>
     <t>vtreat</t>
   </si>
   <si>
-    <t>A 'data.frame' processor/conditioner that prepares real-world data for predictive modeling in a statistically sound manner.
-    'vtreat' prepares variables so that data has fewer exceptional cases, making
-    it easier to safely use models in production. Common problems 'vtreat' defends
-    against: 'Inf', 'NA', too many categorical levels, rare categorical levels, and new
-    categorical levels (levels seen during application, but not during training).
-    'vtreat::prepare' should be used as you would use 'model.matrix'.</t>
-  </si>
-  <si>
     <t>qdapRegex</t>
   </si>
   <si>
-    <t>A collection of regular expression tools associated with
-        the 'qdap' package that may be useful outside of the context of
-        discourse analysis. Tools include
-        removal/extraction/replacement of abbreviations, dates, dollar
-        amounts, email addresses, hash tags, numbers, percentages,
-        citations, person tags, phone numbers, times, and zip codes.</t>
-  </si>
-  <si>
     <t>knitr</t>
   </si>
   <si>
-    <t>Provides a general-purpose tool for dynamic report generation in R
-    using Literate Programming techniques.</t>
-  </si>
-  <si>
     <t>pointblank</t>
   </si>
   <si>
-    <t>Validate data in local data frames,
-    local 'tibble' objects, in 'CSV' and 'TSV' files,
-    and in database tables ('PostgreSQL' and 'MySQL').
-    Validation pipelines can be made using
-    easily-readable, consecutive validation steps
-    and such pipelines allow for switching of the
-    data table context. Upon execution of the
-    validation plan, several reporting options are
-    available. User-defined thresholds for failure
-    rates allow for the determination of appropriate
-    reporting actions (e.g., sending email
-    notifications).</t>
-  </si>
-  <si>
     <t>wesanderson</t>
   </si>
   <si>
@@ -2174,68 +930,24 @@
     <t>leaflet</t>
   </si>
   <si>
-    <t>Create and customize interactive maps using the 'Leaflet'
-    JavaScript library and the 'htmlwidgets' package. These maps can be used
-    directly from the R console, from 'RStudio', in Shiny apps and R Markdown
-    documents.</t>
-  </si>
-  <si>
     <t>pool</t>
   </si>
   <si>
-    <t>Enables the creation of object pools, which make it less
-    computationally expensive to fetch a new object. Currently the
-    only supported pooled objects are 'DBI' connections.</t>
-  </si>
-  <si>
     <t>rstan</t>
   </si>
   <si>
-    <t>User-facing R functions are provided to parse, compile, test, 
-    estimate, and analyze Stan models by accessing the header-only Stan library 
-    provided by the 'StanHeaders' package. The Stan project develops a
-    probabilistic programming language that implements full Bayesian statistical 
-    inference via Markov Chain Monte Carlo, rough Bayesian inference via 'variational'
-    approximation, and (optionally penalized) maximum likelihood estimation via 
-    optimization. In all three cases, automatic differentiation is used to quickly 
-    and accurately evaluate gradients without burdening the user with the need 
-    to derive the partial derivatives.</t>
-  </si>
-  <si>
     <t>randomForest</t>
   </si>
   <si>
-    <t>Classification and regression based on a forest of trees
-        using random inputs.</t>
-  </si>
-  <si>
     <t>lemon</t>
   </si>
   <si>
-    <t>Functions for working with legends and axis lines of 'ggplot2',
-    facets that repeat axis lines on all panels, and some 'knitr' extensions.</t>
-  </si>
-  <si>
     <t>prettyunits</t>
   </si>
   <si>
-    <t>Pretty, human readable formatting of quantities.
-    Time intervals: 1337000 -&gt; 15d 11h 23m 20s.
-    Vague time intervals: 2674000 -&gt; about a month ago.
-    Bytes: 1337 -&gt; 1.34 kB.</t>
-  </si>
-  <si>
     <t>loo</t>
   </si>
   <si>
-    <t>Efficient approximate leave-one-out cross-validation (LOO)
-    using Pareto smoothed importance sampling (PSIS), a new procedure for
-    regularizing importance weights. As a byproduct of the calculations, we also
-    obtain approximate standard errors for estimated predictive errors and for
-    the comparison of predictive errors between models. We also compute the
-    widely applicable information criterion (WAIC).</t>
-  </si>
-  <si>
     <t>randomForestExplainer</t>
   </si>
   <si>
@@ -2257,13 +969,6 @@
     <t>bayesplot</t>
   </si>
   <si>
-    <t>Plotting functions for posterior analysis, model checking,
-    and MCMC diagnostics. The package is designed not only to provide convenient
-    functionality for users, but also a common set of functions that can be
-    easily used by developers working on a variety of R packages for Bayesian
-    modeling, particularly (but not exclusively) packages interfacing with 'Stan'.</t>
-  </si>
-  <si>
     <t>robets</t>
   </si>
   <si>
@@ -2273,62 +978,18 @@
     <t>magick</t>
   </si>
   <si>
-    <t>Bindings to 'ImageMagick': the most comprehensive open-source image
-    processing library available. Supports many common formats (png, jpeg, tiff,
-    pdf, etc) and manipulations (rotate, scale, crop, trim, flip, blur, etc).
-    All operations are vectorized via the Magick++ STL meaning they operate either
-    on a single frame or a series of frames for working with layers, collages,
-    or animation. In RStudio images are automatically previewed when printed to
-    the console, resulting in an interactive editing environment. The latest 
-    version of the package includes a native graphics device for creating 
-    in-memory graphics or drawing onto images using pixel coordinates.</t>
-  </si>
-  <si>
     <t>progress</t>
   </si>
   <si>
-    <t>Configurable Progress bars, they may include percentage,
-    elapsed time, and/or the estimated completion time. They work in
-    terminals, in 'Emacs' 'ESS', 'RStudio', 'Windows' 'Rgui' and the
-    'macOS' 'R.app'. The package also provides a 'C++' 'API', that works
-    with or without 'Rcpp'.</t>
-  </si>
-  <si>
     <t>rstanarm</t>
   </si>
   <si>
-    <t>Estimates previously compiled regression models using the 'rstan' package,
-    which provides the R interface to the Stan C++ library for Bayesian estimation.
-    Users specify models via the customary R syntax with a formula and data.frame
-    plus some additional arguments for priors.</t>
-  </si>
-  <si>
     <t>rms</t>
   </si>
   <si>
-    <t>Regression modeling, testing, estimation, validation,
-	graphics, prediction, and typesetting by storing enhanced model design
-	attributes in the fit.  'rms' is a collection of functions that
-	assist with and streamline modeling.  It also contains functions for
-	binary and ordinal logistic regression models, ordinal models for
-  continuous Y with a variety of distribution families, and the Buckley-James
-	multiple regression model for right-censored responses, and implements
-	penalized maximum likelihood estimation for logistic and ordinary
-	linear models.  'rms' works with almost any regression model, but it
-	was especially written to work with binary or ordinal regression
-	models, Cox regression, accelerated failure time models,
-	ordinary linear models,	the Buckley-James model, generalized least
-	squares for serially or spatially correlated observations, generalized
-	linear models, and quantile regression.</t>
-  </si>
-  <si>
     <t>mapdata</t>
   </si>
   <si>
-    <t>Supplement to maps package, providing the larger and/or
-	higher-resolution databases.</t>
-  </si>
-  <si>
     <t>R.utils</t>
   </si>
   <si>
@@ -2338,57 +999,21 @@
     <t>rstantools</t>
   </si>
   <si>
-    <t>Provides various tools for developers of R packages interfacing
-    with 'Stan' &lt;http://mc-stan.org&gt;, including functions to set up the required 
-    package structure, S3 generics and default methods to unify function naming 
-    across 'Stan'-based R packages, and a vignette with recommendations for 
-    developers.</t>
-  </si>
-  <si>
     <t>rpart</t>
   </si>
   <si>
-    <t>Recursive partitioning for classification, 
-  regression and survival trees.  An implementation of most of the 
-  functionality of the 1984 book by Breiman, Friedman, Olshen and Stone.</t>
-  </si>
-  <si>
     <t>mapedit</t>
   </si>
   <si>
-    <t>Suite of interactive functions and helpers for selecting and editing
-    geospatial data.</t>
-  </si>
-  <si>
     <t>Rcpp</t>
   </si>
   <si>
-    <t>The 'Rcpp' package provides R functions as well as C++ classes which
- offer a seamless integration of R and C++. Many R data types and objects can be
- mapped back and forth to C++ equivalents which facilitates both writing of new
- code as well as easier integration of third-party libraries. Documentation 
- about 'Rcpp' is provided by several vignettes included in this package, via the 
- 'Rcpp Gallery' site at &lt;http://gallery.rcpp.org&gt;, the paper by Eddelbuettel and 
- Francois (2011, JSS), the book by Eddelbuettel (2013, Springer) and the paper
- by Eddelbuettel and Balamuta (2017, PeerJ); see 'citation("Rcpp")' for details.</t>
-  </si>
-  <si>
     <t>shiny</t>
   </si>
   <si>
-    <t>Makes it incredibly easy to build interactive web
-    applications with R. Automatic "reactive" binding between inputs and
-    outputs and extensive prebuilt widgets make it possible to build
-    beautiful, responsive, and powerful applications with minimal effort.</t>
-  </si>
-  <si>
     <t>rpart.plot</t>
   </si>
   <si>
-    <t>Plot 'rpart' models. Extends plot.rpart() and text.rpart()
-             in the 'rpart' package.</t>
-  </si>
-  <si>
     <t>mapmisc</t>
   </si>
   <si>
@@ -2398,56 +1023,18 @@
     <t>RcppEigen</t>
   </si>
   <si>
-    <t>R and 'Eigen' integration using 'Rcpp'.
- 'Eigen' is a C++ template library for linear algebra: matrices, vectors,
- numerical solvers and related algorithms.  It supports dense and sparse
- matrices on integer, floating point and complex numbers, decompositions of
- such matrices, and solutions of linear systems. Its performance on many
- algorithms is comparable with some of the best implementations based on
- 'Lapack' and level-3 'BLAS'. The 'RcppEigen' package includes the header
- files from the 'Eigen' C++ template library (currently version 3.3.3). Thus
- users do not need to install 'Eigen' itself in order to use 'RcppEigen'.
- Since version 3.1.1, 'Eigen' is licensed under the Mozilla Public License
- (version 2); earlier version were licensed under the GNU LGPL version 3 or
- later. 'RcppEigen' (the 'Rcpp' bindings/bridge to 'Eigen') is licensed under
- the GNU GPL version 2 or later, as is the rest of 'Rcpp'.</t>
-  </si>
-  <si>
     <t>shinystan</t>
   </si>
   <si>
-    <t>A graphical user interface for interactive Markov chain Monte
-    Carlo (MCMC) diagnostics and plots and tables helpful for analyzing a
-    posterior sample. The interface is powered by the 'Shiny' web
-    application framework from 'RStudio' and works with the output of MCMC 
-    programs written in any programming language (and has extended 
-    functionality for 'Stan' models fit using the 'rstan' and 'rstanarm' 
-    packages).</t>
-  </si>
-  <si>
     <t>rpg</t>
   </si>
   <si>
-    <t>Allows ad hoc queries and reading and
-    writing data frames to and from a database.</t>
-  </si>
-  <si>
     <t>maps</t>
   </si>
   <si>
-    <t>Display of maps.  Projection code and larger maps are in
-             separate packages ('mapproj' and 'mapdata').</t>
-  </si>
-  <si>
     <t>RcppQuantuccia</t>
   </si>
   <si>
-    <t>'QuantLib' bindings are provided for R using 'Rcpp' and the
- header-only 'Quantuccia' variant (put together by Peter Caspers) offering
- an essential subset of 'QuantLib'. See the included file 'AUTHORS' for a full
- list of contributors to both 'QuantLib' and 'Quantuccia'.</t>
-  </si>
-  <si>
     <t>ggmcm</t>
   </si>
   <si>
@@ -2466,51 +1053,12 @@
     <t>RCurl</t>
   </si>
   <si>
-    <t>A wrapper for 'libcurl' &lt;http://curl.haxx.se/libcurl/&gt;
-	Provides functions to allow one to compose general HTTP requests
-        and provides convenient functions to fetch URIs, get &amp; post
-        forms, etc. and process the results returned by the Web server.
-        This provides a great deal of control over the HTTP/FTP/...
-        connection and the form of the request while providing a
-        higher-level interface than is available just using R socket
-        connections.  Additionally, the underlying implementation is
-        robust and extensive, supporting FTP/FTPS/TFTP (uploads and
-        downloads), SSL/HTTPS, telnet, dict, ldap, and also supports
-        cookies, redirects, authentication, etc.</t>
-  </si>
-  <si>
     <t>brms</t>
   </si>
   <si>
-    <t>Fit Bayesian generalized (non-)linear multilevel models 
-    using Stan for full Bayesian inference. A wide range of distributions 
-    and link functions are supported, allowing users to fit -- among others -- 
-    linear, robust linear, count data, survival, response times, ordinal, 
-    zero-inflated, hurdle, and even self-defined mixture models all in a 
-    multilevel context. Further modeling options include non-linear and 
-    smooth terms, auto-correlation structures, censored data, meta-analytic 
-    standard errors, and quite a few more. In addition, all parameters of the 
-    response distribution can be predicted in order to perform distributional 
-    regression. Prior specifications are flexible and explicitly encourage 
-    users to apply prior distributions that actually reflect their beliefs.
-    Model fit can easily be assessed and compared with posterior predictive 
-    checks and leave-one-out cross-validation.</t>
-  </si>
-  <si>
     <t>RTextTools</t>
   </si>
   <si>
-    <t>RTextTools is a machine learning package for automatic
-        text classification that makes it simple for novice users to
-        get started with machine learning, while allowing experienced
-        users to easily experiment with different settings and
-        algorithm combinations. The package includes nine algorithms
-        for ensemble classification (svm, slda, boosting, bagging,
-        random forests, glmnet, decision trees, neural networks,
-        maximum entropy), comprehensive analytics, and thorough
-        documentation.</t>
-  </si>
-  <si>
     <t>maptools</t>
   </si>
   <si>
@@ -2520,12 +1068,6 @@
     <t>readr</t>
   </si>
   <si>
-    <t>The goal of 'readr' is to provide a fast and friendly way to read
-    rectangular data (like 'csv', 'tsv', and 'fwf'). It is designed to flexibly
-    parse many types of data found in the wild, while still cleanly failing when
-    data unexpectedly changes.</t>
-  </si>
-  <si>
     <t>clickR</t>
   </si>
   <si>
@@ -2547,11 +1089,6 @@
     <t>readtext</t>
   </si>
   <si>
-    <t>Functions for importing and handling text files and formatted text
-    files with additional meta-data, such including '.csv', '.tab', '.json', '.xml',
-    '.pdf', '.doc', '.docx', '.xls', '.xlsx', and others.</t>
-  </si>
-  <si>
     <t>shinyBS</t>
   </si>
   <si>
@@ -2561,140 +1098,45 @@
     <t>scanstatistics</t>
   </si>
   <si>
-    <t>Detection of anomalous space-time clusters using the scan 
-    statistics methodology. Focuses on prospective surveillance of data streams, 
-    scanning for clusters with ongoing anomalies. Hypothesis testing is made 
-    possible by Monte Carlo simulation.</t>
-  </si>
-  <si>
     <t>metricsgraphics</t>
   </si>
   <si>
-    <t>Provides an 'htmlwidgets' interface to the
-    'MetricsGraphics.js' ('D3'-based) charting library which is geared towards
-    displaying time-series data. Chart types include line charts, scatterplots,
-    histograms and rudimentary bar charts. Support for laying out multiple charts
-    into a grid layout is also provided. All charts are interactive and many
-    have an option for line, label and region annotations.</t>
-  </si>
-  <si>
     <t>reticulate</t>
   </si>
   <si>
-    <t>R interface to Python modules, classes, and functions. When calling
-    into Python R data types are automatically converted to their equivalent Python
-    types. When values are returned from Python to R they are converted back to R
-    types. Compatible with all versions of Python &gt;= 2.7.</t>
-  </si>
-  <si>
     <t>shinydashboard</t>
   </si>
   <si>
-    <t>Create dashboards with 'Shiny'. This package provides
-    a theme on top of 'Shiny', making it easy to create attractive dashboards.</t>
-  </si>
-  <si>
     <t>showtext</t>
   </si>
   <si>
-    <t>Making it easy to use various types of fonts ('TrueType',
-    'OpenType', Type 1, web fonts, etc.) in R graphs, and supporting most output
-    formats of R graphics including PNG, PDF and SVG. Text glyphs will be converted
-    into polygons or raster images, hence after the plot has been created, it no
-    longer relies on the font files. No external software such as 'Ghostscript' is
-    needed to use this package.</t>
-  </si>
-  <si>
     <t>mschart</t>
   </si>
   <si>
-    <t xml:space="preserve">Create native charts for 'Microsoft PowerPoint' and 'Microsoft Word' documents. 
- These can then be edited and annotated. Functions are provided to let users create charts, modify 
- and format their content. The chart's underlying data is automatically saved within the 
- 'Word' document or 'PowerPoint' presentation. It extends package 'officer' that does 
- not contain any feature for 'Microsoft' native charts production. </t>
-  </si>
-  <si>
     <t>rio</t>
   </si>
   <si>
-    <t>Streamlined data import and export by making assumptions that
-    the user is probably willing to make: 'import()' and 'export()' determine
-    the data structure from the file extension, reasonable defaults are used for
-    data import and export (e.g., 'stringsAsFactors=FALSE'), web-based import is
-    natively supported (including from SSL/HTTPS), compressed files can be read
-    directly without explicit decompression, and fast import packages are used where
-    appropriate. An additional convenience function, 'convert()', provides a simple
-    method for converting between file types.</t>
-  </si>
-  <si>
     <t>shinyFiles</t>
   </si>
   <si>
-    <t>Provides functionality for client-side navigation of
-    the server side file system in shiny apps. In case the app is running
-    locally this gives the user direct access to the file system without the
-    need to "download" files to a temporary location. Both file and folder
-    selection as well as file saving is available.</t>
-  </si>
-  <si>
     <t>SimDesign</t>
   </si>
   <si>
-    <t>Provides tools to help safely and efficiently organize Monte Carlo simulations in R.
-    The package controls the structure and back-end of Monte Carlo simulations
-    by utilizing a general generate-analyse-summarise strategy. The functions provided control
-    common simulation issues such as re-simulating non-convergent results, support parallel
-    back-end and MPI distributed computations, save and restore temporary files,
-    aggregate results across independent nodes, and provide native support for debugging.</t>
-  </si>
-  <si>
     <t>networkD3</t>
   </si>
   <si>
-    <t>Creates 'D3' 'JavaScript' network, tree, dendrogram, and Sankey
-    graphs from 'R'.</t>
-  </si>
-  <si>
     <t>rprojroot</t>
   </si>
   <si>
-    <t>Robust, reliable and flexible paths to files below a
-    project root. The 'root' of a project is defined as a directory
-    that matches a certain criterion, e.g., it contains a certain
-    regular file.</t>
-  </si>
-  <si>
     <t>shinyjs</t>
   </si>
   <si>
-    <t>Perform common useful JavaScript operations in Shiny apps that will
-    greatly improve your apps without having to know any JavaScript. Examples
-    include: hiding an element, disabling an input, resetting an input back to
-    its original value, delaying code execution by a few seconds, and many more
-    useful functions for both the end user and the developer. 'shinyjs' can also
-    be used to easily call your own custom JavaScript functions from R.</t>
-  </si>
-  <si>
     <t>SnowballC</t>
   </si>
   <si>
-    <t>An R interface to the C libstemmer library that implements
-  Porter's word stemming algorithm for collapsing words to a common
-  root to aid comparison of vocabulary. Currently supported languages are
-  Danish, Dutch, English, Finnish, French, German, Hungarian, Italian,
-  Norwegian, Portuguese, Romanian, Russian, Spanish, Swedish
-  and Turkish.</t>
-  </si>
-  <si>
     <t>sessioninfo</t>
   </si>
   <si>
-    <t>Query and print information about the current R session.
-    It is similar to 'utils::sessionInfo()', but includes more information
-    about packages, and where they were installed from.</t>
-  </si>
-  <si>
     <t>ColinFay/tidystringdist</t>
   </si>
   <si>
@@ -2704,29 +1146,9 @@
     <t>stlplus</t>
   </si>
   <si>
-    <t>Decompose a time series into seasonal, trend, and remainder
-    components using an implementation of Seasonal Decomposition of Time
-    Series by Loess (STL) that provides several enhancements over the STL
-    method in the stats package.  These enhancements include handling missing
-    values, providing higher order (quadratic) loess smoothing with automated
-    parameter choices, frequency component smoothing beyond the seasonal and
-    trend components, and some basic plot methods for diagnostics.</t>
-  </si>
-  <si>
     <t>placement</t>
   </si>
   <si>
-    <t>The main functions in this package are drive_time
-	(used for calculating distances between physical addresses or coordinates) and
-	geocode_url (used for estimating the lat/long coordinates
-	of a physical address). Optionally, it generates the cryptographic signatures necessary
-	for making API calls with a Google for Work/Premium account within the geocoding process.
-	These accounts have larger quota limits than the "standard_api" and, thus, this package
-	may be useful for individuals seeking to submit large batch jobs within R to the Google Maps API.
-	Placement also provides methods for accessing the standard API using a (free) Google API key
-	(see: &lt;https://developers.google.com/maps/documentation/javascript/get-api-key#get-an-api-key&gt;).</t>
-  </si>
-  <si>
     <t>sos</t>
   </si>
   <si>
@@ -2742,11 +1164,6 @@
     <t>sugrrants</t>
   </si>
   <si>
-    <t>Provides 'ggplot2' graphics for analysing time series data. It aims 
-    to fit into the 'tidyverse' and grammar of graphics framework for handling 
-    temporal data.</t>
-  </si>
-  <si>
     <t>plotKML</t>
   </si>
   <si>
@@ -2762,15 +1179,6 @@
     <t>sweep</t>
   </si>
   <si>
-    <t xml:space="preserve">
-    Tidies up the forecasting modeling and prediction work flow, 
-    extends the 'broom' package 
-    with 'sw_tidy', 'sw_glance', 'sw_augment', and 'sw_tidy_decomp' functions 
-    for various forecasting models,
-    and enables converting 'forecast' objects to 
-    "tidy" data frames with 'sw_sweep'.</t>
-  </si>
-  <si>
     <t>plotly</t>
   </si>
   <si>
@@ -2780,22 +1188,9 @@
     <t>textreadr</t>
   </si>
   <si>
-    <t>A small collection of convenience tools for reading text documents
-    into R.</t>
-  </si>
-  <si>
     <t>textclean</t>
   </si>
   <si>
-    <t>Tools to clean and process text.  Tools are geared at
-        checking for substrings that are not optimal for analysis and
-        replacing or removing them with more analysis friendly
-        substrings.  For example, emoticons are often used in text but
-        not always easily handled by analysis algorithms.  The
-        'replace_emoticon' function replaces emoticons with word
-        equivalents.</t>
-  </si>
-  <si>
     <t>plotrr</t>
   </si>
   <si>
@@ -2805,56 +1200,18 @@
     <t>tidyverse</t>
   </si>
   <si>
-    <t>The 'tidyverse' is a set of packages that work in harmony
-    because they share common data representations and 'API' design. This
-    package is designed to make it easy to install and load multiple
-    'tidyverse' packages in a single step. Learn more about the 'tidyverse'
-    at &lt;https://tidyverse.org&gt;.</t>
-  </si>
-  <si>
     <t>tibbletime</t>
   </si>
   <si>
-    <t>Built on top of the 'tibble' package, 'tibbletime' is an extension
-  that allows for the creation of time aware tibbles. Some immediate
-  advantages of this include: the ability to perform time based subsetting
-  on tibbles, quickly summarising and aggregating results by time periods,
-  and calling functions similar in spirit to the map family from 'purrr'
-  on time based tibbles.</t>
-  </si>
-  <si>
     <t>postGIStools</t>
   </si>
   <si>
-    <t>Functions to convert geometry and 'hstore' data types from
-    'PostgreSQL' into standard R objects, as well as to simplify
-    the import of R data frames (including spatial data frames) into 'PostgreSQL'.</t>
-  </si>
-  <si>
     <t>tidyxl</t>
   </si>
   <si>
-    <t>Imports non-tabular from Excel files into R.  Exposes cell content,
-    position and formatting in a tidy structure for further manipulation.
-    Provides functions for selecting cells by position and relative position,
-    and for associating data cells with header cells by proximity in given
-    directions.  Supports '.xlsx' and '.xlsm' via the embedded 'RapidXML' C++
-    library &lt;http://rapidxml.sourceforge.net&gt;.  Does not support '.xlsb' or
-    '.xls'.</t>
-  </si>
-  <si>
     <t>tictoc</t>
   </si>
   <si>
-    <t>This package provides the timing functions 'tic' and 'toc' that
-    can be nested. One can record all timings while a complex script is
-    running, and examine the values later. It is also possible to instrument
-    the timing calls with custom callbacks. In addition, this package provides
-    class 'Stack', implemented as a vector, and class 'List', implemented as a
-    list, both of which support operations 'push', 'pop', 'first', 'last' and
-    'clear'.</t>
-  </si>
-  <si>
     <t>raster</t>
   </si>
   <si>
@@ -2864,21 +1221,9 @@
     <t>unrtf</t>
   </si>
   <si>
-    <t>Wraps the 'unrtf' utility to extract text from RTF files. Supports
-    document conversion to HTML, LaTeX or plain text. Output in HTML is recommended
-    because 'unrtf' has limited support for converting between character encodings.</t>
-  </si>
-  <si>
     <t>tidygraph</t>
   </si>
   <si>
-    <t>A graph, while not "tidy" in itself, can be thought of as two tidy
-    data frames describing node and edge data respectively. 'tidygraph'
-    provides an approach to manipulate these two virtual data frames using the
-    API defined in the 'dplyr' package, as well as provides tidy interfaces to 
-    a lot of common graph algorithms.</t>
-  </si>
-  <si>
     <t>rasterVis</t>
   </si>
   <si>
@@ -2888,43 +1233,18 @@
     <t>validate</t>
   </si>
   <si>
-    <t>Declare data validation rules and data quality indicators; confront
-    data with them and analyze or visualize the results. The package supports
-    rules that are per-field, in-record, cross-record or cross-dataset. Rules
-    can be automatically analyzed for rule type and connectivity.</t>
-  </si>
-  <si>
     <t>tidytext</t>
   </si>
   <si>
-    <t>Text mining for word processing and sentiment analysis using
-    'dplyr', 'ggplot2', and other tidy tools.</t>
-  </si>
-  <si>
     <t>revealjs</t>
   </si>
   <si>
-    <t>R Markdown format for 'reveal.js' presentations, a framework 
-  for easily creating beautiful presentations using HTML.</t>
-  </si>
-  <si>
     <t>writexl</t>
   </si>
   <si>
-    <t>Portable, light-weight data frame to 'xlsx' exporter based on 'libxlsxwriter'. 
-    No 'Java' or 'Excel' required.</t>
-  </si>
-  <si>
     <t>timetk</t>
   </si>
   <si>
-    <t xml:space="preserve">
-    Get the time series index, signature, and summary from time series objects and
-    time-based tibbles. Create future time series based on properties of 
-    existing time series index.  
-    Coerce between time-based tibbles ('tbl') and 'xts', 'zoo', and 'ts'. </t>
-  </si>
-  <si>
     <t>rgdal</t>
   </si>
   <si>
@@ -2934,24 +1254,9 @@
     <t>XML</t>
   </si>
   <si>
-    <t>Many approaches for both reading and
-        creating XML (and HTML) documents (including DTDs), both local
-        and accessible via HTTP or FTP.  Also offers access to an
-        'XPath' "interpreter".</t>
-  </si>
-  <si>
     <t>tidyquant</t>
   </si>
   <si>
-    <t>Bringing financial analysis to the 'tidyverse'. The 'tidyquant' 
-    package provides a convenient wrapper to various 'xts', 'zoo', 'quantmod', 'TTR' 
-    and 'PerformanceAnalytics' package 
-    functions and returns the objects in the tidy 'tibble' format. The main 
-    advantage is being able to use quantitative functions with the 'tidyverse'
-    functions including 'purrr', 'dplyr', 'tidyr', 'ggplot2', 'lubridate', etc. See 
-    the 'tidyquant' website for more information, documentation and examples.</t>
-  </si>
-  <si>
     <t>rgeos</t>
   </si>
   <si>
@@ -2973,13 +1278,6 @@
     <t>rgl</t>
   </si>
   <si>
-    <t>Provides medium to high level functions for 3D interactive graphics, including
-    functions modelled on base graphics (plot3d(), etc.) as well as functions for
-    constructing representations of geometric objects (cube3d(), etc.).  Output
-    may be on screen using OpenGL, or to various standard 3D file formats including
-    WebGL, PLY, OBJ, STL as well as 2D image formats, including PNG, Postscript, SVG, PGF.</t>
-  </si>
-  <si>
     <t>hadley/strict</t>
   </si>
   <si>
@@ -2989,22 +1287,9 @@
     <t>topicmodels</t>
   </si>
   <si>
-    <t>Provides an interface to the C code for Latent Dirichlet
-	     Allocation (LDA) models and Correlated Topics Models
-	     (CTM) by David M. Blei and co-authors and the C++ code
-	     for fitting LDA models using Gibbs sampling by Xuan-Hieu
-	     Phan and co-authors.</t>
-  </si>
-  <si>
     <t>RgoogleMaps</t>
   </si>
   <si>
-    <t>Serves two purposes: (i) Provide a
-        comfortable R interface to query the Google server for static
-        maps, and (ii) Use the map as a background image to overlay
-        plots within R. This requires proper coordinate scaling.</t>
-  </si>
-  <si>
     <t>ropenscilabs/skimr</t>
   </si>
   <si>
@@ -3020,12 +1305,6 @@
     <t>riverplot</t>
   </si>
   <si>
-    <t>Sankey plots are a type of diagram that is convenient to
-    illustrate how flow of information, resources etc. separates and joins,
-    much like observing how rivers split and merge. For example, they can be
-    used to compare different clusterings.</t>
-  </si>
-  <si>
     <t>smach/rmiscutils</t>
   </si>
   <si>
@@ -3041,11 +1320,6 @@
     <t>rmapzen</t>
   </si>
   <si>
-    <t>Provides an interface to the 'Mapzen' API for geographic search 
-    and geocoding, isochrone calculation, and vector data to draw map tiles. 
-    See &lt;https://mapzen.com/documentation/&gt; for more information.</t>
-  </si>
-  <si>
     <t>ropenscilabs/packagemetrics</t>
   </si>
   <si>
@@ -3079,14 +1353,6 @@
     <t>rpostgis</t>
   </si>
   <si>
-    <t>Provides an interface between R and
-    'PostGIS'-enabled 'PostgreSQL' databases to transparently transfer
-    spatial data. Both vector (points, lines, polygons) and raster
-    data are supported in read and write modes. Also provides
-    convenience functions to execute common procedures in
-    'PostgreSQL/PostGIS'.</t>
-  </si>
-  <si>
     <t>r-lib/boxes</t>
   </si>
   <si>
@@ -3114,32 +1380,12 @@
     <t>wordcloud2</t>
   </si>
   <si>
-    <t>A fast visualization tool for creating wordcloud
-    by using wordcloud2.js.</t>
-  </si>
-  <si>
     <t>rvg</t>
   </si>
   <si>
-    <t>Vector Graphics devices for 'SVG', 'DrawingML' for Microsoft Word, 
-  PowerPoint and Excel. Functions extending package 'officer' are provided to 
-  embed 'DrawingML' graphics into 'Microsoft PowerPoint' documents.</t>
-  </si>
-  <si>
     <t>xgboost</t>
   </si>
   <si>
-    <t>Extreme Gradient Boosting, which is an efficient implementation
-    of the gradient boosting framework from Chen &amp; Guestrin (2016) &lt;doi:10.1145/2939672.2939785&gt;.
-    This package is its R interface. The package includes efficient linear 
-    model solver and tree learning algorithms. The package can automatically 
-    do parallel computation on a single machine which could be more than 10 
-    times faster than existing gradient boosting packages. It supports
-    various objective functions, including regression, classification and ranking.
-    The package is made to be extensible, so that users are also allowed to define
-    their own objectives easily.</t>
-  </si>
-  <si>
     <t>rworldmap</t>
   </si>
   <si>
@@ -3173,14 +1419,6 @@
     <t>zoo</t>
   </si>
   <si>
-    <t>An S3 class with methods for totally ordered indexed
-             observations. It is particularly aimed at irregular time series
-             of numeric vectors/matrices and factors. zoo's key design goals
-             are independence of a particular index/date/time class and
-             consistency with ts and base R by providing methods to extend
-             standard generics.</t>
-  </si>
-  <si>
     <t>shapefiles</t>
   </si>
   <si>
@@ -3202,12 +1440,6 @@
     <t>sinew</t>
   </si>
   <si>
-    <t>Create 'roxygen2' skeleton populated with information scraped from the
-         within the function script. Also creates field entries for imports in the
-         'DESCRIPTION' and import in the 'NAMESPACE' files. Can be run from the R
-         console or through the 'RStudio' 'addin' menu.</t>
-  </si>
-  <si>
     <t>AppliedDataSciencePartners/xgboostExplainer</t>
   </si>
   <si>
@@ -3217,41 +1449,15 @@
     <t>sp</t>
   </si>
   <si>
-    <t>Classes and methods for spatial
-  data; the classes document where the spatial location information
-  resides, for 2D or 3D data. Utility functions are provided, e.g. for
-  plotting data as maps, spatial selection, as well as methods for
-  retrieving coordinates, for subsetting, print, summary, etc.</t>
-  </si>
-  <si>
     <t>sparklyr</t>
   </si>
   <si>
-    <t>R interface to Apache Spark, a fast and general engine for big data
-    processing, see &lt;http://spark.apache.org&gt;. This package supports connecting to
-    local and remote Apache Spark clusters, provides a 'dplyr' compatible back-end,
-    and provides an interface to Spark's built-in machine learning algorithms.</t>
-  </si>
-  <si>
     <t>spatstat</t>
   </si>
   <si>
-    <t>Comprehensive open-source toolbox for analysing Spatial Point Patterns. Focused mainly on two-dimensional point patterns, including multitype/marked points, in any spatial region. Also supports three-dimensional point patterns, space-time point patterns in any number of dimensions, point patterns on a linear network, and patterns of other geometrical objects. Supports spatial covariate data such as pixel images. 
-	Contains over 2000 functions for plotting spatial data, exploratory data analysis, model-fitting, simulation, spatial sampling, model diagnostics, and formal inference. 
-	Data types include point patterns, line segment patterns, spatial windows, pixel images, tessellations, and linear networks. 
-	Exploratory methods include quadrat counts, K-functions and their simulation envelopes, nearest neighbour distance and empty space statistics, Fry plots, pair correlation function, kernel smoothed intensity, relative risk estimation with cross-validated bandwidth selection, mark correlation functions, segregation indices, mark dependence diagnostics, and kernel estimates of covariate effects. Formal hypothesis tests of random pattern (chi-squared, Kolmogorov-Smirnov, Monte Carlo, Diggle-Cressie-Loosmore-Ford, Dao-Genton, two-stage Monte Carlo) and tests for covariate effects (Cox-Berman-Waller-Lawson, Kolmogorov-Smirnov, ANOVA) are also supported.
-	Parametric models can be fitted to point pattern data using the functions ppm(), kppm(), slrm(), dppm() similar to glm(). Types of models include Poisson, Gibbs and Cox point processes, Neyman-Scott cluster processes, and determinantal point processes. Models may involve dependence on covariates, inter-point interaction, cluster formation and dependence on marks. Models are fitted by maximum likelihood, logistic regression, minimum contrast, and composite likelihood methods. 
-	A model can be fitted to a list of point patterns (replicated point pattern data) using the function mppm(). The model can include random effects and fixed effects depending on the experimental design, in addition to all the features listed above.
-	Fitted point process models can be simulated, automatically. Formal hypothesis tests of a fitted model are supported (likelihood ratio test, analysis of deviance, Monte Carlo tests) along with basic tools for model selection (stepwise(), AIC()). Tools for validating the fitted model include simulation envelopes, residuals, residual plots and Q-Q plots, leverage and influence diagnostics, partial residuals, and added variable plots.</t>
-  </si>
-  <si>
     <t>threejs</t>
   </si>
   <si>
-    <t>Create interactive 3D scatter plots, network plots, and
-    globes using the 'three.js' visualization library (&lt;https://threejs.org&gt;).</t>
-  </si>
-  <si>
     <t>tmap</t>
   </si>
   <si>
@@ -3267,10 +1473,6 @@
     <t>visNetwork</t>
   </si>
   <si>
-    <t>Provides an R interface to the 'vis.js' JavaScript charting
-    library. It allows an interactive visualization of networks.</t>
-  </si>
-  <si>
     <t>milesmcbain/packup</t>
   </si>
   <si>
@@ -3295,13 +1497,766 @@
     <t>An 'RStudio' addin for teaching and learning making plot using the 'ggplot2' package. You can learn each steps of making plot by clicking your mouse without coding. You can get resultant code for the plot.</t>
   </si>
   <si>
-    <t>nloptr is an R interface to NLopt. NLopt is a free/open-source library for
-    nonlinear optimization, providing a common interface for a number of
-    different free optimization routines available online as well as original
-    implementations of various other algorithms.
-    See http://ab-initio.mit.edu/wiki/index.php/NLopt_Introduction for more
-    information on the available algorithms. During installation on Unix the
-    NLopt code is downloaded and compiled from the NLopt website.</t>
+    <t>Contains many functions useful for dataanalysis, high-level graphics, utility operations, functions forcomputing sample size and power, importing and annotating datasets,imputing missing values, advanced table making, variable clustering,character string manipulation, conversion of R objects to LaTeX and html code,and recoding variables.</t>
+  </si>
+  <si>
+    <t>'QuantLib' bindings are provided for R using 'Rcpp' and the header-only 'Quantuccia' variant (put together by Peter Caspers) offering an essential subset of 'QuantLib'. See the included file 'AUTHORS' for a full list of contributors to both 'QuantLib' and 'Quantuccia'.</t>
+  </si>
+  <si>
+    <t>Reading and writing data stored by some versions of'Epi Info', 'Minitab', 'S', 'SAS', 'SPSS', 'Stata', 'Systat', 'Weka',and for reading and writing some 'dBase' files.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Environment for teaching "Financial Engineering and Computational Finance".</t>
+  </si>
+  <si>
+    <t>A collection of tests, data sets, and examples for diagnostic checking in linear regression models. Furthermore, some generic tools for inference in parametric models are provided.</t>
+  </si>
+  <si>
+    <t>An extensible framework for automatically placing direct labels onto multicolor 'lattice' or 'ggplot2' plots. Label positions are described using Positioning Methods which can be re-used across several different plots. There are heuristics for examining "trellis" and "ggplot" objects and inferring an appropriate Positioning Method.</t>
+  </si>
+  <si>
+    <t>Supplement to maps package, providing the larger and/orhigher-resolution databases.</t>
+  </si>
+  <si>
+    <t>The main functions in this package are drive_time(used for calculating distances between physical addresses or coordinates) andgeocode_url (used for estimating the lat/long coordinatesof a physical address). Optionally, it generates the cryptographic signatures necessaryfor making API calls with a Google for Work/Premium account within the geocoding process.These accounts have larger quota limits than the "standard_api" and, thus, this packagemay be useful for individuals seeking to submit large batch jobs within R to the Google Maps API.Placement also provides methods for accessing the standard API using a (free) Google API key(see: &lt;https://developers.google.com/maps/documentation/javascript/get-api-key#get-an-api-key&gt;).</t>
+  </si>
+  <si>
+    <t>Comprehensive open-source toolbox for analysing Spatial Point Patterns. Focused mainly on two-dimensional point patterns, including multitype/marked points, in any spatial region. Also supports three-dimensional point patterns, space-time point patterns in any number of dimensions, point patterns on a linear network, and patterns of other geometrical objects. Supports spatial covariate data such as pixel images. Contains over 2000 functions for plotting spatial data, exploratory data analysis, model-fitting, simulation, spatial sampling, model diagnostics, and formal inference. Data types include point patterns, line segment patterns, spatial windows, pixel images, tessellations, and linear networks. Exploratory methods include quadrat counts, K-functions and their simulation envelopes, nearest neighbour distance and empty space statistics, Fry plots, pair correlation function, kernel smoothed intensity, relative risk estimation with cross-validated bandwidth selection, mark correlation functions, segregation indices, mark dependence diagnostics, and kernel estimates of covariate effects. Formal hypothesis tests of random pattern (chi-squared, Kolmogorov-Smirnov, Monte Carlo, Diggle-Cressie-Loosmore-Ford, Dao-Genton, two-stage Monte Carlo) and tests for covariate effects (Cox-Berman-Waller-Lawson, Kolmogorov-Smirnov, ANOVA) are also supported.Parametric models can be fitted to point pattern data using the functions ppm(), kppm(), slrm(), dppm() similar to glm(). Types of models include Poisson, Gibbs and Cox point processes, Neyman-Scott cluster processes, and determinantal point processes. Models may involve dependence on covariates, inter-point interaction, cluster formation and dependence on marks. Models are fitted by maximum likelihood, logistic regression, minimum contrast, and composite likelihood methods. A model can be fitted to a list of point patterns (replicated point pattern data) using the function mppm(). The model can include random effects and fixed effects depending on the experimental design, in addition to all the features listed above.Fitted point process models can be simulated, automatically. Formal hypothesis tests of a fitted model are supported (likelihood ratio test, analysis of deviance, Monte Carlo tests) along with basic tools for model selection (stepwise(), AIC()). Tools for validating the fitted model include simulation envelopes, residuals, residual plots and Q-Q plots, leverage and influence diagnostics, partial residuals, and added variable plots.</t>
+  </si>
+  <si>
+    <t>Tools for analyzing R expressions or blocks of code and determining the dependencies between them. It focuses on R scripts, but can be used on the bodies of functions. There are many facilities including the ability to summarize or get a high-level view of code, determining dependencies between variables, code improvement suggestions.</t>
+  </si>
+  <si>
+    <t>An implementation of interpreted string literals, inspired by Python's Literal String Interpolation &lt;https://www.python.org/dev/peps/pep-0498/&gt; and Docstrings &lt;https://www.python.org/dev/peps/pep-0257/&gt; and Julia's Triple-Quoted String Literals &lt;https://docs.julialang.org/en/stable/manual/strings/#triple-quoted-string-literals&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each function accomplishes the work of several or more standard R functions. For example, two function calls, Read() and CountAll(), read the data and generate summary statistics for all variables in the data frame, plus histograms and bar charts as appropriate. Other functions provide for descriptive statistics, a comprehensive regression analysis, analysis of variance and t-test, plotting including the introduced here Violin/Box/Scatter plot for a numerical variable, bar chart, histogram, box plot, density curves, calibrated power curve, reading multiple data formats with the same function call, variable labels, color themes, Trellis graphics and a built-in help system. A confirmatory factor analysis of multiple indicator measurement models is available, as are pedagogical routines for data simulation such as for the Central Limit Theorem. Compatible with 'RStudio' and 'knitr' including generation of R markdown instructions for interpretative output. </t>
+  </si>
+  <si>
+    <t>Functions and datasets to support Venables and Ripley, "Modern Applied Statistics with S" (4th edition, 2002).</t>
+  </si>
+  <si>
+    <t>The 'Rcpp' package provides R functions as well as C++ classes which offer a seamless integration of R and C++. Many R data types and objects can be mapped back and forth to C++ equivalents which facilitates both writing of new code as well as easier integration of third-party libraries. Documentation about 'Rcpp' is provided by several vignettes included in this package, via the 'Rcpp Gallery' site at &lt;http://gallery.rcpp.org&gt;, the paper by Eddelbuettel and Francois (2011, JSS), the book by Eddelbuettel (2013, Springer) and the paper by Eddelbuettel and Balamuta (2017, PeerJ); see 'citation("Rcpp")' for details.</t>
+  </si>
+  <si>
+    <t>R and 'Eigen' integration using 'Rcpp'. 'Eigen' is a C++ template library for linear algebra: matrices, vectors, numerical solvers and related algorithms. It supports dense and sparse matrices on integer, floating point and complex numbers, decompositions of such matrices, and solutions of linear systems. Its performance on many algorithms is comparable with some of the best implementations based on 'Lapack' and level-3 'BLAS'. The 'RcppEigen' package includes the header files from the 'Eigen' C++ template library (currently version 3.3.3). Thus users do not need to install 'Eigen' itself in order to use 'RcppEigen'. Since version 3.1.1, 'Eigen' is licensed under the Mozilla Public License (version 2); earlier version were licensed under the GNU LGPL version 3 or later. 'RcppEigen' (the 'Rcpp' bindings/bridge to 'Eigen') is licensed under the GNU GPL version 2 or later, as is the rest of 'Rcpp'.</t>
+  </si>
+  <si>
+    <t>A tool that "multiply imputes" missing data in a single cross-section (such as a survey), from a time series (like variables collected for each year in a country), or from a time-series-cross-sectional data set (such as collected by years for each of several countries). Amelia II implements our bootstrapping-based algorithm that gives essentially the same answers as the standard IP or EMis approaches, is usually considerably faster than existing approaches and can handle many more variables. Unlike Amelia I and other statistically rigorous imputation software, it virtually never crashes (but please let us know if you find to the contrary!). The program also generalizes existing approaches by allowing for trends in time series across observations within a cross-sectional unit, as well as priors that allow experts to incorporate beliefs they have about the values of missing cells in their data. Amelia II also includes useful diagnostics of the fit of multiple imputation models. The program works from the R command line or via a graphical user interface that does not require users to know R.</t>
+  </si>
+  <si>
+    <t>Join tables together based not on whether columns match exactly, but whether they are similar by some comparison. Implementations include string distance and regular expression matching.</t>
+  </si>
+  <si>
+    <t>Provides advanced statistical methods to describe and predict customers' purchase behavior in a non-contractual setting. It uses historic transaction records to fit a probabilistic model, which then allows to compute quantities of managerial interest on a cohort- as well as on a customer level (Customer Lifetime Value, Customer Equity, P(alive), etc.). This package complements the BTYD package by providing several additional buy-till-you-die models, that have been published in the marketing literature, but whose implementation are complex and non-trivial. These models are: NBD, MBG/NBD, BG/CNBD-k, MBG/CNBD-k, Pareto/NBD (HB), Pareto/NBD (Abe) and Pareto/GGG.</t>
+  </si>
+  <si>
+    <t>Implements various mainstream and specialised changepoint methods for finding single and multiple changepoints within data. Many popular non-parametric and frequentist methods are included. The cpt.mean(), cpt.var(), cpt.meanvar() functions should be your first point of call.</t>
+  </si>
+  <si>
+    <t>Various functions for classification, including k-nearest neighbour, Learning Vector Quantization and Self-Organizing Maps.</t>
+  </si>
+  <si>
+    <t>Provides a set of fast tools for converting a textual corpus into a set of normalized tables. Users may make use of a Python back end with 'spaCy' &lt;https://spacy.io&gt; or the Java back end 'CoreNLP' &lt;http://stanfordnlp.github.io/CoreNLP/&gt;. A minimal back end with no external dependencies is also provided. Exposed annotation tasks include tokenization, part of speech tagging, named entity recognition, entity linking, sentiment analysis, dependency parsing, coreference resolution, and word embeddings. Summary statistics regarding token unigram, part of speech tag, and dependency type frequencies are also included to assist with analyses.</t>
+  </si>
+  <si>
+    <t>Methods for Cluster analysis. Much extended the original fromPeter Rousseeuw, Anja Struyf and Mia Hubert,based on Kaufman and Rousseeuw (1990) "Finding Groups in Data".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package for CShapes, a GIS dataset of country boundaries (1946-today). Includes functions for data extraction and the computation of distance matrices and -lists. </t>
+  </si>
+  <si>
+    <t>Defines classes and methods to learn models and use them to predict binary outcomes. These are generic tools, but we also include specific examples for many common classifiers.</t>
+  </si>
+  <si>
+    <t>Regression modeling, testing, estimation, validation,graphics, prediction, and typesetting by storing enhanced model designattributes in the fit. 'rms' is a collection of functions thatassist with and streamline modeling. It also contains functions forbinary and ordinal logistic regression models, ordinal models for continuous Y with a variety of distribution families, and the Buckley-Jamesmultiple regression model for right-censored responses, and implementspenalized maximum likelihood estimation for logistic and ordinarylinear models. 'rms' works with almost any regression model, but itwas especially written to work with binary or ordinal regressionmodels, Cox regression, accelerated failure time models,ordinary linear models,the Buckley-James model, generalized leastsquares for serially or spatially correlated observations, generalizedlinear models, and quantile regression.</t>
+  </si>
+  <si>
+    <t>An R interface to the C libstemmer library that implements Porter's word stemming algorithm for collapsing words to a common root to aid comparison of vocabulary. Currently supported languages are Danish, Dutch, English, Finnish, French, German, Hungarian, Italian, Norwegian, Portuguese, Romanian, Russian, Spanish, Swedish and Turkish.</t>
+  </si>
+  <si>
+    <t>Built on top of the 'tibble' package, 'tibbletime' is an extension that allows for the creation of time aware tibbles. Some immediate advantages of this include: the ability to perform time based subsetting on tibbles, quickly summarising and aggregating results by time periods, and calling functions similar in spirit to the map family from 'purrr' on time based tibbles.</t>
+  </si>
+  <si>
+    <t>Routines for simple graphs and network analysis. It can handle large graphs very well and provides functions for generating random and regular graphs, graph visualization, centrality methods and much more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create native charts for 'Microsoft PowerPoint' and 'Microsoft Word' documents. These can then be edited and annotated. Functions are provided to let users create charts, modify and format their content. The chart's underlying data is automatically saved within the 'Word' document or 'PowerPoint' presentation. It extends package 'officer' that does not contain any feature for 'Microsoft' native charts production. </t>
+  </si>
+  <si>
+    <t>Classes and methods for spatial data; the classes document where the spatial location information resides, for 2D or 3D data. Utility functions are provided, e.g. for plotting data as maps, spatial selection, as well as methods for retrieving coordinates, for subsetting, print, summary, etc.</t>
+  </si>
+  <si>
+    <t>Interactive plotting functions for use within RStudio. The manipulate function accepts a plotting expression and a set of controls (e.g. slider, picker, checkbox, or button) which are used to dynamically change values within the expression. When a value is changed using its corresponding control the expression is automatically re-executed and the plot is redrawn.</t>
+  </si>
+  <si>
+    <t>Convenience wrapper that uses the 'rmarkdown' package to render small snippets of code to target formats that include both code and output. The goal is to encourage the sharing of small, reproducible, and runnable examples on code-oriented websites, such as &lt;http://stackoverflow.com&gt; and &lt;https://github.com&gt;, or in email. 'reprex' also extracts clean, runnable R code from various common formats, such as copy/paste from an R session.</t>
+  </si>
+  <si>
+    <t>Wraps the 'AntiWord' utility to extract text from Microsoft Word documents. The utility only supports the old 'doc' format, not the  new xml based 'docx' format. Use the 'xml2' package to read the latter.</t>
+  </si>
+  <si>
+    <t>Coerce R object to asciidoc, txt2tags, restructuredText,  org, textile or pandoc syntax. Package comes with a set of  drivers for Sweave.</t>
+  </si>
+  <si>
+    <t>Lots of predicates (is_* functions) to check the state of your variables, and assertions (assert_* functions) to throw errors if they aren't in the right form.</t>
+  </si>
+  <si>
+    <t>Provides functionality to assert conditions that have to be met so that errors in data used in analysis pipelines can fail quickly. Similar to 'stopifnot()' but more powerful, friendly, and easier for use in pipelines.</t>
+  </si>
+  <si>
+    <t>assertthat is an extension to stopifnot() that makes it easy to declare the pre and post conditions that you code should satisfy, while also producing friendly error messages so that your users know what they've done wrong.</t>
+  </si>
+  <si>
+    <t>The sole function of this package is beep(), with the purpose to make it easy to play notification sounds on whatever platform you are on. It is intended to be useful, for example, if you are running a long analysis in the background and want to know when it is ready.</t>
+  </si>
+  <si>
+    <t>Make fake data, supporting addresses, person names, dates, times, colors, coordinates, currencies, digital object identifiers ('DOIs'), jobs, phone numbers, 'DNA' sequences, doubles and integers from distributions and within a range.</t>
+  </si>
+  <si>
+    <t>Tests and assertions to perform frequent argument checks. A substantial part of the package was written in C to minimize any worries about execution time overhead.</t>
+  </si>
+  <si>
+    <t>The goal of checkpoint is to solve the problem of package reproducibility in R. Specifically, checkpoint allows you to install packages as they existed on CRAN on a specific snapshot date as if you had a CRAN time machine. To achieve reproducibility, the checkpoint() function installs the packages required or called by your project and scripts to a local library exactly as they existed at the specified point in time. Only those packages are available to your project, thereby avoiding any package updates that came later and may have altered your results. In this way, anyone using checkpoint's checkpoint() can ensure the reproducibility of your scripts or projects at any time. To create the snapshot archives, once a day (at midnight UTC) Microsoft refreshes the Austria CRAN mirror on the "Microsoft R Archived Network" server (&lt;https://mran.microsoft.com/&gt;). Immediately after completion of the rsync mirror process, the process takes a snapshot, thus creating the archive. Snapshot archives exist starting from 2014-09-17.</t>
+  </si>
+  <si>
+    <t>Simple utility functions to read from and write to the Windows, OS X, and X11 clipboards.</t>
+  </si>
+  <si>
+    <t>CODATA internationally recommended values of the fundamental physical  constants, provided as symbols for direct use within the R language. Optionally,  the values with errors and/or the values with units are also provided if the  'errors' and/or the 'units' packages are installed. The Committee on Data for Science and Technology (CODATA) is an interdisciplinary committee of the International Council for Science which periodically provides the internationally  accepted set of values of the fundamental physical constants. This package  contains the "2014 CODATA" version, published on 25 June 2015: Mohr, P. J., Newell, D. B. and Taylor, B. N. (2016) &lt;DOI:10.1103/RevModPhys.88.035009&gt;, &lt;DOI:10.1063/1.4954402&gt;.</t>
+  </si>
+  <si>
+    <t>API' to the database of 'CRAN' package downloads from the 'RStudio' 'CRAN mirror'. The database itself is at &lt;http://cranlogs.r-pkg.org&gt;, see &lt;https://github.com/metacran/cranlogs.app&gt; for the raw 'API'.</t>
+  </si>
+  <si>
+    <t>Create, edit, and remove 'cron' jobs on your unix-alike system. The package provides a set of easy-to-use wrappers to 'crontab'. It also provides an RStudio add-in to easily launch and schedule your scripts.</t>
+  </si>
+  <si>
+    <t>Infrastructure for task views to CRAN-style repositories: Querying task views and installing the associated    packages (client-side tools), generating HTML pages and storing task view information in the repository  (server-side tools).</t>
+  </si>
+  <si>
+    <t>Tools to using fonts other than the standard PostScript fonts. This package makes it easy to use system TrueType fonts and with PDF or PostScript output files, and with bitmap output files in Windows. extrafont can also be used with fonts packaged specifically to be used with, such as the fontcm package, which has Computer Modern PostScript fonts with math symbols. See https://github.com/wch/extrafont for instructions and examples.</t>
+  </si>
+  <si>
+    <t>Provides a function tidy_source() to format R source code. Spaces and indent will be added to the code automatically, and comments will be preserved under certain conditions, so that R code will be more human-readable and tidy. There is also a Shiny app as a user interface in this package (see tidy_app()).</t>
+  </si>
+  <si>
+    <t>Provides a simple yet powerful logging utility. Based loosely on log4j, futile.logger takes advantage of R idioms to make logging a convenient and easy to use replacement for cat and print statements.</t>
+  </si>
+  <si>
+    <t>Work with 'GitHub' 'gists' from 'R' (e.g.,  &lt;http://en.wikipedia.org/wiki/GitHub#Gist&gt;,  &lt;https://help.github.com/articles/about-gists/&gt;). A 'gist' is simply one or more files with code/text/images/etc. This package allows the user to create new 'gists', update 'gists' with new files, rename files, delete files, get and delete 'gists', star and 'un-star' 'gists', fork 'gists', open a 'gist' in your default browser, get embed code for a 'gist', list 'gist' 'commits', and get rate limit information when 'authenticated'. Some requests require authentication and some do not. 'Gists' website:  &lt;https://gist.github.com/&gt;.</t>
+  </si>
+  <si>
+    <t>Constructs paths to your project's files. The 'here()' function uses a reasonable heuristics to find your project's files, based on the current working directory at the time when the package is loaded. Use it as a drop-in replacement for 'file.path()', it will always locate the files relative to your project root.</t>
+  </si>
+  <si>
+    <t>HTML tables are a valuable data source but extracting and recasting these data into a useful format can be tedious. This package allows to collect structured information from HTML tables. It is similar to readHTMLTable() of the XML package but provides three major advantages. First, the function automatically expands row and column spans in the header and body cells. Second, users are given more control over the identification of header and body rows which will end up in the R table, including semantic header information that appear throughout the body. Third, the function preprocesses table code, corrects common types of malformations, removes unneeded parts and so helps to alleviate the need for tedious post-processing.</t>
+  </si>
+  <si>
+    <t>This package contains a collection of functions for common data extraction and reshaping operations, string manipulation, and functions for table and plot generation for R Markdown documents.</t>
+  </si>
+  <si>
+    <t>Executes arbitrary R or C functions some time after the current time, after the R execution stack has emptied.</t>
+  </si>
+  <si>
+    <t>Checks adherence to a given style, syntax errors and possible semantic issues. Supports on the fly checking of R code edited with 'RStudio IDE', 'Emacs', 'Vim', 'Sublime Text' and 'Atom'.</t>
+  </si>
+  <si>
+    <t>logging is a pure R package that implements the ubiquitous  log4j package.</t>
+  </si>
+  <si>
+    <t>Provides a mechanism for chaining commands with a new forward-pipe operator, %&gt;%. This operator will forward a value, or the result of an expression, into the next function call/expression. There is flexible support for the type of right-hand side expressions. For more information, see package vignette. To quote Rene Magritte, "Ceci n'est pas un pipe."</t>
+  </si>
+  <si>
+    <t>Classes and methods for dense and sparse matrices and operations on them using 'LAPACK' and 'SuiteSparse'.</t>
+  </si>
+  <si>
+    <t>Provides infrastructure to accurately measure and compare  the execution time of R expressions.</t>
+  </si>
+  <si>
+    <t>Guesses the MIME type from a filename extension using the data derived from /etc/mime.types in UNIX-type systems.</t>
+  </si>
+  <si>
+    <t>Makes it possible to create an internally consistent repository consisting of selected packages from CRAN-like repositories. The user specifies a set of desired packages, and 'miniCRAN' recursively reads the dependency tree for these packages, then downloads only this subset. The user can then install packages from this repository directly, rather than from CRAN. This is useful in production settings, e.g. server behind a firewall, or remote locations with slow (or zero) Internet access.</t>
+  </si>
+  <si>
+    <t>Provides functions related to human natural ordering. It handles adjacent digits in a character sequence as a number so that natural sort function arranges a character vector by their numbers, not digit characters. It is typically seen when operating systems lists file names. For example, a sequence a-1.png, a-2.png, a-10.png looks naturally ordered because 1 &lt; 2 &lt; 10 and natural sort algorithm arranges so whereas general sort algorithms arrange it into a-1.png, a-10.png, a-2.png owing to their third and fourth characters.</t>
+  </si>
+  <si>
+    <t>Format numbers and plots for publication; includes the removal of leading zeros,   standardization of number of digits, addition of affixes, and a p-value formatter.   These tools combine the functionality of several 'base' functions such as paste(),   format(), and sprintf() into specific use case functions that are named in a way   that is consistent with usage, making their names easy to remember and easy to   deploy.</t>
+  </si>
+  <si>
+    <t>Access and manipulate 'Microsoft Word' and 'Microsoft PowerPoint' documents from R. The package focus on tabular and graphical reporting from R; it also provides two functions that let users get document content into data objects. A set of functions lets add and remove images, tables and paragraphs of text in new or existing documents. When working with 'PowerPoint' presentations, slides can be added or removed; shapes inside slides can also be added or removed. When working with 'Word' documents, a cursor can be used to help insert or delete content at a specific location in the document. The package does not require any installation of Microsoft product to be able to write Microsoft files.</t>
+  </si>
+  <si>
+    <t>A command line parser inspired by Python's 'optparse' library to be used with Rscript to write "#!" shebang scripts that accept short and long flag/options.</t>
+  </si>
+  <si>
+    <t>Utilities based on 'libpoppler' for extracting text, fonts, attachments and  metadata from a PDF file. Also supports high quality rendering of PDF documents info PNG, JPEG, TIFF format, or into raw bitmap vectors for further processing in R.</t>
+  </si>
+  <si>
+    <t>Gives the ability to automatically generate and serve an HTTP API from R functions using the annotations in the R documentation around your functions.</t>
+  </si>
+  <si>
+    <t>Validate data in local data frames, local 'tibble' objects, in 'CSV' and 'TSV' files, and in database tables ('PostgreSQL' and 'MySQL'). Validation pipelines can be made using easily-readable, consecutive validation steps and such pipelines allow for switching of the data table context. Upon execution of the validation plan, several reporting options are available. User-defined thresholds for failure rates allow for the determination of appropriate reporting actions (e.g., sending email notifications).</t>
+  </si>
+  <si>
+    <t>Enables the creation of object pools, which make it less computationally expensive to fetch a new object. Currently the only supported pooled objects are 'DBI' connections.</t>
+  </si>
+  <si>
+    <t>Pretty, human readable formatting of quantities. Time intervals: 1337000 -&gt; 15d 11h 23m 20s. Vague time intervals: 2674000 -&gt; about a month ago. Bytes: 1337 -&gt; 1.34 kB.</t>
+  </si>
+  <si>
+    <t>Configurable Progress bars, they may include percentage, elapsed time, and/or the estimated completion time. They work in terminals, in 'Emacs' 'ESS', 'RStudio', 'Windows' 'Rgui' and the 'macOS' 'R.app'. The package also provides a 'C++' 'API', that works with or without 'Rcpp'.</t>
+  </si>
+  <si>
+    <t>A wrapper for 'libcurl' &lt;http://curl.haxx.se/libcurl/&gt;Provides functions to allow one to compose general HTTP requests  and provides convenient functions to fetch URIs, get &amp; post  forms, etc. and process the results returned by the Web server.  This provides a great deal of control over the HTTP/FTP/...  connection and the form of the request while providing a  higher-level interface than is available just using R socket  connections. Additionally, the underlying implementation is  robust and extensive, supporting FTP/FTPS/TFTP (uploads and  downloads), SSL/HTTPS, telnet, dict, ldap, and also supports  cookies, redirects, authentication, etc.</t>
+  </si>
+  <si>
+    <t>The goal of 'readr' is to provide a fast and friendly way to read rectangular data (like 'csv', 'tsv', and 'fwf'). It is designed to flexibly parse many types of data found in the wild, while still cleanly failing when data unexpectedly changes.</t>
+  </si>
+  <si>
+    <t>Functions for importing and handling text files and formatted text files with additional meta-data, such including '.csv', '.tab', '.json', '.xml', '.pdf', '.doc', '.docx', '.xls', '.xlsx', and others.</t>
+  </si>
+  <si>
+    <t>R interface to Python modules, classes, and functions. When calling into Python R data types are automatically converted to their equivalent Python types. When values are returned from Python to R they are converted back to R types. Compatible with all versions of Python &gt;= 2.7.</t>
+  </si>
+  <si>
+    <t>Streamlined data import and export by making assumptions that the user is probably willing to make: 'import()' and 'export()' determine the data structure from the file extension, reasonable defaults are used for data import and export (e.g., 'stringsAsFactors=FALSE'), web-based import is natively supported (including from SSL/HTTPS), compressed files can be read directly without explicit decompression, and fast import packages are used where appropriate. An additional convenience function, 'convert()', provides a simple method for converting between file types.</t>
+  </si>
+  <si>
+    <t>Robust, reliable and flexible paths to files below a project root. The 'root' of a project is defined as a directory that matches a certain criterion, e.g., it contains a certain regular file.</t>
+  </si>
+  <si>
+    <t>Query and print information about the current R session. It is similar to 'utils::sessionInfo()', but includes more information about packages, and where they were installed from.</t>
+  </si>
+  <si>
+    <t>A small collection of convenience tools for reading text documents into R.</t>
+  </si>
+  <si>
+    <t>The 'tidyverse' is a set of packages that work in harmony because they share common data representations and 'API' design. This package is designed to make it easy to install and load multiple 'tidyverse' packages in a single step. Learn more about the 'tidyverse' at &lt;https://tidyverse.org&gt;.</t>
+  </si>
+  <si>
+    <t>Imports non-tabular from Excel files into R. Exposes cell content, position and formatting in a tidy structure for further manipulation. Provides functions for selecting cells by position and relative position, and for associating data cells with header cells by proximity in given directions. Supports '.xlsx' and '.xlsm' via the embedded 'RapidXML' C++ library &lt;http://rapidxml.sourceforge.net&gt;. Does not support '.xlsb' or '.xls'.</t>
+  </si>
+  <si>
+    <t>Wraps the 'unrtf' utility to extract text from RTF files. Supports document conversion to HTML, LaTeX or plain text. Output in HTML is recommended because 'unrtf' has limited support for converting between character encodings.</t>
+  </si>
+  <si>
+    <t>Declare data validation rules and data quality indicators; confront data with them and analyze or visualize the results. The package supports rules that are per-field, in-record, cross-record or cross-dataset. Rules can be automatically analyzed for rule type and connectivity.</t>
+  </si>
+  <si>
+    <t>Portable, light-weight data frame to 'xlsx' exporter based on 'libxlsxwriter'.  No 'Java' or 'Excel' required.</t>
+  </si>
+  <si>
+    <t>Many approaches for both reading and  creating XML (and HTML) documents (including DTDs), both local  and accessible via HTTP or FTP. Also offers access to an  'XPath' "interpreter".</t>
+  </si>
+  <si>
+    <t>An all relevant feature selection wrapper algorithm. It finds relevant features by comparing original attributes' importance with importance achievable at random, estimated using their permuted copies.</t>
+  </si>
+  <si>
+    <t>Carries out mapping between assorted color spaces including    RGB, HSV, HLS, CIEXYZ, CIELUV, HCL (polar CIELUV),  CIELAB and polar CIELAB. Qualitative, sequential, and  diverging color palettes based on HCL colors are provided  along with an interactive palette picker (with either a Tcl/Tk  or a shiny GUI).</t>
+  </si>
+  <si>
+    <t>A colour picker that can be used as an input in Shiny apps or Rmarkdown documents. The colour picker supports alpha opacity, custom colour palettes, and many more options. A Plot Colour Helper tool is available as an RStudio Addin, which helps you pick colours to use in your plots. A more generic Colour Picker RStudio Addin is also provided to let  you select colours to use in your R code.</t>
+  </si>
+  <si>
+    <t>Apply and visualize conditional formatting to data frames in R. It renders a data frame with cells formatted according to criteria defined by rules, using a tidy evaluation syntax. The table is printed either opening a web browser or within the 'RStudio' viewer if available. The conditional formatting rules allow to highlight cells matching a condition or add a gradient background to a given column. This package supports both 'HTML' and 'LaTeX' outputs in 'knitr' reports, and exporting to an 'xlsx' file.</t>
+  </si>
+  <si>
+    <t>Standardize country names, convert them into one of eleven coding schemes, convert between coding schemes, and assign region descriptors.</t>
+  </si>
+  <si>
+    <t>Tools for combining and cleaning data sets, particularly with grouped and time series data.</t>
+  </si>
+  <si>
+    <t>Easy comparison of two tabular data objects in R. Specifically designed to show differences between two sets of data in a useful way that should make it easier to understand the differences, and if necessary, help you work out how to remedy them. Aims to offer a more useful output than all.equal() when your two data sets do not match, but isn't intended to replace all.equal() as a way to test for equality.</t>
+  </si>
+  <si>
+    <t>Data cleaning is an important first step of any statistical analysis. dataMaid provides an extendable suite of test for common potential errors in a dataset. It produces a document with a thorough summary of the checks and the results that a human can use to identify possible errors.</t>
+  </si>
+  <si>
+    <t>A 'dplyr' back end for databases that allows you to work with  remote database tables as if they are in-memory data frames. Basic features works with any database that has a 'DBI' back end; more advanced features  require 'SQL' translation to be provided by the package author.</t>
+  </si>
+  <si>
+    <t>Easily create descriptive and comparative tables. It makes use and integrates directly with the tidyverse family of packages, and pipes. Tables are produced as data frames/lists of data frames for easy manipulation after creation, and ready to be saved as csv, or piped to DT::datatable() or pander::pander() to integrate into reports.</t>
+  </si>
+  <si>
+    <t>Generate a colorized diff of two R objects for an intuitive visualization of their differences.</t>
+  </si>
+  <si>
+    <t>Data objects in R can be rendered as HTML tables using the JavaScript library 'DataTables' (typically via R Markdown or Shiny). The 'DataTables' library has been included in this R package. The package name 'DT' is an abbreviation of 'DataTables'.</t>
+  </si>
+  <si>
+    <t>Expands factors, characters and other eligible classes  into dummy/indicator variables.</t>
+  </si>
+  <si>
+    <t>Provides some easy-to-use functions to extract and visualize the output of multivariate data analyses, including 'PCA' (Principal Component Analysis), 'CA' (Correspondence Analysis), 'MCA' (Multiple Correspondence Analysis), 'FAMD' (Factor Analysis of Mixed Data), 'MFA' (Multiple Factor Analysis) and 'HMFA' (Hierarchical Multiple Factor Analysis) functions from different R packages. It contains also functions for simplifying some clustering analysis steps and provides 'ggplot2' - based elegant data visualization.</t>
+  </si>
+  <si>
+    <t>Convenient functions for moving files, deleting directories,  and a variety of string operations that facilitate manipulating file names  and extracting information from strings.</t>
+  </si>
+  <si>
+    <t>gsubfn is like gsub but can take a replacement function or certain other objects instead of the replacement string. Matches and back references are input to the replacement function and replaced by the function output. gsubfn can be used to split strings based on content rather than delimiters and for quasi-perl-style string interpolation. The package also has facilities for translating formulas to functions and allowing such formulas in function calls instead of functions. This can be used with R functions such as apply, sapply, lapply, optim, integrate, xyplot, Filter and any other function that expects another function as an input argument or functions like cat or sql calls that may involve strings where substitution is desirable.</t>
+  </si>
+  <si>
+    <t>Imputation (replacement) of missing values    in univariate time series.    Offers several imputation functions    and missing data plots.    Available imputation algorithms include:    'Mean', 'LOCF', 'Interpolation',    'Moving Average', 'Seasonal Decomposition',    'Kalman Smoothing on Structural Time Series models',   'Kalman Smoothing on ARIMA models'.</t>
+  </si>
+  <si>
+    <t>The main janitor functions can: perfectly format data.frame column names; provide quick one- and two-variable tabulations (i.e., frequency tables and crosstabs); and isolate duplicate records. Other janitor functions nicely format the tabulation results. These tabulate-and-report functions approximate popular features of SPSS and Microsoft Excel. This package follows the principles of the "tidyverse" and works well with the pipe function %&gt;%. janitor was built with beginning-to-intermediate R users in mind and is optimized for user-friendliness. Advanced R users can already do everything covered here, but with janitor they can do it faster and save their thinking for the fun stuff.</t>
+  </si>
+  <si>
+    <t>An approach to analyzing Likert response items, with an emphasis on visualizations.  The stacked bar plot is the preferred method for presenting Likert results. Tabular results are also implemented along with density plots to assist researchers in determining whether  Likert responses can be used quantitatively instead of qualitatively. See the likert(),  summary.likert(), and plot.likert() functions to get started.</t>
+  </si>
+  <si>
+    <t>A function composition ('pipe') operator and extensible  framework that allows for easy logging of changes in data.</t>
+  </si>
+  <si>
+    <t>Multiple imputation using Fully Conditional Specification (FCS) implemented by the MICE algorithm as described in Van Buuren and Groothuis-Oudshoorn (2011) &lt;doi:10.18637/jss.v045.i03&gt;. Each variable has its own imputation model. Built-in imputation models are provided for continuous data (predictive mean matching, normal), binary data (logistic regression), unordered categorical data (polytomous logistic regression) and ordered categorical data (proportional odds). MICE can also impute continuous two-level data (normal model, pan, second-level variables). Passive imputation can be used to maintain consistency between variables. Various diagnostic plots are available to inspect the quality of the imputations.</t>
+  </si>
+  <si>
+    <t>The function 'missForest' in this package is used to  impute missing values particularly in the case of mixed-type  data. It uses a random forest trained on the observed values of  a data matrix to predict the missing values. It can be used to  impute continuous and/or categorical data including complex  interactions and non-linear relations. It yields an out-of-bag  (OOB) imputation error estimate without the need of a test set  or elaborate cross-validation. It can be run in parallel to   save computation time.</t>
+  </si>
+  <si>
+    <t>Provides easy access to, and manipulation of, the Munsell  colours. Provides a mapping between Munsell's  original notation (e.g. "5R 5/10") and hexadecimal strings suitable  for use directly in R graphics. Also provides utilities  to explore slices through the Munsell colour tree, to transform  Munsell colours and display colour palettes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing values are ubiquitous in data and need to be explored and handled in the initial stages of analysis. 'naniar' provides data structures  and functions that facilitate the plotting of missing values and examination  of imputations. This allows missing data dependencies to be explored with  minimal deviation from the common work patterns of 'ggplot2' and tidy data. </t>
+  </si>
+  <si>
+    <t>A general purpose toolbox for personality, psychometric theory and experimental psychology. Functions are primarily for multivariate analysis and scale construction using factor analysis, principal component analysis, cluster analysis and reliability analysis, although others provide basic descriptive statistics. Item Response Theory is done using factor analysis of tetrachoric and polychoric correlations. Functions for analyzing data at multiple levels include within and between group statistics, including correlations and factor analysis. Functions for simulating and testing particular item and test structures are included. Several functions serve as a useful front end for structural equation modeling. Graphical displays of path diagrams, factor analysis and structural equation models are created using basic graphics. Some of the functions are written to support a book on psychometric theory as well as publications in personality research. For more information, see the &lt;http://personality-project.org/r&gt; web page.</t>
+  </si>
+  <si>
+    <t>Provides color schemes for maps (and other graphics)  designed by Cynthia Brewer as described at http://colorbrewer2.org</t>
+  </si>
+  <si>
+    <t>Succinctly and correctly format statistical summaries of various models and tests (F-test, Chi-Sq-test, Fisher-test, T-test, and rank-significance). The main purpose is unified reporting and planning of experimental results, working around issue such as the difficulty of extracting model summary facts (such as with 'lm'/'glm'). This package also includes empirical tests, such as bootstrap estimates.</t>
+  </si>
+  <si>
+    <t>Collection of miscellaneous utility functions, supporting data  transformation tasks like recoding, dichotomizing or grouping variables,  setting and replacing missing values. The data transformation functions  also support labelled data, and all integrate seamlessly into a  'tidyverse'-workflow.</t>
+  </si>
+  <si>
+    <t>Collection of plotting and table output functions for data visualization. Results of various statistical analyses (that are commonly used in social sciences) can be visualized using this package, including simple and cross tabulated frequencies, histograms, box plots, (generalized) linear models, mixed effects models, principal component analysis and correlation matrices,  cluster analyses, scatter plots, stacked scales, effects plots of regression  models (including interaction terms) and much more. This package supports labelled data.</t>
+  </si>
+  <si>
+    <t>Collection of convenient functions for common statistical computations,    which are not directly provided by R's base or stats packages.    This package aims at providing, first, shortcuts for statistical    measures, which otherwise could only be calculated with additional    effort (like standard errors or root mean squared errors). Second,    these shortcut functions are generic (if appropriate), and can be    applied not only to vectors, but also to other objects as well    (e.g., the Coefficient of Variation can be computed for vectors,    linear models, or linear mixed models; the r2()-function returns    the r-squared value for 'lm', 'glm', 'merMod' or 'lme' objects).    The focus of most functions lies on summary statistics or fit    measures for regression models, including generalized linear    models and mixed effects models. However, some of the functions    also deal with other statistical measures, like Cronbach's Alpha,    Cramer's V, Phi etc.</t>
+  </si>
+  <si>
+    <t>This package detects instances of Simpson's Paradox in  datasets. It examines subpopulations in the data, either  user-defined or by means of cluster analysis, to test whether a  regression at the level of the group is in the opposite  direction at the level of subpopulations.</t>
+  </si>
+  <si>
+    <t>Implements an approximate string matching version of R's native 'match' function. Can calculate various string distances based on edits (Damerau-Levenshtein, Hamming, Levenshtein, optimal sting alignment), qgrams (q- gram, cosine, jaccard distance) or heuristic metrics (Jaro, Jaro-Winkler). An implementation of soundex is provided as well. Distances can be computed between character vectors while taking proper care of encoding or between integer vectors representing generic sequences.</t>
+  </si>
+  <si>
+    <t>Built around three key functions: 1) freq() generates frequency tables reporting counts and proportions (including cumulative) for factors and other discrete data; 2) descr() gives all common central tendency statistics and  measures of dispersion for numerical data; 3) dfSummary() gives as much information as possible on a dataframe's columns in a legible table. freq() and descr() support weights, and all three functions support 'Hmisc' or 'pander' labels.  A variety of output formats are available (plain text, 'rmarkdown' and HTML). An additional misc function, what.is(), displays all common properties of an object (its class, type, mode, attributes, etc.) and extends the base is() function,  checking the object against most is.() functions.</t>
+  </si>
+  <si>
+    <t>Contains functions for the easy display of statistical tests as well as some convenience functions for data cleanup. It is meant to ease existing workflows with packages like 'sjPlot', 'dplyr', and 'ggplot2'. The primary components are the functions prefixed with 'tadaa_', which are built to work in an interactive environment, but also print tidy markdown tables powered by 'pixiedust' for the creation of 'RMarkdown' reports.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Functions to combine data.frames in ways that require additional effort in base R, and to add metadata (id, title, ...) that can be used for printing and xlsx export. The 'Tatoo_report' class is provided as a convenient helper to write several such tables to a workbook, one table per worksheet.</t>
+  </si>
+  <si>
+    <t>Tools for converting data from complex or irregular layouts to a columnar structure. For example, tables with multilevel column or row headers, or spreadsheets. Header and data cells are selected by their contents and position, as well as formatting and comments where available, and are associated with one other by their proximity in given directions. Functions for data frames and HTML tables are provided.</t>
+  </si>
+  <si>
+    <t>New tools for the visualization of missing and/or imputed values are introduced, which can be used for exploring the data and the structure of the missing and/or imputed values. Depending on this structure of the missing values, the corresponding methods may help to identify the mechanism generating the missing values and allows to explore the data including missing values. In addition, the quality of imputation can be visually explored using various univariate, bivariate, multiple and multivariate plot methods. A graphical user interface available in the separate package VIMGUI allows an easy handling of the implemented plot methods.</t>
+  </si>
+  <si>
+    <t>Port of the new 'matplotlib' color maps ('viridis' - the default -, 'magma', 'plasma' and 'inferno') to 'R'. 'matplotlib' &lt;http://matplotlib.org/ &gt; is a popular plotting library for 'python'. These color maps are designed in such a way that they will analytically be perfectly perceptually-uniform, both in regular form and also when converted to black-and-white. They are also designed to be perceived by readers with the most common form of color blindness.</t>
+  </si>
+  <si>
+    <t>Create preliminary exploratory data visualisations of an entire dataset to identify problems or unexpected features using 'ggplot2'.</t>
+  </si>
+  <si>
+    <t>A 'data.frame' processor/conditioner that prepares real-world data for predictive modeling in a statistically sound manner. 'vtreat' prepares variables so that data has fewer exceptional cases, making it easier to safely use models in production. Common problems 'vtreat' defends against: 'Inf', 'NA', too many categorical levels, rare categorical levels, and new categorical levels (levels seen during application, but not during training). 'vtreat::prepare' should be used as you would use 'model.matrix'.</t>
+  </si>
+  <si>
+    <t>User-facing R functions are provided to parse, compile, test,  estimate, and analyze Stan models by accessing the header-only Stan library  provided by the 'StanHeaders' package. The Stan project develops a probabilistic programming language that implements full Bayesian statistical  inference via Markov Chain Monte Carlo, rough Bayesian inference via 'variational' approximation, and (optionally penalized) maximum likelihood estimation via  optimization. In all three cases, automatic differentiation is used to quickly  and accurately evaluate gradients without burdening the user with the need  to derive the partial derivatives.</t>
+  </si>
+  <si>
+    <t>Efficient approximate leave-one-out cross-validation (LOO) using Pareto smoothed importance sampling (PSIS), a new procedure for regularizing importance weights. As a byproduct of the calculations, we also obtain approximate standard errors for estimated predictive errors and for the comparison of predictive errors between models. We also compute the widely applicable information criterion (WAIC).</t>
+  </si>
+  <si>
+    <t>Plotting functions for posterior analysis, model checking, and MCMC diagnostics. The package is designed not only to provide convenient functionality for users, but also a common set of functions that can be easily used by developers working on a variety of R packages for Bayesian modeling, particularly (but not exclusively) packages interfacing with 'Stan'.</t>
+  </si>
+  <si>
+    <t>Estimates previously compiled regression models using the 'rstan' package, which provides the R interface to the Stan C++ library for Bayesian estimation. Users specify models via the customary R syntax with a formula and data.frame plus some additional arguments for priors.</t>
+  </si>
+  <si>
+    <t>Provides various tools for developers of R packages interfacing with 'Stan' &lt;http://mc-stan.org&gt;, including functions to set up the required  package structure, S3 generics and default methods to unify function naming  across 'Stan'-based R packages, and a vignette with recommendations for  developers.</t>
+  </si>
+  <si>
+    <t>Makes it incredibly easy to build interactive web applications with R. Automatic "reactive" binding between inputs and outputs and extensive prebuilt widgets make it possible to build beautiful, responsive, and powerful applications with minimal effort.</t>
+  </si>
+  <si>
+    <t>A graphical user interface for interactive Markov chain Monte Carlo (MCMC) diagnostics and plots and tables helpful for analyzing a posterior sample. The interface is powered by the 'Shiny' web application framework from 'RStudio' and works with the output of MCMC  programs written in any programming language (and has extended  functionality for 'Stan' models fit using the 'rstan' and 'rstanarm'  packages).</t>
+  </si>
+  <si>
+    <t>Fit Bayesian generalized (non-)linear multilevel models  using Stan for full Bayesian inference. A wide range of distributions  and link functions are supported, allowing users to fit -- among others --  linear, robust linear, count data, survival, response times, ordinal,  zero-inflated, hurdle, and even self-defined mixture models all in a  multilevel context. Further modeling options include non-linear and  smooth terms, auto-correlation structures, censored data, meta-analytic  standard errors, and quite a few more. In addition, all parameters of the  response distribution can be predicted in order to perform distributional  regression. Prior specifications are flexible and explicitly encourage  users to apply prior distributions that actually reflect their beliefs. Model fit can easily be assessed and compared with posterior predictive  checks and leave-one-out cross-validation.</t>
+  </si>
+  <si>
+    <t>Create dashboards with 'Shiny'. This package provides a theme on top of 'Shiny', making it easy to create attractive dashboards.</t>
+  </si>
+  <si>
+    <t>Provides functionality for client-side navigation of the server side file system in shiny apps. In case the app is running locally this gives the user direct access to the file system without the need to "download" files to a temporary location. Both file and folder selection as well as file saving is available.</t>
+  </si>
+  <si>
+    <t>Perform common useful JavaScript operations in Shiny apps that will greatly improve your apps without having to know any JavaScript. Examples include: hiding an element, disabling an input, resetting an input back to its original value, delaying code execution by a few seconds, and many more useful functions for both the end user and the developer. 'shinyjs' can also be used to easily call your own custom JavaScript functions from R.</t>
+  </si>
+  <si>
+    <t>Convenience functions for analyzing factorial experiments using ANOVA or   mixed models. aov_ez(), aov_car(), and aov_4() allow specification of between,   within (i.e., repeated-measures), or mixed between-within (i.e., split-plot)   ANOVAs for data in long format (i.e., one observation per row), aggregating   multiple observations per individual and cell of the design. mixed() fits mixed   models using lme4::lmer() and computes p-values for all fixed effects using   either Kenward-Roger or Satterthwaite approximation for degrees of freedom (LMM   only), parametric bootstrap (LMMs and GLMMs), or likelihood ratio tests (LMMs   and GLMMs). afex uses type 3 sums of squares as default (imitating commercial   statistical software).</t>
+  </si>
+  <si>
+    <t>Provides the infrastructure for representing, manipulating and analyzing transaction data and patterns (frequent itemsets and association rules). Also provides interfaces to C implementations of the association mining algorithms Apriori and Eclat by C. Borgelt.</t>
+  </si>
+  <si>
+    <t>A suite of functions that allow the user to analyze A/B test data in a Bayesian framework. Intended to be a drop-in replacement for common frequentist hypothesis test such as the t-test and chi-sq test.</t>
+  </si>
+  <si>
+    <t>Functions for performing the Bayesian bootstrap as introduced by Rubin (1981) &lt;doi:10.1214/aos/1176345338&gt; and for summarizing the result. The implementation can handle both summary statistics that works on a weighted version of the data and summary statistics that works on a resampled data set.</t>
+  </si>
+  <si>
+    <t>Convert statistical analysis objects from R into tidy data frames, so that they can more easily be combined, reshaped and otherwise processed with tools like 'dplyr', 'tidyr' and 'ggplot2'. The package provides three S3 generics: tidy, which summarizes a model's statistical findings such as coefficients of a regression; augment, which adds columns to the original data such as predictions, residuals and cluster assignments; and glance, which provides a one-row summary of model-level statistics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Functions and Datasets to Accompany J. Fox and S. Weisberg, An R Companion to Applied Regression, Second Edition, Sage, 2011.</t>
+  </si>
+  <si>
+    <t>Misc functions for training and plotting classification and regression models.</t>
+  </si>
+  <si>
+    <t>Text data can be processed chunkwise using 'dplyr' commands. These are recorded and executed per data chunk, so large files can be processed with limited memory using the 'LaF' package.</t>
+  </si>
+  <si>
+    <t>Bindings to Google's C++ library Compact Language Detector 2 (see &lt;https://github.com/cld2owners/cld2#readme&gt; for more information). Probabilistically detects over 80 languages in plain text or HTML. For mixed-language input it returns the top three detected languages and their approximate proportion of the total classified  text bytes (e.g. 80% English and 20% French out of 1000 bytes). There is also a 'cld3' package on CRAN which uses a neural network model instead.</t>
+  </si>
+  <si>
+    <t>Google's Compact Language Detector 3 is a neural network model for language  identification and the successor of 'cld2' (available from CRAN). The algorithm is still experimental and takes a novel approach to language detection with different properties and outcomes. It can be useful to combine this with the Bayesian classifier results  from 'cld2'. See &lt;https://github.com/google/cld3#readme&gt; for more information.</t>
+  </si>
+  <si>
+    <t>Produces descriptive interpretations of confidence intervals. Includes (extensible) support for various test types, specified as sets of interpretations dependent on where the lower and upper confidence limits sit. Provides plotting functions for graphical display of interpretations.</t>
+  </si>
+  <si>
+    <t>A tool for exploring correlations. It makes it possible to easily perform routine tasks when exploring correlation matrices such as ignoring the diagonal, focusing on the correlations of certain variables against others, or rearranging and visualising the matrix in terms of the strength of the correlations.</t>
+  </si>
+  <si>
+    <t>A graphical display of a correlation matrix or general matrix. It also contains some algorithms to do matrix reordering. In addition, corrplot is good at details, including choosing color, text labels, color labels, layout, etc.</t>
+  </si>
+  <si>
+    <t>Functions for latent class analysis, short time Fourier  transform, fuzzy clustering, support vector machines,  shortest path computation, bagged clustering, naive Bayes  classifier, ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Graphical and tabular effect displays, e.g., of interactions, for various statistical models with linear predictors.</t>
+  </si>
+  <si>
+    <t>Package provides tabulation functions with support for 'SPSS'-style   labels, multiple / nested banners, weights, multiple-response variables   and significance testing. There are facilities for nice output of tables   in 'knitr', R notebooks, 'Shiny' and 'Jupyter' notebooks. Proper methods   for labelled variables add value labels support to base R functions and to   some functions from other packages. Additionally, the package offers   useful functions for data processing in marketing research / social   surveys - popular data transformation functions from 'SPSS' Statistics   ('RECODE', 'COUNT', 'COMPUTE', 'DO IF', etc.) and 'Excel' ('COUNTIF',   'VLOOKUP', etc.). Package is intended to help people to move data   processing from 'Excel'/'SPSS' to R.</t>
+  </si>
+  <si>
+    <t>Create, visualize, and test fast-and-frugal decision trees (FFTs). FFTs are very simple decision trees for binary classification problems. FFTs can be preferable to more complex algorithms because they are easy to communicate, require very little information, and are robust against overfitting.</t>
+  </si>
+  <si>
+    <t>Methods and tools for displaying and analysing    univariate time series forecasts including exponential smoothing    via state space models and automatic ARIMA modelling.</t>
+  </si>
+  <si>
+    <t>It is designed as an integrated package for genetic data  analysis of both population and family data. Currently, it  contains functions for sample size calculations of both  population-based and family-based designs, probability of  familial disease aggregation, kinship calculation, statistics  in linkage analysis, and association analysis involving genetic  markers including haplotype analysis with or without environmental  covariates.</t>
+  </si>
+  <si>
+    <t>An excerpt of the data available at Gapminder.org. For each of 142 countries, the package provides values for life expectancy, GDP per capita, and population, every five years, from 1952 to 2007.</t>
+  </si>
+  <si>
+    <t>An implementation of extensions to Freund and  Schapire's AdaBoost algorithm and Friedman's gradient boosting  machine. Includes regression methods for least squares,  absolute loss, t-distribution loss, quantile regression,  logistic, multinomial logistic, Poisson, Cox proportional  hazards partial likelihood, AdaBoost exponential loss,  Huberized hinge loss, and Learning to Rank measures  (LambdaMart).</t>
+  </si>
+  <si>
+    <t>Call 'Google Cloud' machine learning APIs for text and speech tasks. Call the 'Cloud Translation' API &lt;https://cloud.google.com/translate/&gt; for detection and translation of text, the 'Natural Language' API &lt;https://cloud.google.com/natural-language/&gt; to analyse text for sentiment, entities or syntax or the 'Cloud Speech' API &lt;https://cloud.google.com/speech/&gt; to transcribe sound files to text.</t>
+  </si>
+  <si>
+    <t>A spell checker and morphological analyzer library designed for languages with rich morphology and complex word compounding or character encoding. The package can check and analyze individual words as well as search for incorrect words within a text, latex, html or xml document. Use the 'devtools' package to spell check R documentation with 'hunspell'.</t>
+  </si>
+  <si>
+    <t>Kernel-based machine learning methods for classification,  regression, clustering, novelty detection, quantile regression  and dimensionality reduction. Among other methods 'kernlab'  includes Support Vector Machines, Spectral Clustering, Kernel  PCA, Gaussian Processes and a QP solver.</t>
+  </si>
+  <si>
+    <t>A set of tools to analyze texts. Includes, amongst others, functions for automatic language detection, hyphenation,    several indices of lexical diversity (e.g., type token ratio, HD-D/vocd-D, MTLD) and readability (e.g., Flesch, SMOG,    LIX, Dale-Chall). Basic import functions for language corpora are also provided, to enable frequency analyses (supports    Celex and Leipzig Corpora Collection file formats) and measures like tf-idf. Support for additional languages can be    added on-the-fly or by plugin packages. Note: For full functionality a local installation of TreeTagger is recommended.    'koRpus' also includes a plugin for the R GUI and IDE RKWard, providing graphical dialogs for its basic features. The    respective R package 'rkward' cannot be installed directly from a repository, as it is a part of RKWard. To make full    use of this feature, please install RKWard from &lt;https://rkward.kde.org&gt; (plugins are detected automatically). Due to    some restrictions on CRAN, the full package sources are only available from the project homepage. To ask for help,    report bugs, request features, or discuss the development of the package, please subscribe to the koRpus-dev mailing    list (&lt;http://korpusml.reaktanz.de&gt;).</t>
+  </si>
+  <si>
+    <t>Provides tools that manipulate and transform data using methods and techniques consistent with functional programming. The idea is that through the use of these tools, a program can be reasoned about insomuch that the implementation can be proven to be equivalent to the mathematical model.</t>
+  </si>
+  <si>
+    <t>Add and modify small charts on an interactive map created with  package 'leaflet'. These charts can be used to represent at same time multiple  variables on a single map.</t>
+  </si>
+  <si>
+    <t>When building complex models, it is often difficult to explain why the model should be trusted. While global measures such as accuracy are useful, they cannot be used for explaining why a model made a specific prediction. 'lime' (a port of the 'lime' 'Python' package) is a method for explaining the outcome of black box models by fitting a local model around the point in question an perturbations of this point. The approach is described in more detail in the article by Ribeiro et al. (2016)  &lt;arXiv:1602.04938&gt;.</t>
+  </si>
+  <si>
+    <t>Support vector machines (SVMs) and related kernel-based learning algorithms are a well-known class of machine learning algorithms, for non-parametric classification and regression. liquidSVM is an implementation of SVMs whose key features are: fully integrated hyper-parameter selection, extreme speed on both small and large data sets, full flexibility for experts, and inclusion of a variety of different learning scenarios: multi-class classification, ROC, and Neyman-Pearson learning, and least-squares, quantile, and expectile regression.</t>
+  </si>
+  <si>
+    <t>An R port of Stata's 'margins' command, which can be used to calculate marginal (or partial) effects from model objects.</t>
+  </si>
+  <si>
+    <t>Training of neural networks using backpropagation, resilient backpropagation with (Riedmiller, 1994) or without weight backtracking (Riedmiller and Braun, 1993) or the modified globally convergent version by Anastasiadis et al. (2005). The package allows flexible settings through custom-choice of error and activation function. Furthermore, the calculation of generalized weights (Intrator O &amp; Intrator N, 1993) is implemented.</t>
+  </si>
+  <si>
+    <t>nloptr is an R interface to NLopt. NLopt is a free/open-source library for nonlinear optimization, providing a common interface for a number of different free optimization routines available online as well as original implementations of various other algorithms. See http://ab-initio.mit.edu/wiki/index.php/NLopt_Introduction for more information on the available algorithms. During installation on Unix the NLopt code is downloaded and compiled from the NLopt website.</t>
+  </si>
+  <si>
+    <t>Provides a framework to perform Non-negative Matrix Factorization (NMF). The package implements a set of already published algorithms and seeding methods, and provides a framework to test, develop and plug new/custom algorithms. Most of the built-in algorithms have been optimized in C++, and the main interface function provides an easy way of performing parallel computations on multicore machines.</t>
+  </si>
+  <si>
+    <t>Download and import of 'OpenStreetMap' ('OSM') data as 'sf' or 'sp' objects. 'OSM' data are extracted from the 'Overpass' web server and processed with very fast 'C++' routines for return to 'R'.</t>
+  </si>
+  <si>
+    <t>A computational toolbox for recursive partitioning. The core of the package is ctree(), an implementation of conditional inference trees which embed tree-structured regression models into a well defined theory of conditional inference procedures. This non-parametric class of regression trees is applicable to all kinds of regression problems, including nominal, ordinal, numeric, censored as well as multivariate response variables and arbitrary measurement scales of the covariates. Based on conditional inference trees, cforest() provides an implementation of Breiman's random forests. The function mob() implements an algorithm for recursive partitioning based on parametric models (e.g. linear models, GLMs or survival regression) employing parameter instability tests for split selection. Extensible functionality for visualizing tree-structured regression models is available. The methods are described in Hothorn et al. (2006) &lt;doi:10.1198/106186006X133933&gt;, Zeileis et al. (2008) &lt;doi:10.1198/106186008X319331&gt; and Strobl et al. (2007) &lt;doi:10.1186/1471-2105-8-25&gt;.</t>
+  </si>
+  <si>
+    <t>Collection of econometric functions for performance and risk analysis. This package aims to aid practitioners and researchers in utilizing the latest research in analysis of non-normal return streams. In general, it is most tested on return (rather than price) data on a regular scale, but most functions will work with irregular return data as well, and increasing numbers of functions will work with P&amp;L or price data where possible.</t>
+  </si>
+  <si>
+    <t>A collection of regular expression tools associated with  the 'qdap' package that may be useful outside of the context of  discourse analysis. Tools include  removal/extraction/replacement of abbreviations, dates, dollar  amounts, email addresses, hash tags, numbers, percentages,  citations, person tags, phone numbers, times, and zip codes.</t>
+  </si>
+  <si>
+    <t>Classification and regression based on a forest of trees  using random inputs.</t>
+  </si>
+  <si>
+    <t>Recursive partitioning for classification, regression and survival trees. An implementation of most of the functionality of the 1984 book by Breiman, Friedman, Olshen and Stone.</t>
+  </si>
+  <si>
+    <t>Plot 'rpart' models. Extends plot.rpart() and text.rpart()    in the 'rpart' package.</t>
+  </si>
+  <si>
+    <t>Allows ad hoc queries and reading and writing data frames to and from a database.</t>
+  </si>
+  <si>
+    <t>RTextTools is a machine learning package for automatic  text classification that makes it simple for novice users to  get started with machine learning, while allowing experienced  users to easily experiment with different settings and  algorithm combinations. The package includes nine algorithms  for ensemble classification (svm, slda, boosting, bagging,  random forests, glmnet, decision trees, neural networks,  maximum entropy), comprehensive analytics, and thorough  documentation.</t>
+  </si>
+  <si>
+    <t>Detection of anomalous space-time clusters using the scan  statistics methodology. Focuses on prospective surveillance of data streams,  scanning for clusters with ongoing anomalies. Hypothesis testing is made  possible by Monte Carlo simulation.</t>
+  </si>
+  <si>
+    <t>Making it easy to use various types of fonts ('TrueType', 'OpenType', Type 1, web fonts, etc.) in R graphs, and supporting most output formats of R graphics including PNG, PDF and SVG. Text glyphs will be converted into polygons or raster images, hence after the plot has been created, it no longer relies on the font files. No external software such as 'Ghostscript' is needed to use this package.</t>
+  </si>
+  <si>
+    <t>Provides tools to help safely and efficiently organize Monte Carlo simulations in R. The package controls the structure and back-end of Monte Carlo simulations by utilizing a general generate-analyse-summarise strategy. The functions provided control common simulation issues such as re-simulating non-convergent results, support parallel back-end and MPI distributed computations, save and restore temporary files, aggregate results across independent nodes, and provide native support for debugging.</t>
+  </si>
+  <si>
+    <t>Decompose a time series into seasonal, trend, and remainder components using an implementation of Seasonal Decomposition of Time Series by Loess (STL) that provides several enhancements over the STL method in the stats package. These enhancements include handling missing values, providing higher order (quadratic) loess smoothing with automated parameter choices, frequency component smoothing beyond the seasonal and trend components, and some basic plot methods for diagnostics.</t>
+  </si>
+  <si>
+    <t>Provides 'ggplot2' graphics for analysing time series data. It aims  to fit into the 'tidyverse' and grammar of graphics framework for handling  temporal data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tidies up the forecasting modeling and prediction work flow,  extends the 'broom' package  with 'sw_tidy', 'sw_glance', 'sw_augment', and 'sw_tidy_decomp' functions  for various forecasting models, and enables converting 'forecast' objects to  "tidy" data frames with 'sw_sweep'.</t>
+  </si>
+  <si>
+    <t>Tools to clean and process text. Tools are geared at  checking for substrings that are not optimal for analysis and  replacing or removing them with more analysis friendly  substrings. For example, emoticons are often used in text but  not always easily handled by analysis algorithms. The  'replace_emoticon' function replaces emoticons with word  equivalents.</t>
+  </si>
+  <si>
+    <t>This package provides the timing functions 'tic' and 'toc' that can be nested. One can record all timings while a complex script is running, and examine the values later. It is also possible to instrument the timing calls with custom callbacks. In addition, this package provides class 'Stack', implemented as a vector, and class 'List', implemented as a list, both of which support operations 'push', 'pop', 'first', 'last' and 'clear'.</t>
+  </si>
+  <si>
+    <t>A graph, while not "tidy" in itself, can be thought of as two tidy data frames describing node and edge data respectively. 'tidygraph' provides an approach to manipulate these two virtual data frames using the API defined in the 'dplyr' package, as well as provides tidy interfaces to  a lot of common graph algorithms.</t>
+  </si>
+  <si>
+    <t>Text mining for word processing and sentiment analysis using 'dplyr', 'ggplot2', and other tidy tools.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Get the time series index, signature, and summary from time series objects and time-based tibbles. Create future time series based on properties of  existing time series index.  Coerce between time-based tibbles ('tbl') and 'xts', 'zoo', and 'ts'. </t>
+  </si>
+  <si>
+    <t>Bringing financial analysis to the 'tidyverse'. The 'tidyquant'  package provides a convenient wrapper to various 'xts', 'zoo', 'quantmod', 'TTR'  and 'PerformanceAnalytics' package  functions and returns the objects in the tidy 'tibble' format. The main  advantage is being able to use quantitative functions with the 'tidyverse' functions including 'purrr', 'dplyr', 'tidyr', 'ggplot2', 'lubridate', etc. See  the 'tidyquant' website for more information, documentation and examples.</t>
+  </si>
+  <si>
+    <t>Provides an interface to the C code for Latent Dirichlet  Allocation (LDA) models and Correlated Topics Models  (CTM) by David M. Blei and co-authors and the C++ code  for fitting LDA models using Gibbs sampling by Xuan-Hieu  Phan and co-authors.</t>
+  </si>
+  <si>
+    <t>A fast visualization tool for creating wordcloud by using wordcloud2.js.</t>
+  </si>
+  <si>
+    <t>Extreme Gradient Boosting, which is an efficient implementation of the gradient boosting framework from Chen &amp; Guestrin (2016) &lt;doi:10.1145/2939672.2939785&gt;. This package is its R interface. The package includes efficient linear  model solver and tree learning algorithms. The package can automatically  do parallel computation on a single machine which could be more than 10  times faster than existing gradient boosting packages. It supports various objective functions, including regression, classification and ranking. The package is made to be extensible, so that users are also allowed to define their own objectives easily.</t>
+  </si>
+  <si>
+    <t>An S3 class with methods for totally ordered indexed    observations. It is particularly aimed at irregular time series    of numeric vectors/matrices and factors. zoo's key design goals    are independence of a particular index/date/time class and    consistency with ts and base R by providing methods to extend    standard generics.</t>
+  </si>
+  <si>
+    <t>Simple animated versions of basic R plots, using the 'animation' package. Includes animated versions of plot, barplot, persp, contour, filled.contour, hist, curve, points, lines, text, symbols, segments, and arrows.</t>
+  </si>
+  <si>
+    <t>Provides functions for animations in statistics, covering topics in probability theory, mathematical statistics, multivariate statistics, non-parametric statistics, sampling survey, linear models, time series, computational statistics, data mining and machine learning. These functions may be helpful in teaching statistics and data analysis. Also provided in this package are a series of functions to save animations to various formats, e.g. Flash, 'GIF', HTML pages, 'PDF' and videos. 'PDF' animations can be inserted into 'Sweave' / 'knitr' easily.</t>
+  </si>
+  <si>
+    <t>Create and integrate maps in your R workflow. This package allows various cartographic representations such as proportional symbols, chroropleth, typology, flows or discontinuities maps. It also offers several features enhancing  the graphic presentation of maps like cartographic palettes, layout  elements (scale, north arrow, title...), labels, legends or access to some  cartographic APIs. See Giraud and Lambert (2017) &lt;doi:10.1007/978-3-319-57336-6_13&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choropleths are thematic maps where geographic regions, such as states, are colored according to some metric, such as the number of people who live in that state. This package simplifies this process by 1. Providing ready-made functions for creating choropleths of common maps. 2. Providing data and API connections to interesting data sources for making choropleths. 3. Providing a framework for creating choropleths from arbitrary shapefiles. 4. Overlaying those maps over reference maps from Google Maps. </t>
+  </si>
+  <si>
+    <t>Contains 3 maps. 1) US States 2) US Counties 3) Countries of the world.</t>
+  </si>
+  <si>
+    <t>Some helpful extensions and modifications to the 'ggplot2' package. In particular, this package makes it easy to combine multiple 'ggplot2' plots into one and label them with letters, e.g. A, B, C, etc., as is often required for scientific publications. The package also provides a streamlined and clean theme that is used in the Wilke lab, hence the package name, which stands for Claus O. Wilke's plot package.</t>
+  </si>
+  <si>
+    <t>Create interactive heat maps that are usable from the R console, in the 'RStudio' viewer pane, in 'R Markdown' documents, and in 'Shiny' apps. Hover the mouse pointer over a cell to show details, drag a rectangle to zoom, and click row/column labels to highlight.</t>
+  </si>
+  <si>
+    <t>Create and customize interactive collapsible 'D3' trees using the 'D3' JavaScript library and the 'htmlwidgets' package. These trees can be used directly from the R console, from 'RStudio', in Shiny apps and R Markdown documents. When in Shiny the tree layout is observed by the server and can be used as a reactive filter of structured data.</t>
+  </si>
+  <si>
+    <t>An R interface to the 'dygraphs' JavaScript charting library (a copy of which is included in the package). Provides rich facilities for charting time-series data in R, including highly configurable series- and axis-display and interactive features like zoom/pan and series/point highlighting.</t>
+  </si>
+  <si>
+    <t>Wrappers for the Geospatial Data Abstraction Library (GDAL) Utilities.</t>
+  </si>
+  <si>
+    <t>GeoXp is a tool for researchers in spatial statistics,  spatial econometrics, geography, ecology etc allowing to link  dynamically statistical plots with elementary maps. This  coupling consists in the fact that the selection of a zone on  the map results in the automatic highlighting of the  corresponding points on the statistical graph or reversely the  selection of a portion of the graph results in the automatic  highlighting of the corresponding points on the map. GeoXp  includes tools from different areas of spatial statistics  including geostatistics as well as spatial econometrics and  point processes. Besides elementary plots like boxplots,  histograms or simple scatterplot, GeoXp also couples with maps  Moran scatterplots, variogram cloud, Lorentz Curves,...In order  to make the most of the multidimensionality of the data, GeoXp  includes some dimension reduction techniques such as PCA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The R package 'ggplot2' is a plotting system based on the grammar of graphics. 'GGally' extends 'ggplot2' by adding several functions to reduce the complexity of combining geometric objects with transformed data. Some of these functions include a pairwise plot matrix, a two group pairwise plot matrix, a parallel coordinates plot, a survival plot, and several functions to plot networks.</t>
+  </si>
+  <si>
+    <t>A compendium of new geometries, coordinate systems, statistical  transformations, scales and fonts for 'ggplot2', including splines, 1d and 2d densities,  univariate average shifted histograms, a new map coordinate system based on the  'PROJ.4'-library along with geom_cartogram() that mimics the original functionality of  geom_map(), formatters for "bytes", a stat_stepribbon() function, increased 'plotly' compatibility and the 'StateFace' open source font 'ProPublica'. Further new  functionality includes lollipop charts, dumbbell charts, the ability to encircle points and coordinate-system-based text annotations.</t>
+  </si>
+  <si>
+    <t>Provides two methods of plotting categorical scatter plots such that the arrangement of points within a category reflects the density of data at that region, and avoids over-plotting.</t>
+  </si>
+  <si>
+    <t>The 'ggcorrplot' package can be used to visualize easily a correlation matrix using 'ggplot2'. It provides a solution for reordering the correlation matrix and displays the significance level on the plot. It also includes a function for computing a matrix of correlation p-values.</t>
+  </si>
+  <si>
+    <t>The aim of 'ggplot2' is to aid in visual data investigations. This focus has led to a lack of facilities for composing specialised plots. 'ggforce' aims to be a collection of mainly new stats and geoms that fills this gap. All additional functionality is aimed to come through the official extension system so using 'ggforce' should be a stable experience.</t>
+  </si>
+  <si>
+    <t>Unified plotting tools for statistics commonly used, such as GLM, time series, PCA families, clustering and survival analysis. The package offers a single plotting interface for these analysis results and plots in a unified style using 'ggplot2'.</t>
+  </si>
+  <si>
+    <t>Supports image files and graphic objects to be visualized in 'ggplot2' graphic system.</t>
+  </si>
+  <si>
+    <t>A collection of functions to visualize spatial data and models on top of static maps from various online sources (e.g Google Maps and Stamen Maps). It includes tools common to those tasks, including functions for geolocation and routing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easily explore data by creating ggplots through a (shiny-)GUI. R-code to recreate graph provided. </t>
+  </si>
+  <si>
+    <t>ggplot2' is an excellent and flexible package for elegant data visualization in R. However the default generated plots requires some formatting before we can send them for publication. Furthermore, to customize a 'ggplot', the syntax is opaque and this raises the level of difficulty for researchers with no advanced R programming skills. 'ggpubr' provides some easy-to-use functions for creating and customizing 'ggplot2'- based publication ready plots.</t>
+  </si>
+  <si>
+    <t>The grammar of graphics as implemented in ggplot2 is a poor fit for graph and network visualizations due to its reliance on tabular data input. ggraph is an extension of the ggplot2 API tailored to graph visualizations and provides the same flexible approach to building up plots layer by layer.</t>
+  </si>
+  <si>
+    <t>Provides text and label geoms for 'ggplot2' that help to avoid overlapping text labels. Labels repel away from each other and away from the data points.</t>
+  </si>
+  <si>
+    <t>A collection of 'ggplot2' color palettes inspired by plots in scientific journals, data visualization libraries, science fiction movies, and TV shows.</t>
+  </si>
+  <si>
+    <t>Provides 'ggplot2' 'stats' that estimate seasonally adjusted series  and rolling summaries such as rolling average on the fly for time series.</t>
+  </si>
+  <si>
+    <t>Extends the functionality of 'ggplot2', providing the capability to plot ternary diagrams for (subset of) the 'ggplot2' geometries. Additionally, 'ggtern' has implemented several NEW geometries which are unavailable to the standard 'ggplot2' release. For further examples and documentation, please proceed to the 'ggtern' website.</t>
+  </si>
+  <si>
+    <t>Some extra themes, geoms, and scales for 'ggplot2'. Provides 'ggplot2' themes and scales that replicate the look of plots by Edward Tufte, Stephen Few, 'Fivethirtyeight', 'The Economist', 'Stata', 'Excel', and 'The Wall Street Journal', among others. Provides 'geoms' for Tufte's box plot and range frame.</t>
+  </si>
+  <si>
+    <t>An implementation of an interactive grammar of graphics, taking the best parts of 'ggplot2', combining them with the reactive framework of 'shiny' and drawing web graphics using 'vega'.</t>
+  </si>
+  <si>
+    <t>General polygon clipping routines for R based on Alan  Murta's C library</t>
+  </si>
+  <si>
+    <t>Provides a number of user-level functions to work with "grid" graphics, notably to arrange multiple grid-based plots on a page, and draw tables.</t>
+  </si>
+  <si>
+    <t>An interface for retrieving and displaying the information returned online by Google Trends is provided. Trends (number of hits) over the time as well as geographic representation of the results can be displayed.</t>
+  </si>
+  <si>
+    <t>Create interactive cluster 'heatmaps' that can be saved as a stand- alone HTML file, embedded in 'R Markdown' documents or in a 'Shiny' app, and available in the 'RStudio' viewer pane. Hover the mouse pointer over a cell to show details or drag a rectangle to zoom. A 'heatmap' is a popular graphical method for visualizing high-dimensional data, in which a table of numbers are encoded as a grid of colored cells. The rows and columns of the matrix are ordered to highlight patterns and are often accompanied by 'dendrograms'. 'Heatmaps' are used in many fields for visualizing observations, correlations, missing values patterns, and more. Interactive 'heatmaps' allow the inspection of specific value by hovering the mouse over a cell, as well as zooming into a region of the 'heatmap' by dragging a rectangle around the relevant area. This work is based on the 'ggplot2' and 'plotly.js' engine. It produces similar 'heatmaps' as 'heatmap.2' or 'd3heatmap', with the advantage of speed ('plotly.js' is able to handle larger size matrix), the ability to zoom from the 'dendrogram' panes, and the placing of factor variables in the sides of the 'heatmap'.</t>
+  </si>
+  <si>
+    <t>Binning and plotting functions for hexagonal bins. Now  uses and relies on grid graphics and formal (S4) classes and  methods.</t>
+  </si>
+  <si>
+    <t>Helper functions for creating reproducible hexagon sticker purely in R.</t>
+  </si>
+  <si>
+    <t>A wrapper for the 'Highcharts' library including shortcut functions to plot R objects. 'Highcharts' &lt;http://www.highcharts.com/&gt; is a charting library offering numerous chart types with a simple configuration syntax.</t>
+  </si>
+  <si>
+    <t>A compilation of extra 'ggplot2' themes, scales and utilities, including a  spell check function plot label fields and an overall emphasis on typography.  A copy of the 'Google' font 'Roboto Condensed' &lt;https://github.com/google/roboto/&gt;  is also included to support one of the typography-oriented themes.</t>
+  </si>
+  <si>
+    <t>A framework for creating HTML widgets that render in various contexts including the R console, 'R Markdown' documents, and 'Shiny' web applications.</t>
+  </si>
+  <si>
+    <t>Provides a general-purpose tool for dynamic report generation in R using Literate Programming techniques.</t>
+  </si>
+  <si>
+    <t>Create and customize interactive maps using the 'Leaflet' JavaScript library and the 'htmlwidgets' package. These maps can be used directly from the R console, from 'RStudio', in Shiny apps and R Markdown documents.</t>
+  </si>
+  <si>
+    <t>Functions for working with legends and axis lines of 'ggplot2', facets that repeat axis lines on all panels, and some 'knitr' extensions.</t>
+  </si>
+  <si>
+    <t>Bindings to 'ImageMagick': the most comprehensive open-source image processing library available. Supports many common formats (png, jpeg, tiff, pdf, etc) and manipulations (rotate, scale, crop, trim, flip, blur, etc). All operations are vectorized via the Magick++ STL meaning they operate either on a single frame or a series of frames for working with layers, collages, or animation. In RStudio images are automatically previewed when printed to the console, resulting in an interactive editing environment. The latest  version of the package includes a native graphics device for creating  in-memory graphics or drawing onto images using pixel coordinates.</t>
+  </si>
+  <si>
+    <t>Suite of interactive functions and helpers for selecting and editing geospatial data.</t>
+  </si>
+  <si>
+    <t>Display of maps. Projection code and larger maps are in    separate packages ('mapproj' and 'mapdata').</t>
+  </si>
+  <si>
+    <t>Provides an 'htmlwidgets' interface to the 'MetricsGraphics.js' ('D3'-based) charting library which is geared towards displaying time-series data. Chart types include line charts, scatterplots, histograms and rudimentary bar charts. Support for laying out multiple charts into a grid layout is also provided. All charts are interactive and many have an option for line, label and region annotations.</t>
+  </si>
+  <si>
+    <t>Creates 'D3' 'JavaScript' network, tree, dendrogram, and Sankey graphs from 'R'.</t>
+  </si>
+  <si>
+    <t>Functions to convert geometry and 'hstore' data types from 'PostgreSQL' into standard R objects, as well as to simplify the import of R data frames (including spatial data frames) into 'PostgreSQL'.</t>
+  </si>
+  <si>
+    <t>R Markdown format for 'reveal.js' presentations, a framework for easily creating beautiful presentations using HTML.</t>
+  </si>
+  <si>
+    <t>Provides medium to high level functions for 3D interactive graphics, including functions modelled on base graphics (plot3d(), etc.) as well as functions for constructing representations of geometric objects (cube3d(), etc.). Output may be on screen using OpenGL, or to various standard 3D file formats including WebGL, PLY, OBJ, STL as well as 2D image formats, including PNG, Postscript, SVG, PGF.</t>
+  </si>
+  <si>
+    <t>Serves two purposes: (i) Provide a  comfortable R interface to query the Google server for static  maps, and (ii) Use the map as a background image to overlay  plots within R. This requires proper coordinate scaling.</t>
+  </si>
+  <si>
+    <t>Sankey plots are a type of diagram that is convenient to illustrate how flow of information, resources etc. separates and joins, much like observing how rivers split and merge. For example, they can be used to compare different clusterings.</t>
+  </si>
+  <si>
+    <t>Provides an interface to the 'Mapzen' API for geographic search  and geocoding, isochrone calculation, and vector data to draw map tiles.  See &lt;https://mapzen.com/documentation/&gt; for more information.</t>
+  </si>
+  <si>
+    <t>Provides an interface between R and 'PostGIS'-enabled 'PostgreSQL' databases to transparently transfer spatial data. Both vector (points, lines, polygons) and raster data are supported in read and write modes. Also provides convenience functions to execute common procedures in 'PostgreSQL/PostGIS'.</t>
+  </si>
+  <si>
+    <t>Vector Graphics devices for 'SVG', 'DrawingML' for Microsoft Word, PowerPoint and Excel. Functions extending package 'officer' are provided to embed 'DrawingML' graphics into 'Microsoft PowerPoint' documents.</t>
+  </si>
+  <si>
+    <t>Create 'roxygen2' skeleton populated with information scraped from the   within the function script. Also creates field entries for imports in the   'DESCRIPTION' and import in the 'NAMESPACE' files. Can be run from the R   console or through the 'RStudio' 'addin' menu.</t>
+  </si>
+  <si>
+    <t>Creates images that are the proper size for social media. Beautiful plots, charts and graphs wither and die if they are not shared. Social media  is perfect for this but every platform has its own image dimensions. With  'smpic' you can easily save your plots with the exact dimensions needed for  the different platforms.</t>
+  </si>
+  <si>
+    <t>R interface to Apache Spark, a fast and general engine for big data processing, see &lt;http://spark.apache.org&gt;. This package supports connecting to local and remote Apache Spark clusters, provides a 'dplyr' compatible back-end, and provides an interface to Spark's built-in machine learning algorithms.</t>
+  </si>
+  <si>
+    <t>Create interactive 3D scatter plots, network plots, and globes using the 'three.js' visualization library (&lt;https://threejs.org&gt;).</t>
+  </si>
+  <si>
+    <t>Provides an R interface to the 'vis.js' JavaScript charting library. It allows an interactive visualization of networks.</t>
+  </si>
+  <si>
+    <t>Extends the S3 generic function knit_print() in 'knitr' to automatically print some objects using an appropriate format such as Markdown or LaTeX. For example, data frames are automatically printed as tables, and the help() pages can also be rendered in 'knitr' documents.</t>
   </si>
 </sst>
 </file>
@@ -3350,12 +2305,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3657,15 +2615,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="A352" sqref="A352:B352"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="29.140625" style="1"/>
-    <col min="4" max="4" width="29.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="29.140625" style="1"/>
+    <col min="1" max="1" width="29.140625" style="1"/>
+    <col min="2" max="2" width="156.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="29.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3681,711 +2640,711 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>129</v>
+        <v>80</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>148</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>158</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>198</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>208</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>228</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>238</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>247</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>275</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>283</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>290</v>
+        <v>194</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>291</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>299</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>306</v>
+        <v>203</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>307</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>314</v>
+        <v>209</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>315</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>323</v>
+        <v>546</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>330</v>
+        <v>219</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>331</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>338</v>
+        <v>223</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>339</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>347</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>354</v>
+        <v>233</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>355</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>362</v>
+        <v>237</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>363</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>370</v>
+        <v>242</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>371</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>378</v>
+        <v>248</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>379</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>386</v>
+        <v>252</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>387</v>
+        <v>551</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>394</v>
+        <v>256</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>395</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>402</v>
+        <v>261</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>403</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>410</v>
+        <v>265</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>411</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>418</v>
+        <v>270</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>419</v>
+        <v>555</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>426</v>
+        <v>274</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>427</v>
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>431</v>
+        <v>277</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>432</v>
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>439</v>
+        <v>281</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>440</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>447</v>
+        <v>286</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>448</v>
+        <v>558</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>455</v>
+        <v>290</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>456</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>463</v>
+        <v>295</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>464</v>
+        <v>559</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>471</v>
+        <v>299</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>472</v>
+        <v>560</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>477</v>
+        <v>303</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>478</v>
+        <v>561</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>485</v>
+        <v>307</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>486</v>
+        <v>562</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>493</v>
+        <v>313</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>494</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>501</v>
+        <v>319</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>509</v>
+        <v>323</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>510</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>517</v>
+        <v>328</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>525</v>
+        <v>333</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>533</v>
+        <v>337</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>534</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>540</v>
+        <v>343</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>548</v>
+        <v>348</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>556</v>
+        <v>355</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>564</v>
+        <v>360</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>572</v>
+        <v>364</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>580</v>
+        <v>368</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>586</v>
+        <v>371</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>594</v>
+        <v>376</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>595</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>602</v>
+        <v>383</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>603</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>608</v>
+        <v>388</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>609</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>614</v>
+        <v>392</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>615</v>
+        <v>572</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>620</v>
+        <v>395</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>621</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>626</v>
+        <v>399</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>627</v>
+        <v>574</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>632</v>
+        <v>403</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>633</v>
+        <v>575</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>638</v>
+        <v>406</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>639</v>
+        <v>576</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>644</v>
+        <v>410</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>645</v>
+        <v>577</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>650</v>
+        <v>414</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>651</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>656</v>
+        <v>419</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>657</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>662</v>
+        <v>423</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>663</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>668</v>
+        <v>428</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>669</v>
+        <v>429</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>674</v>
+        <v>433</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>675</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>680</v>
+        <v>439</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>681</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>686</v>
+        <v>444</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>687</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>692</v>
+        <v>450</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>693</v>
+        <v>451</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>692</v>
+        <v>450</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>693</v>
+        <v>451</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>702</v>
+        <v>457</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>703</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>708</v>
+        <v>463</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>709</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>714</v>
+        <v>468</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>715</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4398,559 +3357,562 @@
     </row>
     <row r="92" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>13</v>
+        <v>508</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>31</v>
+        <v>578</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>41</v>
+        <v>579</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>51</v>
+        <v>580</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>61</v>
+        <v>581</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>71</v>
+        <v>582</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>81</v>
+        <v>583</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>91</v>
+        <v>584</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>101</v>
+        <v>585</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>121</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>131</v>
+        <v>587</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>150</v>
+        <v>588</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>160</v>
+        <v>589</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>170</v>
+        <v>590</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>180</v>
+        <v>591</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>200</v>
+        <v>592</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>210</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>220</v>
+        <v>509</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>230</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>240</v>
+        <v>593</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>249</v>
+        <v>594</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>259</v>
+        <v>595</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>269</v>
+        <v>596</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>277</v>
+        <v>597</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>284</v>
+        <v>189</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>285</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>292</v>
+        <v>195</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>293</v>
+        <v>598</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>301</v>
+        <v>599</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>309</v>
+        <v>206</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>316</v>
+        <v>210</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>317</v>
+        <v>600</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>325</v>
+        <v>601</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>332</v>
+        <v>220</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>333</v>
+        <v>602</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>341</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>348</v>
+        <v>229</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>349</v>
+        <v>603</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>356</v>
+        <v>234</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>357</v>
+        <v>604</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>364</v>
+        <v>239</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>365</v>
+        <v>605</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>372</v>
+        <v>243</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>373</v>
+        <v>606</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>380</v>
+        <v>249</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>381</v>
+        <v>607</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>388</v>
+        <v>253</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>389</v>
+        <v>608</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>396</v>
+        <v>257</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>397</v>
+        <v>609</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>404</v>
+        <v>262</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>405</v>
+        <v>610</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>412</v>
+        <v>266</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>413</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>420</v>
+        <v>271</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>421</v>
+        <v>611</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>428</v>
+        <v>275</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>429</v>
+        <v>612</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>433</v>
+        <v>278</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>434</v>
+        <v>613</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>441</v>
+        <v>283</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>442</v>
+        <v>614</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>449</v>
+        <v>287</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>450</v>
+        <v>615</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>457</v>
+        <v>292</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>458</v>
+        <v>616</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>465</v>
+        <v>296</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>466</v>
+        <v>617</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>474</v>
+        <v>301</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>479</v>
+        <v>304</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>480</v>
+        <v>618</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>487</v>
+        <v>308</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>488</v>
+        <v>619</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>495</v>
+        <v>315</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>496</v>
+        <v>620</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>503</v>
+        <v>320</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>504</v>
+        <v>621</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>511</v>
+        <v>325</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>512</v>
+        <v>622</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>519</v>
+        <v>329</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>520</v>
+        <v>623</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>527</v>
+        <v>334</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>528</v>
+        <v>624</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>535</v>
+        <v>338</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>542</v>
+        <v>344</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>543</v>
+        <v>625</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>550</v>
+        <v>349</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>551</v>
+        <v>350</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>558</v>
+        <v>356</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>559</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>566</v>
+        <v>361</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>567</v>
+        <v>626</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>574</v>
+        <v>365</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>575</v>
+        <v>627</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>582</v>
+        <v>369</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>583</v>
+        <v>628</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>740</v>
+        <v>488</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>741</v>
+        <v>489</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>588</v>
+        <v>372</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>589</v>
+        <v>373</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>596</v>
+        <v>378</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>597</v>
+        <v>379</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4963,722 +3925,722 @@
     </row>
     <row r="163" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>15</v>
+        <v>629</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>23</v>
+        <v>630</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>43</v>
+        <v>631</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>53</v>
+        <v>632</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>63</v>
+        <v>633</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>83</v>
+        <v>510</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>93</v>
+        <v>634</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>103</v>
+        <v>635</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>113</v>
+        <v>511</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>123</v>
+        <v>636</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>133</v>
+        <v>512</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>142</v>
+        <v>637</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>152</v>
+        <v>638</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>172</v>
+        <v>513</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>182</v>
+        <v>514</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>192</v>
+        <v>639</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>202</v>
+        <v>640</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>212</v>
+        <v>641</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>222</v>
+        <v>515</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>232</v>
+        <v>642</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>242</v>
+        <v>643</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>251</v>
+        <v>644</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>261</v>
+        <v>496</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>271</v>
+        <v>645</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>279</v>
+        <v>646</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>286</v>
+        <v>191</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>287</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>294</v>
+        <v>196</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>295</v>
+        <v>647</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>303</v>
+        <v>648</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>310</v>
+        <v>207</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>311</v>
+        <v>649</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>318</v>
+        <v>211</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>319</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>326</v>
+        <v>217</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>327</v>
+        <v>650</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>334</v>
+        <v>221</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>335</v>
+        <v>651</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>343</v>
+        <v>652</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>351</v>
+        <v>653</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>358</v>
+        <v>235</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>359</v>
+        <v>654</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>366</v>
+        <v>240</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>367</v>
+        <v>655</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>374</v>
+        <v>244</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>375</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>382</v>
+        <v>250</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>383</v>
+        <v>656</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>390</v>
+        <v>254</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>391</v>
+        <v>657</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>398</v>
+        <v>258</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>399</v>
+        <v>497</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>406</v>
+        <v>263</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>407</v>
+        <v>658</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>414</v>
+        <v>268</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>415</v>
+        <v>516</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>422</v>
+        <v>272</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>423</v>
+        <v>659</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>430</v>
+        <v>276</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>744</v>
+        <v>660</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>435</v>
+        <v>279</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>436</v>
+        <v>661</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>443</v>
+        <v>284</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>444</v>
+        <v>662</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>451</v>
+        <v>288</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>452</v>
+        <v>663</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>459</v>
+        <v>293</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>460</v>
+        <v>664</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>467</v>
+        <v>297</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>468</v>
+        <v>665</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>481</v>
+        <v>305</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>482</v>
+        <v>666</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>489</v>
+        <v>309</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>490</v>
+        <v>310</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>497</v>
+        <v>316</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>498</v>
+        <v>317</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>505</v>
+        <v>321</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>513</v>
+        <v>326</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>514</v>
+        <v>667</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>521</v>
+        <v>330</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>522</v>
+        <v>668</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>529</v>
+        <v>335</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>530</v>
+        <v>669</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>536</v>
+        <v>339</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>537</v>
+        <v>340</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>544</v>
+        <v>345</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>545</v>
+        <v>670</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>552</v>
+        <v>351</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>553</v>
+        <v>352</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>560</v>
+        <v>358</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>561</v>
+        <v>671</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>568</v>
+        <v>362</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>569</v>
+        <v>672</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>576</v>
+        <v>366</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>577</v>
+        <v>673</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>584</v>
+        <v>370</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>585</v>
+        <v>518</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>590</v>
+        <v>374</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>591</v>
+        <v>674</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>598</v>
+        <v>380</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>599</v>
+        <v>675</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>604</v>
+        <v>385</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>605</v>
+        <v>676</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>610</v>
+        <v>389</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>611</v>
+        <v>677</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>616</v>
+        <v>393</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>617</v>
+        <v>519</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>622</v>
+        <v>396</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>623</v>
+        <v>678</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>628</v>
+        <v>400</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>629</v>
+        <v>679</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>634</v>
+        <v>404</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>635</v>
+        <v>680</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>640</v>
+        <v>407</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>646</v>
+        <v>411</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>647</v>
+        <v>682</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>652</v>
+        <v>416</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>653</v>
+        <v>417</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>658</v>
+        <v>421</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>664</v>
+        <v>425</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>665</v>
+        <v>426</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>670</v>
+        <v>430</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>671</v>
+        <v>431</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>676</v>
+        <v>435</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>677</v>
+        <v>436</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>682</v>
+        <v>441</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>683</v>
+        <v>442</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>688</v>
+        <v>446</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>689</v>
+        <v>447</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>694</v>
+        <v>452</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>698</v>
+        <v>454</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>704</v>
+        <v>459</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>705</v>
+        <v>460</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>710</v>
+        <v>465</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>716</v>
+        <v>470</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>717</v>
+        <v>471</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>720</v>
+        <v>473</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>721</v>
+        <v>474</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5691,786 +4653,786 @@
     </row>
     <row r="254" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>17</v>
+        <v>687</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>25</v>
+        <v>688</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>35</v>
+        <v>689</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>45</v>
+        <v>690</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>55</v>
+        <v>691</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>65</v>
+        <v>692</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>75</v>
+        <v>693</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>85</v>
+        <v>694</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>105</v>
+        <v>498</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>115</v>
+        <v>695</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>125</v>
+        <v>696</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>174</v>
+        <v>697</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>184</v>
+        <v>698</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>194</v>
+        <v>699</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>204</v>
+        <v>700</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>214</v>
+        <v>701</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>224</v>
+        <v>149</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>234</v>
+        <v>702</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>244</v>
+        <v>703</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>263</v>
+        <v>704</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>273</v>
+        <v>183</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>281</v>
+        <v>705</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>288</v>
+        <v>193</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>289</v>
+        <v>706</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>297</v>
+        <v>197</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>304</v>
+        <v>202</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>305</v>
+        <v>708</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>313</v>
+        <v>709</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>320</v>
+        <v>213</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>321</v>
+        <v>214</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>328</v>
+        <v>218</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>329</v>
+        <v>710</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>336</v>
+        <v>222</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>337</v>
+        <v>711</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>344</v>
+        <v>227</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>345</v>
+        <v>712</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>353</v>
+        <v>232</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>360</v>
+        <v>236</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>361</v>
+        <v>713</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>368</v>
+        <v>241</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>369</v>
+        <v>714</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>376</v>
+        <v>246</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>377</v>
+        <v>247</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>742</v>
+        <v>490</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>743</v>
+        <v>491</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>384</v>
+        <v>251</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>385</v>
+        <v>715</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>392</v>
+        <v>255</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>393</v>
+        <v>716</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>400</v>
+        <v>259</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>401</v>
+        <v>260</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>408</v>
+        <v>264</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>409</v>
+        <v>717</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>416</v>
+        <v>269</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>417</v>
+        <v>718</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>424</v>
+        <v>273</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>425</v>
+        <v>719</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>37</v>
+        <v>720</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>437</v>
+        <v>280</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>438</v>
+        <v>721</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>445</v>
+        <v>285</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>446</v>
+        <v>722</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>453</v>
+        <v>289</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>454</v>
+        <v>723</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>461</v>
+        <v>294</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>469</v>
+        <v>298</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>470</v>
+        <v>724</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>475</v>
+        <v>302</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>476</v>
+        <v>725</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>483</v>
+        <v>306</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>484</v>
+        <v>726</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>491</v>
+        <v>311</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>492</v>
+        <v>312</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>499</v>
+        <v>318</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>500</v>
+        <v>727</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>507</v>
+        <v>322</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>515</v>
+        <v>327</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>516</v>
+        <v>728</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>523</v>
+        <v>331</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>524</v>
+        <v>332</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>531</v>
+        <v>336</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>532</v>
+        <v>729</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>538</v>
+        <v>341</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>539</v>
+        <v>342</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>546</v>
+        <v>346</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>547</v>
+        <v>347</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>554</v>
+        <v>353</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>555</v>
+        <v>354</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>562</v>
+        <v>359</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>563</v>
+        <v>730</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>570</v>
+        <v>363</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>571</v>
+        <v>521</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>578</v>
+        <v>367</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>579</v>
+        <v>731</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>592</v>
+        <v>375</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>593</v>
+        <v>500</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>600</v>
+        <v>381</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>601</v>
+        <v>382</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>606</v>
+        <v>386</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>607</v>
+        <v>387</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>612</v>
+        <v>390</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>613</v>
+        <v>391</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>618</v>
+        <v>394</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>619</v>
+        <v>732</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>624</v>
+        <v>397</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>625</v>
+        <v>398</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>630</v>
+        <v>401</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>631</v>
+        <v>402</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>636</v>
+        <v>405</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>637</v>
+        <v>733</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>642</v>
+        <v>408</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>643</v>
+        <v>409</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>648</v>
+        <v>412</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>649</v>
+        <v>413</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>654</v>
+        <v>418</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>660</v>
+        <v>422</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>661</v>
+        <v>735</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>666</v>
+        <v>427</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>667</v>
+        <v>736</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>672</v>
+        <v>432</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>673</v>
+        <v>737</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>678</v>
+        <v>437</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>679</v>
+        <v>438</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>684</v>
+        <v>443</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>685</v>
+        <v>738</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>690</v>
+        <v>448</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>691</v>
+        <v>449</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>696</v>
+        <v>453</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>697</v>
+        <v>739</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>700</v>
+        <v>455</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>701</v>
+        <v>456</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>706</v>
+        <v>461</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>707</v>
+        <v>462</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>712</v>
+        <v>466</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>713</v>
+        <v>467</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>718</v>
+        <v>472</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>107</v>
+        <v>741</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>722</v>
+        <v>475</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>723</v>
+        <v>522</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>724</v>
+        <v>476</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>726</v>
+        <v>477</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>727</v>
+        <v>501</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>728</v>
+        <v>478</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>729</v>
+        <v>743</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>730</v>
+        <v>479</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>731</v>
+        <v>480</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>732</v>
+        <v>481</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>733</v>
+        <v>482</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>734</v>
+        <v>483</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6483,226 +5445,226 @@
     </row>
     <row r="353" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>37</v>
+        <v>720</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>57</v>
+        <v>523</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>77</v>
+        <v>745</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>97</v>
+        <v>524</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>107</v>
+        <v>741</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>226</v>
+        <v>151</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>245</v>
+        <v>163</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>265</v>
+        <v>177</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>738</v>
+        <v>486</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>739</v>
+        <v>487</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>736</v>
+        <v>484</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>737</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/all_packages.xlsx
+++ b/all_packages.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tidyviz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docker\tidyviz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="745">
   <si>
     <t>Base</t>
   </si>
@@ -493,9 +493,6 @@
   </si>
   <si>
     <t>edgararuiz/dbplot</t>
-  </si>
-  <si>
-    <t>Extending broom to time series forecasting</t>
   </si>
   <si>
     <t>gistr</t>
@@ -2613,16 +2610,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:B378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="B380" sqref="B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" style="1"/>
-    <col min="2" max="2" width="156.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="238.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.140625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="29.140625" style="1"/>
   </cols>
@@ -2640,7 +2637,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2648,7 +2645,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2656,7 +2653,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2664,7 +2661,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2672,7 +2669,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2680,7 +2677,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2688,7 +2685,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2696,7 +2693,7 @@
         <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2704,7 +2701,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2712,7 +2709,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2720,7 +2717,7 @@
         <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2728,7 +2725,7 @@
         <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2736,7 +2733,7 @@
         <v>80</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2752,7 +2749,7 @@
         <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2760,7 +2757,7 @@
         <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2792,7 +2789,7 @@
         <v>132</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2800,7 +2797,7 @@
         <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2816,564 +2813,564 @@
         <v>152</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>469</v>
+      <c r="A90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>3</v>
+      <c r="A91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>15</v>
+        <v>577</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>578</v>
@@ -3381,7 +3378,7 @@
     </row>
     <row r="95" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>579</v>
@@ -3389,7 +3386,7 @@
     </row>
     <row r="96" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>580</v>
@@ -3397,7 +3394,7 @@
     </row>
     <row r="97" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>581</v>
@@ -3405,7 +3402,7 @@
     </row>
     <row r="98" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>582</v>
@@ -3413,7 +3410,7 @@
     </row>
     <row r="99" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>583</v>
@@ -3421,7 +3418,7 @@
     </row>
     <row r="100" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>584</v>
@@ -3429,23 +3426,23 @@
     </row>
     <row r="101" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>585</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>69</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>586</v>
@@ -3453,23 +3450,23 @@
     </row>
     <row r="104" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>587</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>89</v>
+        <v>587</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>588</v>
@@ -3477,7 +3474,7 @@
     </row>
     <row r="107" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>589</v>
@@ -3485,7 +3482,7 @@
     </row>
     <row r="108" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>590</v>
@@ -3493,55 +3490,55 @@
     </row>
     <row r="109" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>591</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>127</v>
+        <v>591</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>592</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>509</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>154</v>
+        <v>592</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>593</v>
@@ -3549,7 +3546,7 @@
     </row>
     <row r="116" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>594</v>
@@ -3557,7 +3554,7 @@
     </row>
     <row r="117" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>595</v>
@@ -3565,7 +3562,7 @@
     </row>
     <row r="118" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>596</v>
@@ -3573,23 +3570,23 @@
     </row>
     <row r="119" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>597</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>190</v>
+        <v>597</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>598</v>
@@ -3597,23 +3594,23 @@
     </row>
     <row r="122" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>599</v>
+        <v>205</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>206</v>
+        <v>599</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>600</v>
@@ -3621,7 +3618,7 @@
     </row>
     <row r="125" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>601</v>
@@ -3629,23 +3626,23 @@
     </row>
     <row r="126" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>602</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>225</v>
+        <v>602</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>603</v>
@@ -3653,7 +3650,7 @@
     </row>
     <row r="129" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>604</v>
@@ -3661,7 +3658,7 @@
     </row>
     <row r="130" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>605</v>
@@ -3669,7 +3666,7 @@
     </row>
     <row r="131" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>606</v>
@@ -3677,7 +3674,7 @@
     </row>
     <row r="132" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>607</v>
@@ -3685,7 +3682,7 @@
     </row>
     <row r="133" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>608</v>
@@ -3693,7 +3690,7 @@
     </row>
     <row r="134" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>609</v>
@@ -3701,23 +3698,23 @@
     </row>
     <row r="135" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>610</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>267</v>
+        <v>610</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>611</v>
@@ -3725,7 +3722,7 @@
     </row>
     <row r="138" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>612</v>
@@ -3733,7 +3730,7 @@
     </row>
     <row r="139" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>613</v>
@@ -3741,7 +3738,7 @@
     </row>
     <row r="140" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>614</v>
@@ -3749,7 +3746,7 @@
     </row>
     <row r="141" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>615</v>
@@ -3757,7 +3754,7 @@
     </row>
     <row r="142" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>616</v>
@@ -3765,23 +3762,23 @@
     </row>
     <row r="143" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>617</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>301</v>
+        <v>617</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>618</v>
@@ -3789,7 +3786,7 @@
     </row>
     <row r="146" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>619</v>
@@ -3797,7 +3794,7 @@
     </row>
     <row r="147" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>620</v>
@@ -3805,7 +3802,7 @@
     </row>
     <row r="148" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>621</v>
@@ -3813,7 +3810,7 @@
     </row>
     <row r="149" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>622</v>
@@ -3821,7 +3818,7 @@
     </row>
     <row r="150" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>623</v>
@@ -3829,47 +3826,47 @@
     </row>
     <row r="151" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>624</v>
+        <v>494</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>495</v>
+        <v>624</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>625</v>
+        <v>349</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>357</v>
+        <v>625</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>626</v>
@@ -3877,7 +3874,7 @@
     </row>
     <row r="157" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>627</v>
@@ -3885,47 +3882,47 @@
     </row>
     <row r="158" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>369</v>
+        <v>487</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>628</v>
+        <v>488</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>488</v>
+        <v>371</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>489</v>
+        <v>372</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>379</v>
+      <c r="A161" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>5</v>
+      <c r="A162" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>629</v>
@@ -3933,23 +3930,23 @@
     </row>
     <row r="164" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>630</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>24</v>
+        <v>630</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>631</v>
@@ -3957,7 +3954,7 @@
     </row>
     <row r="167" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>632</v>
@@ -3965,31 +3962,31 @@
     </row>
     <row r="168" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>633</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>47</v>
+        <v>509</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>510</v>
+        <v>633</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>634</v>
@@ -3997,39 +3994,39 @@
     </row>
     <row r="172" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>635</v>
+        <v>510</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>511</v>
+        <v>635</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>636</v>
+        <v>511</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>512</v>
+        <v>636</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>637</v>
@@ -4037,23 +4034,23 @@
     </row>
     <row r="177" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>638</v>
+        <v>105</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>105</v>
+        <v>512</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>513</v>
@@ -4061,15 +4058,15 @@
     </row>
     <row r="180" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>514</v>
+        <v>638</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>639</v>
@@ -4077,7 +4074,7 @@
     </row>
     <row r="182" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>640</v>
@@ -4085,23 +4082,23 @@
     </row>
     <row r="183" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>641</v>
+        <v>514</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>515</v>
+        <v>641</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>642</v>
@@ -4109,7 +4106,7 @@
     </row>
     <row r="186" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>643</v>
@@ -4117,23 +4114,23 @@
     </row>
     <row r="187" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>644</v>
+        <v>495</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>496</v>
+        <v>644</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>645</v>
@@ -4141,23 +4138,23 @@
     </row>
     <row r="190" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>646</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>192</v>
+        <v>646</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>647</v>
@@ -4165,7 +4162,7 @@
     </row>
     <row r="193" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>648</v>
@@ -4173,23 +4170,23 @@
     </row>
     <row r="194" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>649</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>212</v>
+        <v>649</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>650</v>
@@ -4197,7 +4194,7 @@
     </row>
     <row r="197" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>651</v>
@@ -4205,7 +4202,7 @@
     </row>
     <row r="198" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>652</v>
@@ -4213,7 +4210,7 @@
     </row>
     <row r="199" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>653</v>
@@ -4221,7 +4218,7 @@
     </row>
     <row r="200" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>654</v>
@@ -4229,23 +4226,23 @@
     </row>
     <row r="201" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>655</v>
+        <v>244</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>245</v>
+        <v>655</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>656</v>
@@ -4253,39 +4250,39 @@
     </row>
     <row r="204" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>657</v>
+        <v>496</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>497</v>
+        <v>657</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>658</v>
+        <v>515</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>516</v>
+        <v>658</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>659</v>
@@ -4293,7 +4290,7 @@
     </row>
     <row r="209" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>660</v>
@@ -4301,7 +4298,7 @@
     </row>
     <row r="210" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>661</v>
@@ -4309,7 +4306,7 @@
     </row>
     <row r="211" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>662</v>
@@ -4317,7 +4314,7 @@
     </row>
     <row r="212" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>663</v>
@@ -4325,7 +4322,7 @@
     </row>
     <row r="213" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>664</v>
@@ -4333,55 +4330,55 @@
     </row>
     <row r="214" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>297</v>
+        <v>54</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>665</v>
+        <v>55</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>55</v>
+        <v>665</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>666</v>
+        <v>309</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>317</v>
+        <v>516</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>517</v>
+        <v>666</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>667</v>
@@ -4389,7 +4386,7 @@
     </row>
     <row r="221" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>668</v>
@@ -4397,39 +4394,39 @@
     </row>
     <row r="222" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>669</v>
+        <v>339</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>340</v>
+        <v>669</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>670</v>
+        <v>351</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>352</v>
+        <v>670</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>671</v>
@@ -4437,7 +4434,7 @@
     </row>
     <row r="227" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>672</v>
@@ -4445,23 +4442,23 @@
     </row>
     <row r="228" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>673</v>
+        <v>517</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>518</v>
+        <v>673</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>674</v>
@@ -4469,7 +4466,7 @@
     </row>
     <row r="231" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>675</v>
@@ -4477,7 +4474,7 @@
     </row>
     <row r="232" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>676</v>
@@ -4485,23 +4482,23 @@
     </row>
     <row r="233" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>677</v>
+        <v>518</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>519</v>
+        <v>677</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>678</v>
@@ -4509,7 +4506,7 @@
     </row>
     <row r="236" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>679</v>
@@ -4517,7 +4514,7 @@
     </row>
     <row r="237" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>680</v>
@@ -4525,7 +4522,7 @@
     </row>
     <row r="238" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>681</v>
@@ -4533,71 +4530,71 @@
     </row>
     <row r="239" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>682</v>
+        <v>416</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>417</v>
+        <v>682</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>683</v>
+        <v>425</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>447</v>
+        <v>683</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>684</v>
@@ -4605,55 +4602,55 @@
     </row>
     <row r="248" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>685</v>
+        <v>459</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>460</v>
+        <v>685</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>686</v>
+        <v>470</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>474</v>
+      <c r="A252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>7</v>
+      <c r="A253" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>687</v>
@@ -4661,7 +4658,7 @@
     </row>
     <row r="255" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>688</v>
@@ -4669,7 +4666,7 @@
     </row>
     <row r="256" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>689</v>
@@ -4677,7 +4674,7 @@
     </row>
     <row r="257" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>690</v>
@@ -4685,7 +4682,7 @@
     </row>
     <row r="258" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>691</v>
@@ -4693,7 +4690,7 @@
     </row>
     <row r="259" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>692</v>
@@ -4701,7 +4698,7 @@
     </row>
     <row r="260" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>693</v>
@@ -4709,31 +4706,31 @@
     </row>
     <row r="261" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>694</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>60</v>
+        <v>497</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>498</v>
+        <v>694</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>695</v>
@@ -4741,47 +4738,47 @@
     </row>
     <row r="265" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>696</v>
+        <v>84</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>107</v>
+        <v>696</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>697</v>
@@ -4789,7 +4786,7 @@
     </row>
     <row r="271" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>698</v>
@@ -4797,7 +4794,7 @@
     </row>
     <row r="272" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>699</v>
@@ -4805,7 +4802,7 @@
     </row>
     <row r="273" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>700</v>
@@ -4813,23 +4810,23 @@
     </row>
     <row r="274" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>701</v>
+        <v>149</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>149</v>
+        <v>701</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>702</v>
@@ -4837,39 +4834,39 @@
     </row>
     <row r="277" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>703</v>
+        <v>167</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>168</v>
+        <v>703</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>704</v>
+        <v>182</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>183</v>
+        <v>704</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>705</v>
@@ -4877,23 +4874,23 @@
     </row>
     <row r="282" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B282" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B282" s="3" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B283" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>708</v>
@@ -4901,23 +4898,23 @@
     </row>
     <row r="285" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>709</v>
+        <v>213</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>214</v>
+        <v>709</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>710</v>
@@ -4925,7 +4922,7 @@
     </row>
     <row r="288" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>711</v>
@@ -4933,23 +4930,23 @@
     </row>
     <row r="289" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>712</v>
+        <v>231</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>232</v>
+        <v>712</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>713</v>
@@ -4957,31 +4954,31 @@
     </row>
     <row r="292" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>714</v>
+        <v>246</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>246</v>
+        <v>489</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>247</v>
+        <v>490</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>491</v>
+        <v>714</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>715</v>
@@ -4989,23 +4986,23 @@
     </row>
     <row r="296" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>716</v>
+        <v>259</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>260</v>
+        <v>716</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>717</v>
@@ -5013,7 +5010,7 @@
     </row>
     <row r="299" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>718</v>
@@ -5021,7 +5018,7 @@
     </row>
     <row r="300" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>273</v>
+        <v>26</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>719</v>
@@ -5029,7 +5026,7 @@
     </row>
     <row r="301" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>26</v>
+        <v>279</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>720</v>
@@ -5037,7 +5034,7 @@
     </row>
     <row r="302" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>721</v>
@@ -5045,7 +5042,7 @@
     </row>
     <row r="303" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>722</v>
@@ -5053,23 +5050,23 @@
     </row>
     <row r="304" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>723</v>
+        <v>519</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>520</v>
+        <v>723</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>724</v>
@@ -5077,7 +5074,7 @@
     </row>
     <row r="307" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>725</v>
@@ -5085,199 +5082,199 @@
     </row>
     <row r="308" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>726</v>
+        <v>311</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>312</v>
+        <v>726</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>727</v>
+        <v>498</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>499</v>
+        <v>727</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>728</v>
+        <v>331</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>332</v>
+        <v>728</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>729</v>
+        <v>341</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>354</v>
+        <v>729</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>730</v>
+        <v>520</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>521</v>
+        <v>730</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>367</v>
+        <v>42</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>731</v>
+        <v>43</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>42</v>
+        <v>374</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>43</v>
+        <v>499</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>500</v>
+        <v>381</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>391</v>
+        <v>731</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>732</v>
+        <v>397</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>402</v>
+        <v>732</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>733</v>
+        <v>408</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>413</v>
+        <v>733</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>734</v>
@@ -5285,7 +5282,7 @@
     </row>
     <row r="333" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>735</v>
@@ -5293,7 +5290,7 @@
     </row>
     <row r="334" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>736</v>
@@ -5301,71 +5298,71 @@
     </row>
     <row r="335" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>737</v>
+        <v>437</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>438</v>
+        <v>737</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>738</v>
+        <v>448</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>449</v>
+        <v>738</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>739</v>
+        <v>455</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>467</v>
+        <v>739</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>472</v>
+        <v>66</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>740</v>
@@ -5373,10 +5370,10 @@
     </row>
     <row r="344" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>66</v>
+        <v>474</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>741</v>
+        <v>521</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5384,7 +5381,7 @@
         <v>475</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>522</v>
+        <v>741</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5392,7 +5389,7 @@
         <v>476</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>742</v>
+        <v>500</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5400,7 +5397,7 @@
         <v>477</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>501</v>
+        <v>742</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5408,263 +5405,247 @@
         <v>478</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>743</v>
+        <v>479</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>482</v>
+        <v>743</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>744</v>
+      <c r="A351" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>9</v>
+      <c r="A352" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>20</v>
+        <v>719</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>720</v>
+        <v>32</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>32</v>
+        <v>522</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>523</v>
+        <v>43</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>43</v>
+        <v>744</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>745</v>
+        <v>55</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>55</v>
+        <v>523</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>524</v>
+        <v>740</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>741</v>
+        <v>73</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>169</v>
+        <v>485</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>170</v>
+        <v>486</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>176</v>
+        <v>483</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/all_packages.xlsx
+++ b/all_packages.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docker\tidyviz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kschool\tidyviz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="768">
   <si>
     <t>Base</t>
   </si>
@@ -2254,13 +2254,173 @@
   </si>
   <si>
     <t>Extends the S3 generic function knit_print() in 'knitr' to automatically print some objects using an appropriate format such as Markdown or LaTeX. For example, data frames are automatically printed as tables, and the help() pages can also be rendered in 'knitr' documents.</t>
+  </si>
+  <si>
+    <t>The goal of patchwork is to make it ridiculously simple to combine separate ggplots into the same graphic. As such it tries to solve the same problem as gridExtra::grid.arrange() and cowplot::plot_grid but using an API that incites exploration and iteration.</t>
+  </si>
+  <si>
+    <t>thomasp85/patchwork</t>
+  </si>
+  <si>
+    <t>Align the assignment operators (either &lt;- or =) within a highlighted area.</t>
+  </si>
+  <si>
+    <t>seasmith/AlignAssign</t>
+  </si>
+  <si>
+    <r>
+      <t>rsample</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t> contains a set of functions that can create different types of resamples and corresponding classes for their analysis. </t>
+    </r>
+  </si>
+  <si>
+    <t>archivist</t>
+  </si>
+  <si>
+    <t>Tools for Storing, Restoring and Searching for R Objects</t>
+  </si>
+  <si>
+    <r>
+      <t>tjmahr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>WrapRmd</t>
+    </r>
+  </si>
+  <si>
+    <t>RStudio addin for wrapping RMarkdown paragraphs</t>
+  </si>
+  <si>
+    <t>baptiste/egg</t>
+  </si>
+  <si>
+    <t>(fragile) extensions for ggplot2</t>
+  </si>
+  <si>
+    <t>AliciaSchep/gglabeler</t>
+  </si>
+  <si>
+    <t>Shiny gadget for labeling points on ggplot</t>
+  </si>
+  <si>
+    <t>ggalluvial</t>
+  </si>
+  <si>
+    <t>Alluvial Diagrams in 'ggplot2'</t>
+  </si>
+  <si>
+    <r>
+      <t>lorenzwalthert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>strcode</t>
+    </r>
+  </si>
+  <si>
+    <t>Structure your code better. </t>
+  </si>
+  <si>
+    <t>Ochre palettes</t>
+  </si>
+  <si>
+    <r>
+      <t>EdwinTh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>padr</t>
+    </r>
+  </si>
+  <si>
+    <t>ropenscilabs/ochRe</t>
+  </si>
+  <si>
+    <t>Padding of missing records in time series</t>
+  </si>
+  <si>
+    <r>
+      <t>fdavidcl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF586069"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0366D6"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>rutavis</t>
+    </r>
+  </si>
+  <si>
+    <t>An R package for visualization of unsupervised deep learning techniques.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2274,6 +2434,62 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF666666"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF586069"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0366D6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0366D6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA3BE8C"/>
+      <name val="Space Mono"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2298,11 +2514,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2313,9 +2530,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2610,13 +2845,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B378"/>
+  <dimension ref="A1:D390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="B380" sqref="B380"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="A377" sqref="A377"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.140625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29.140625" style="1"/>
     <col min="2" max="2" width="238.140625" style="1" customWidth="1"/>
@@ -2624,7 +2859,7 @@
     <col min="4" max="16384" width="29.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2632,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2640,7 +2875,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2648,7 +2883,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2656,7 +2891,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="17.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2664,7 +2899,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="17.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -2672,7 +2907,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="17.25" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -2680,7 +2915,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="17.25" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,7 +2923,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="17.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -2696,7 +2931,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="17.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -2704,7 +2939,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="17.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -2712,7 +2947,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="17.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -2720,7 +2955,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="17.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -2728,7 +2963,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="17.25" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -2736,7 +2971,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="17.25" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
@@ -2744,7 +2979,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="17.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>95</v>
       </c>
@@ -2752,7 +2987,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="17.25" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>102</v>
       </c>
@@ -2760,7 +2995,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="17.25" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
@@ -2768,7 +3003,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="17.25" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
@@ -2776,7 +3011,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="17.25" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>124</v>
       </c>
@@ -2784,7 +3019,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="17.25" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>132</v>
       </c>
@@ -2792,7 +3027,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="17.25" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>138</v>
       </c>
@@ -2800,7 +3035,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="17.25" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>144</v>
       </c>
@@ -2808,7 +3043,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="17.25" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>152</v>
       </c>
@@ -2816,7 +3051,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="17.25" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>158</v>
       </c>
@@ -2824,7 +3059,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="17.25" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>163</v>
       </c>
@@ -2832,7 +3067,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="17.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>170</v>
       </c>
@@ -2840,7 +3075,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="17.25" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>177</v>
       </c>
@@ -2848,7 +3083,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="17.25" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>183</v>
       </c>
@@ -2856,7 +3091,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="17.25" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>187</v>
       </c>
@@ -2864,7 +3099,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="17.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>193</v>
       </c>
@@ -2872,7 +3107,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="17.25" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>197</v>
       </c>
@@ -2880,7 +3115,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="17.25" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>202</v>
       </c>
@@ -2888,7 +3123,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="17.25" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>208</v>
       </c>
@@ -2896,7 +3131,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="17.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>214</v>
       </c>
@@ -2904,7 +3139,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="17.25" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>218</v>
       </c>
@@ -2912,7 +3147,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="17.25" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>222</v>
       </c>
@@ -2920,7 +3155,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="17.25" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>227</v>
       </c>
@@ -2928,7 +3163,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="17.25" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>232</v>
       </c>
@@ -2936,7 +3171,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="17.25" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>236</v>
       </c>
@@ -2944,7 +3179,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="17.25" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>241</v>
       </c>
@@ -2952,7 +3187,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="17.25" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>247</v>
       </c>
@@ -2960,7 +3195,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="17.25" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>251</v>
       </c>
@@ -2968,7 +3203,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="17.25" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>255</v>
       </c>
@@ -2976,7 +3211,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="17.25" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>260</v>
       </c>
@@ -2984,7 +3219,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="17.25" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>264</v>
       </c>
@@ -2992,7 +3227,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="17.25" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>269</v>
       </c>
@@ -3000,7 +3235,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="17.25" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>273</v>
       </c>
@@ -3008,7 +3243,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="17.25" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>276</v>
       </c>
@@ -3016,7 +3251,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="17.25" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>280</v>
       </c>
@@ -3024,7 +3259,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="17.25" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>285</v>
       </c>
@@ -3032,7 +3267,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="17.25" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>289</v>
       </c>
@@ -3040,7 +3275,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="17.25" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>294</v>
       </c>
@@ -3048,7 +3283,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="17.25" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>298</v>
       </c>
@@ -3056,7 +3291,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="17.25" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>302</v>
       </c>
@@ -3064,7 +3299,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="17.25" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>306</v>
       </c>
@@ -3072,7 +3307,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="17.25" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>312</v>
       </c>
@@ -3080,7 +3315,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="17.25" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>318</v>
       </c>
@@ -3088,7 +3323,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="17.25" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>322</v>
       </c>
@@ -3096,7 +3331,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="17.25" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>327</v>
       </c>
@@ -3104,7 +3339,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="17.25" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>332</v>
       </c>
@@ -3112,7 +3347,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="17.25" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>336</v>
       </c>
@@ -3120,7 +3355,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="17.25" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>342</v>
       </c>
@@ -3128,7 +3363,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="17.25" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>347</v>
       </c>
@@ -3136,7 +3371,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="17.25" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>354</v>
       </c>
@@ -3144,7 +3379,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="17.25" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>359</v>
       </c>
@@ -3152,7 +3387,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="17.25" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>363</v>
       </c>
@@ -3160,7 +3395,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="17.25" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>367</v>
       </c>
@@ -3168,7 +3403,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="17.25" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>370</v>
       </c>
@@ -3176,7 +3411,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="17.25" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>375</v>
       </c>
@@ -3184,7 +3419,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="17.25" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>382</v>
       </c>
@@ -3192,7 +3427,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="17.25" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>387</v>
       </c>
@@ -3200,7 +3435,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="17.25" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>391</v>
       </c>
@@ -3208,7 +3443,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="17.25" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>394</v>
       </c>
@@ -3216,7 +3451,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="17.25" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>398</v>
       </c>
@@ -3224,7 +3459,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="17.25" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>402</v>
       </c>
@@ -3232,7 +3467,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="17.25" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>405</v>
       </c>
@@ -3240,7 +3475,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="17.25" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>409</v>
       </c>
@@ -3248,7 +3483,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="17.25" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>413</v>
       </c>
@@ -3256,7 +3491,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="17.25" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>418</v>
       </c>
@@ -3264,7 +3499,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="17.25" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>422</v>
       </c>
@@ -3272,7 +3507,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="17.25" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>427</v>
       </c>
@@ -3280,7 +3515,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="17.25" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>432</v>
       </c>
@@ -3288,7 +3523,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="17.25" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>438</v>
       </c>
@@ -3296,7 +3531,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="17.25" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>443</v>
       </c>
@@ -3304,7 +3539,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="17.25" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>449</v>
       </c>
@@ -3312,7 +3547,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="17.25" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>456</v>
       </c>
@@ -3320,7 +3555,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="17.25" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>462</v>
       </c>
@@ -3328,7 +3563,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="17.25" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>467</v>
       </c>
@@ -3336,7 +3571,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="17.25" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>2</v>
       </c>
@@ -3344,7 +3579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="17.25" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
@@ -3352,7 +3587,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="17.25" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>14</v>
       </c>
@@ -3360,7 +3595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="17.25" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>22</v>
       </c>
@@ -3368,7 +3603,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="17.25" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
@@ -3376,7 +3611,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="17.25" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>34</v>
       </c>
@@ -3384,7 +3619,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="17.25" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>39</v>
       </c>
@@ -3392,7 +3627,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="17.25" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>45</v>
       </c>
@@ -3400,7 +3635,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="17.25" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>51</v>
       </c>
@@ -3408,7 +3643,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="17.25" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>57</v>
       </c>
@@ -3416,7 +3651,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="17.25" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,7 +3659,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="17.25" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>68</v>
       </c>
@@ -3432,7 +3667,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="17.25" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>75</v>
       </c>
@@ -3440,7 +3675,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="17.25" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>81</v>
       </c>
@@ -3448,7 +3683,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="17.25" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>88</v>
       </c>
@@ -3456,7 +3691,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="17.25" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>96</v>
       </c>
@@ -3464,7 +3699,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="17.25" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>103</v>
       </c>
@@ -3472,7 +3707,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="17.25" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>112</v>
       </c>
@@ -3480,7 +3715,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="17.25" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>119</v>
       </c>
@@ -3488,7 +3723,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="17.25" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>126</v>
       </c>
@@ -3496,7 +3731,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="17.25" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>133</v>
       </c>
@@ -3504,7 +3739,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="17.25" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>139</v>
       </c>
@@ -3512,7 +3747,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="17.25" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>146</v>
       </c>
@@ -3520,7 +3755,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="17.25" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>153</v>
       </c>
@@ -3528,7 +3763,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="17.25" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>159</v>
       </c>
@@ -3536,7 +3771,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="17.25" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>164</v>
       </c>
@@ -3544,7 +3779,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="17.25" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>172</v>
       </c>
@@ -3552,7 +3787,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="17.25" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>179</v>
       </c>
@@ -3560,7 +3795,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="17.25" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>184</v>
       </c>
@@ -3568,7 +3803,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="17.25" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>188</v>
       </c>
@@ -3576,7 +3811,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="17.25" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>194</v>
       </c>
@@ -3584,7 +3819,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="17.25" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>199</v>
       </c>
@@ -3592,7 +3827,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="17.25" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>204</v>
       </c>
@@ -3600,7 +3835,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="17.25" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>209</v>
       </c>
@@ -3608,7 +3843,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="17.25" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>215</v>
       </c>
@@ -3616,7 +3851,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="17.25" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>219</v>
       </c>
@@ -3624,7 +3859,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="17.25" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>223</v>
       </c>
@@ -3632,7 +3867,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="17.25" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>228</v>
       </c>
@@ -3640,7 +3875,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="17.25" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>233</v>
       </c>
@@ -3648,7 +3883,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="17.25" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>238</v>
       </c>
@@ -3656,7 +3891,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="17.25" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>242</v>
       </c>
@@ -3664,7 +3899,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="17.25" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>248</v>
       </c>
@@ -3672,7 +3907,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="17.25" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>252</v>
       </c>
@@ -3680,7 +3915,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="17.25" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>256</v>
       </c>
@@ -3688,7 +3923,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="17.25" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>261</v>
       </c>
@@ -3696,7 +3931,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="17.25" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>265</v>
       </c>
@@ -3704,7 +3939,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="17.25" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>270</v>
       </c>
@@ -3712,7 +3947,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="17.25" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>274</v>
       </c>
@@ -3720,7 +3955,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="17.25" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>277</v>
       </c>
@@ -3728,7 +3963,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="17.25" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>282</v>
       </c>
@@ -3736,7 +3971,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="17.25" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>286</v>
       </c>
@@ -3744,7 +3979,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="17.25" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>291</v>
       </c>
@@ -3752,7 +3987,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="17.25" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>295</v>
       </c>
@@ -3760,7 +3995,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="17.25" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>299</v>
       </c>
@@ -3768,7 +4003,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="17.25" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>303</v>
       </c>
@@ -3776,7 +4011,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="17.25" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>307</v>
       </c>
@@ -3784,7 +4019,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="17.25" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>314</v>
       </c>
@@ -3792,7 +4027,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="17.25" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>319</v>
       </c>
@@ -3800,7 +4035,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="17.25" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>324</v>
       </c>
@@ -3808,7 +4043,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="17.25" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>328</v>
       </c>
@@ -3816,7 +4051,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="17.25" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>333</v>
       </c>
@@ -3824,7 +4059,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="17.25" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>337</v>
       </c>
@@ -3832,7 +4067,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="17.25" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>343</v>
       </c>
@@ -3840,7 +4075,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="17.25" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>348</v>
       </c>
@@ -3848,7 +4083,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="17.25" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>355</v>
       </c>
@@ -3856,7 +4091,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="17.25" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>360</v>
       </c>
@@ -3864,7 +4099,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="17.25" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>364</v>
       </c>
@@ -3872,7 +4107,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="17.25" customHeight="1">
       <c r="A157" s="1" t="s">
         <v>368</v>
       </c>
@@ -3880,7 +4115,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="17.25" customHeight="1">
       <c r="A158" s="1" t="s">
         <v>487</v>
       </c>
@@ -3888,7 +4123,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="17.25" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>371</v>
       </c>
@@ -3896,7 +4131,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="17.25" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>377</v>
       </c>
@@ -3904,7 +4139,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="17.25" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>4</v>
       </c>
@@ -3912,7 +4147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="17.25" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>12</v>
       </c>
@@ -3920,7 +4155,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="17.25" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>17</v>
       </c>
@@ -3928,7 +4163,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="17.25" customHeight="1">
       <c r="A164" s="1" t="s">
         <v>23</v>
       </c>
@@ -3936,7 +4171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="17.25" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>29</v>
       </c>
@@ -3944,7 +4179,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="17.25" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>35</v>
       </c>
@@ -3952,7 +4187,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="17.25" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>40</v>
       </c>
@@ -3960,7 +4195,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="17.25" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>46</v>
       </c>
@@ -3968,7 +4203,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="17.25" customHeight="1">
       <c r="A169" s="1" t="s">
         <v>52</v>
       </c>
@@ -3976,7 +4211,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="17.25" customHeight="1">
       <c r="A170" s="1" t="s">
         <v>58</v>
       </c>
@@ -3984,7 +4219,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="17.25" customHeight="1">
       <c r="A171" s="1" t="s">
         <v>64</v>
       </c>
@@ -3992,7 +4227,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="17.25" customHeight="1">
       <c r="A172" s="1" t="s">
         <v>70</v>
       </c>
@@ -4000,7 +4235,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="17.25" customHeight="1">
       <c r="A173" s="1" t="s">
         <v>76</v>
       </c>
@@ -4008,7 +4243,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="17.25" customHeight="1">
       <c r="A174" s="1" t="s">
         <v>82</v>
       </c>
@@ -4016,7 +4251,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="17.25" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>90</v>
       </c>
@@ -4024,7 +4259,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="17.25" customHeight="1">
       <c r="A176" s="1" t="s">
         <v>97</v>
       </c>
@@ -4032,7 +4267,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="17.25" customHeight="1">
       <c r="A177" s="1" t="s">
         <v>104</v>
       </c>
@@ -4040,7 +4275,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="17.25" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>113</v>
       </c>
@@ -4048,7 +4283,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="17.25" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>120</v>
       </c>
@@ -4056,7 +4291,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="17.25" customHeight="1">
       <c r="A180" s="1" t="s">
         <v>128</v>
       </c>
@@ -4064,7 +4299,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="17.25" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>134</v>
       </c>
@@ -4072,7 +4307,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="17.25" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>140</v>
       </c>
@@ -4080,7 +4315,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="17.25" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>147</v>
       </c>
@@ -4088,7 +4323,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="17.25" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>155</v>
       </c>
@@ -4096,7 +4331,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="17.25" customHeight="1">
       <c r="A185" s="1" t="s">
         <v>160</v>
       </c>
@@ -4104,7 +4339,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="17.25" customHeight="1">
       <c r="A186" s="1" t="s">
         <v>165</v>
       </c>
@@ -4112,7 +4347,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="17.25" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>173</v>
       </c>
@@ -4120,7 +4355,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="17.25" customHeight="1">
       <c r="A188" s="1" t="s">
         <v>180</v>
       </c>
@@ -4128,7 +4363,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="17.25" customHeight="1">
       <c r="A189" s="1" t="s">
         <v>185</v>
       </c>
@@ -4136,7 +4371,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="17.25" customHeight="1">
       <c r="A190" s="1" t="s">
         <v>190</v>
       </c>
@@ -4144,7 +4379,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="17.25" customHeight="1">
       <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
@@ -4152,7 +4387,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="17.25" customHeight="1">
       <c r="A192" s="1" t="s">
         <v>200</v>
       </c>
@@ -4160,7 +4395,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="17.25" customHeight="1">
       <c r="A193" s="1" t="s">
         <v>206</v>
       </c>
@@ -4168,7 +4403,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="17.25" customHeight="1">
       <c r="A194" s="1" t="s">
         <v>210</v>
       </c>
@@ -4176,7 +4411,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="17.25" customHeight="1">
       <c r="A195" s="1" t="s">
         <v>216</v>
       </c>
@@ -4184,7 +4419,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="17.25" customHeight="1">
       <c r="A196" s="1" t="s">
         <v>220</v>
       </c>
@@ -4192,7 +4427,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="17.25" customHeight="1">
       <c r="A197" s="1" t="s">
         <v>225</v>
       </c>
@@ -4200,7 +4435,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="17.25" customHeight="1">
       <c r="A198" s="1" t="s">
         <v>229</v>
       </c>
@@ -4208,7 +4443,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="17.25" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>234</v>
       </c>
@@ -4216,7 +4451,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="17.25" customHeight="1">
       <c r="A200" s="1" t="s">
         <v>239</v>
       </c>
@@ -4224,7 +4459,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="17.25" customHeight="1">
       <c r="A201" s="1" t="s">
         <v>243</v>
       </c>
@@ -4232,7 +4467,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="17.25" customHeight="1">
       <c r="A202" s="1" t="s">
         <v>249</v>
       </c>
@@ -4240,7 +4475,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="17.25" customHeight="1">
       <c r="A203" s="1" t="s">
         <v>253</v>
       </c>
@@ -4248,7 +4483,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="17.25" customHeight="1">
       <c r="A204" s="1" t="s">
         <v>257</v>
       </c>
@@ -4256,7 +4491,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="17.25" customHeight="1">
       <c r="A205" s="1" t="s">
         <v>262</v>
       </c>
@@ -4264,7 +4499,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="17.25" customHeight="1">
       <c r="A206" s="1" t="s">
         <v>267</v>
       </c>
@@ -4272,7 +4507,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="17.25" customHeight="1">
       <c r="A207" s="1" t="s">
         <v>271</v>
       </c>
@@ -4280,7 +4515,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="17.25" customHeight="1">
       <c r="A208" s="1" t="s">
         <v>275</v>
       </c>
@@ -4288,7 +4523,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="17.25" customHeight="1">
       <c r="A209" s="1" t="s">
         <v>278</v>
       </c>
@@ -4296,7 +4531,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="17.25" customHeight="1">
       <c r="A210" s="1" t="s">
         <v>283</v>
       </c>
@@ -4304,7 +4539,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="17.25" customHeight="1">
       <c r="A211" s="1" t="s">
         <v>287</v>
       </c>
@@ -4312,7 +4547,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="17.25" customHeight="1">
       <c r="A212" s="1" t="s">
         <v>292</v>
       </c>
@@ -4320,7 +4555,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="17.25" customHeight="1">
       <c r="A213" s="1" t="s">
         <v>296</v>
       </c>
@@ -4328,7 +4563,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="17.25" customHeight="1">
       <c r="A214" s="1" t="s">
         <v>54</v>
       </c>
@@ -4336,7 +4571,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="17.25" customHeight="1">
       <c r="A215" s="1" t="s">
         <v>304</v>
       </c>
@@ -4344,7 +4579,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="17.25" customHeight="1">
       <c r="A216" s="1" t="s">
         <v>308</v>
       </c>
@@ -4352,7 +4587,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="17.25" customHeight="1">
       <c r="A217" s="1" t="s">
         <v>315</v>
       </c>
@@ -4360,7 +4595,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="17.25" customHeight="1">
       <c r="A218" s="1" t="s">
         <v>320</v>
       </c>
@@ -4368,7 +4603,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="17.25" customHeight="1">
       <c r="A219" s="1" t="s">
         <v>325</v>
       </c>
@@ -4376,7 +4611,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="17.25" customHeight="1">
       <c r="A220" s="1" t="s">
         <v>329</v>
       </c>
@@ -4384,7 +4619,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="17.25" customHeight="1">
       <c r="A221" s="1" t="s">
         <v>334</v>
       </c>
@@ -4392,7 +4627,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="17.25" customHeight="1">
       <c r="A222" s="1" t="s">
         <v>338</v>
       </c>
@@ -4400,7 +4635,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="17.25" customHeight="1">
       <c r="A223" s="1" t="s">
         <v>344</v>
       </c>
@@ -4408,7 +4643,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="17.25" customHeight="1">
       <c r="A224" s="1" t="s">
         <v>350</v>
       </c>
@@ -4416,7 +4651,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="17.25" customHeight="1">
       <c r="A225" s="1" t="s">
         <v>357</v>
       </c>
@@ -4424,7 +4659,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="17.25" customHeight="1">
       <c r="A226" s="1" t="s">
         <v>361</v>
       </c>
@@ -4432,7 +4667,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="17.25" customHeight="1">
       <c r="A227" s="1" t="s">
         <v>365</v>
       </c>
@@ -4440,7 +4675,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="17.25" customHeight="1">
       <c r="A228" s="1" t="s">
         <v>369</v>
       </c>
@@ -4448,7 +4683,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="17.25" customHeight="1">
       <c r="A229" s="1" t="s">
         <v>373</v>
       </c>
@@ -4456,7 +4691,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="17.25" customHeight="1">
       <c r="A230" s="1" t="s">
         <v>379</v>
       </c>
@@ -4464,7 +4699,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="17.25" customHeight="1">
       <c r="A231" s="1" t="s">
         <v>384</v>
       </c>
@@ -4472,7 +4707,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="17.25" customHeight="1">
       <c r="A232" s="1" t="s">
         <v>388</v>
       </c>
@@ -4480,7 +4715,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="17.25" customHeight="1">
       <c r="A233" s="1" t="s">
         <v>392</v>
       </c>
@@ -4488,7 +4723,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="17.25" customHeight="1">
       <c r="A234" s="1" t="s">
         <v>395</v>
       </c>
@@ -4496,7 +4731,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="17.25" customHeight="1">
       <c r="A235" s="1" t="s">
         <v>399</v>
       </c>
@@ -4504,7 +4739,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="17.25" customHeight="1">
       <c r="A236" s="1" t="s">
         <v>403</v>
       </c>
@@ -4512,7 +4747,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="17.25" customHeight="1">
       <c r="A237" s="1" t="s">
         <v>406</v>
       </c>
@@ -4520,7 +4755,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="17.25" customHeight="1">
       <c r="A238" s="1" t="s">
         <v>410</v>
       </c>
@@ -4528,7 +4763,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="17.25" customHeight="1">
       <c r="A239" s="1" t="s">
         <v>415</v>
       </c>
@@ -4536,7 +4771,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="17.25" customHeight="1">
       <c r="A240" s="1" t="s">
         <v>420</v>
       </c>
@@ -4544,7 +4779,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="17.25" customHeight="1">
       <c r="A241" s="1" t="s">
         <v>424</v>
       </c>
@@ -4552,7 +4787,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="17.25" customHeight="1">
       <c r="A242" s="1" t="s">
         <v>429</v>
       </c>
@@ -4560,7 +4795,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="17.25" customHeight="1">
       <c r="A243" s="1" t="s">
         <v>434</v>
       </c>
@@ -4568,7 +4803,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="17.25" customHeight="1">
       <c r="A244" s="1" t="s">
         <v>440</v>
       </c>
@@ -4576,7 +4811,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="17.25" customHeight="1">
       <c r="A245" s="1" t="s">
         <v>445</v>
       </c>
@@ -4584,7 +4819,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="17.25" customHeight="1">
       <c r="A246" s="1" t="s">
         <v>451</v>
       </c>
@@ -4592,7 +4827,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="17.25" customHeight="1">
       <c r="A247" s="1" t="s">
         <v>453</v>
       </c>
@@ -4600,7 +4835,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="17.25" customHeight="1">
       <c r="A248" s="1" t="s">
         <v>458</v>
       </c>
@@ -4608,7 +4843,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="17.25" customHeight="1">
       <c r="A249" s="1" t="s">
         <v>464</v>
       </c>
@@ -4616,7 +4851,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="17.25" customHeight="1">
       <c r="A250" s="1" t="s">
         <v>469</v>
       </c>
@@ -4624,7 +4859,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="17.25" customHeight="1">
       <c r="A251" s="1" t="s">
         <v>472</v>
       </c>
@@ -4632,7 +4867,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="17.25" customHeight="1">
       <c r="A252" s="2" t="s">
         <v>6</v>
       </c>
@@ -4640,7 +4875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="17.25" customHeight="1">
       <c r="A253" s="1" t="s">
         <v>13</v>
       </c>
@@ -4648,7 +4883,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="17.25" customHeight="1">
       <c r="A254" s="1" t="s">
         <v>18</v>
       </c>
@@ -4656,7 +4891,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="17.25" customHeight="1">
       <c r="A255" s="1" t="s">
         <v>25</v>
       </c>
@@ -4664,7 +4899,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="17.25" customHeight="1">
       <c r="A256" s="1" t="s">
         <v>30</v>
       </c>
@@ -4672,7 +4907,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="17.25" customHeight="1">
       <c r="A257" s="1" t="s">
         <v>36</v>
       </c>
@@ -4680,7 +4915,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="17.25" customHeight="1">
       <c r="A258" s="1" t="s">
         <v>41</v>
       </c>
@@ -4688,7 +4923,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="17.25" customHeight="1">
       <c r="A259" s="1" t="s">
         <v>48</v>
       </c>
@@ -4696,7 +4931,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="17.25" customHeight="1">
       <c r="A260" s="1" t="s">
         <v>53</v>
       </c>
@@ -4704,7 +4939,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="17.25" customHeight="1">
       <c r="A261" s="1" t="s">
         <v>59</v>
       </c>
@@ -4712,7 +4947,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="17.25" customHeight="1">
       <c r="A262" s="1" t="s">
         <v>65</v>
       </c>
@@ -4720,7 +4955,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="17.25" customHeight="1">
       <c r="A263" s="1" t="s">
         <v>71</v>
       </c>
@@ -4728,7 +4963,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="17.25" customHeight="1">
       <c r="A264" s="1" t="s">
         <v>77</v>
       </c>
@@ -4736,7 +4971,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="17.25" customHeight="1">
       <c r="A265" s="1" t="s">
         <v>83</v>
       </c>
@@ -4744,7 +4979,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="17.25" customHeight="1">
       <c r="A266" s="1" t="s">
         <v>91</v>
       </c>
@@ -4752,7 +4987,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="17.25" customHeight="1">
       <c r="A267" s="1" t="s">
         <v>98</v>
       </c>
@@ -4760,7 +4995,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="17.25" customHeight="1">
       <c r="A268" s="1" t="s">
         <v>106</v>
       </c>
@@ -4768,7 +5003,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="17.25" customHeight="1">
       <c r="A269" s="1" t="s">
         <v>114</v>
       </c>
@@ -4776,7 +5011,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="17.25" customHeight="1">
       <c r="A270" s="1" t="s">
         <v>121</v>
       </c>
@@ -4784,7 +5019,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="17.25" customHeight="1">
       <c r="A271" s="1" t="s">
         <v>129</v>
       </c>
@@ -4792,7 +5027,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="17.25" customHeight="1">
       <c r="A272" s="1" t="s">
         <v>135</v>
       </c>
@@ -4800,7 +5035,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="17.25" customHeight="1">
       <c r="A273" s="1" t="s">
         <v>141</v>
       </c>
@@ -4808,7 +5043,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="17.25" customHeight="1">
       <c r="A274" s="1" t="s">
         <v>148</v>
       </c>
@@ -4816,7 +5051,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="17.25" customHeight="1">
       <c r="A275" s="1" t="s">
         <v>156</v>
       </c>
@@ -4824,7 +5059,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="17.25" customHeight="1">
       <c r="A276" s="1" t="s">
         <v>161</v>
       </c>
@@ -4832,7 +5067,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="17.25" customHeight="1">
       <c r="A277" s="1" t="s">
         <v>166</v>
       </c>
@@ -4840,7 +5075,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="17.25" customHeight="1">
       <c r="A278" s="1" t="s">
         <v>174</v>
       </c>
@@ -4848,7 +5083,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="17.25" customHeight="1">
       <c r="A279" s="1" t="s">
         <v>181</v>
       </c>
@@ -4856,7 +5091,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="17.25" customHeight="1">
       <c r="A280" s="1" t="s">
         <v>186</v>
       </c>
@@ -4864,7 +5099,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="17.25" customHeight="1">
       <c r="A281" s="1" t="s">
         <v>192</v>
       </c>
@@ -4872,7 +5107,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="17.25" customHeight="1">
       <c r="A282" s="1" t="s">
         <v>196</v>
       </c>
@@ -4880,7 +5115,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="17.25" customHeight="1">
       <c r="A283" s="1" t="s">
         <v>201</v>
       </c>
@@ -4888,7 +5123,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="17.25" customHeight="1">
       <c r="A284" s="1" t="s">
         <v>207</v>
       </c>
@@ -4896,7 +5131,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="17.25" customHeight="1">
       <c r="A285" s="1" t="s">
         <v>212</v>
       </c>
@@ -4904,7 +5139,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="17.25" customHeight="1">
       <c r="A286" s="1" t="s">
         <v>217</v>
       </c>
@@ -4912,7 +5147,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="17.25" customHeight="1">
       <c r="A287" s="1" t="s">
         <v>221</v>
       </c>
@@ -4920,7 +5155,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="17.25" customHeight="1">
       <c r="A288" s="1" t="s">
         <v>226</v>
       </c>
@@ -4928,7 +5163,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="17.25" customHeight="1">
       <c r="A289" s="1" t="s">
         <v>230</v>
       </c>
@@ -4936,7 +5171,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="17.25" customHeight="1">
       <c r="A290" s="1" t="s">
         <v>235</v>
       </c>
@@ -4944,7 +5179,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="17.25" customHeight="1">
       <c r="A291" s="1" t="s">
         <v>240</v>
       </c>
@@ -4952,7 +5187,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="17.25" customHeight="1">
       <c r="A292" s="1" t="s">
         <v>245</v>
       </c>
@@ -4960,7 +5195,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="17.25" customHeight="1">
       <c r="A293" s="1" t="s">
         <v>489</v>
       </c>
@@ -4968,7 +5203,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="17.25" customHeight="1">
       <c r="A294" s="1" t="s">
         <v>250</v>
       </c>
@@ -4976,7 +5211,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="17.25" customHeight="1">
       <c r="A295" s="1" t="s">
         <v>254</v>
       </c>
@@ -4984,7 +5219,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="17.25" customHeight="1">
       <c r="A296" s="1" t="s">
         <v>258</v>
       </c>
@@ -4992,7 +5227,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="17.25" customHeight="1">
       <c r="A297" s="1" t="s">
         <v>263</v>
       </c>
@@ -5000,7 +5235,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="17.25" customHeight="1">
       <c r="A298" s="1" t="s">
         <v>268</v>
       </c>
@@ -5008,7 +5243,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="17.25" customHeight="1">
       <c r="A299" s="1" t="s">
         <v>272</v>
       </c>
@@ -5016,7 +5251,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="17.25" customHeight="1">
       <c r="A300" s="1" t="s">
         <v>26</v>
       </c>
@@ -5024,7 +5259,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="17.25" customHeight="1">
       <c r="A301" s="1" t="s">
         <v>279</v>
       </c>
@@ -5032,7 +5267,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="17.25" customHeight="1">
       <c r="A302" s="1" t="s">
         <v>284</v>
       </c>
@@ -5040,7 +5275,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="17.25" customHeight="1">
       <c r="A303" s="1" t="s">
         <v>288</v>
       </c>
@@ -5048,7 +5283,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" ht="17.25" customHeight="1">
       <c r="A304" s="1" t="s">
         <v>293</v>
       </c>
@@ -5056,7 +5291,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" ht="17.25" customHeight="1">
       <c r="A305" s="1" t="s">
         <v>297</v>
       </c>
@@ -5064,7 +5299,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" ht="17.25" customHeight="1">
       <c r="A306" s="1" t="s">
         <v>301</v>
       </c>
@@ -5072,7 +5307,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" ht="17.25" customHeight="1">
       <c r="A307" s="1" t="s">
         <v>305</v>
       </c>
@@ -5080,7 +5315,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" ht="17.25" customHeight="1">
       <c r="A308" s="1" t="s">
         <v>310</v>
       </c>
@@ -5088,7 +5323,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" ht="17.25" customHeight="1">
       <c r="A309" s="1" t="s">
         <v>317</v>
       </c>
@@ -5096,7 +5331,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" ht="17.25" customHeight="1">
       <c r="A310" s="1" t="s">
         <v>321</v>
       </c>
@@ -5104,7 +5339,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" ht="17.25" customHeight="1">
       <c r="A311" s="1" t="s">
         <v>326</v>
       </c>
@@ -5112,7 +5347,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" ht="17.25" customHeight="1">
       <c r="A312" s="1" t="s">
         <v>330</v>
       </c>
@@ -5120,7 +5355,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" ht="17.25" customHeight="1">
       <c r="A313" s="1" t="s">
         <v>335</v>
       </c>
@@ -5128,7 +5363,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" ht="17.25" customHeight="1">
       <c r="A314" s="1" t="s">
         <v>340</v>
       </c>
@@ -5136,7 +5371,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" ht="17.25" customHeight="1">
       <c r="A315" s="1" t="s">
         <v>345</v>
       </c>
@@ -5144,7 +5379,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" ht="17.25" customHeight="1">
       <c r="A316" s="1" t="s">
         <v>352</v>
       </c>
@@ -5152,7 +5387,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" ht="17.25" customHeight="1">
       <c r="A317" s="1" t="s">
         <v>358</v>
       </c>
@@ -5160,7 +5395,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" ht="17.25" customHeight="1">
       <c r="A318" s="1" t="s">
         <v>362</v>
       </c>
@@ -5168,7 +5403,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" ht="17.25" customHeight="1">
       <c r="A319" s="1" t="s">
         <v>366</v>
       </c>
@@ -5176,7 +5411,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" ht="17.25" customHeight="1">
       <c r="A320" s="1" t="s">
         <v>42</v>
       </c>
@@ -5184,7 +5419,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="17.25" customHeight="1">
       <c r="A321" s="1" t="s">
         <v>374</v>
       </c>
@@ -5192,7 +5427,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" ht="17.25" customHeight="1">
       <c r="A322" s="1" t="s">
         <v>380</v>
       </c>
@@ -5200,7 +5435,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" ht="17.25" customHeight="1">
       <c r="A323" s="1" t="s">
         <v>385</v>
       </c>
@@ -5208,7 +5443,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="17.25" customHeight="1">
       <c r="A324" s="1" t="s">
         <v>389</v>
       </c>
@@ -5216,7 +5451,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" ht="17.25" customHeight="1">
       <c r="A325" s="1" t="s">
         <v>393</v>
       </c>
@@ -5224,7 +5459,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" ht="17.25" customHeight="1">
       <c r="A326" s="1" t="s">
         <v>396</v>
       </c>
@@ -5232,7 +5467,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" ht="17.25" customHeight="1">
       <c r="A327" s="1" t="s">
         <v>400</v>
       </c>
@@ -5240,7 +5475,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" ht="17.25" customHeight="1">
       <c r="A328" s="1" t="s">
         <v>404</v>
       </c>
@@ -5248,7 +5483,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" ht="17.25" customHeight="1">
       <c r="A329" s="1" t="s">
         <v>407</v>
       </c>
@@ -5256,7 +5491,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" ht="17.25" customHeight="1">
       <c r="A330" s="1" t="s">
         <v>411</v>
       </c>
@@ -5264,7 +5499,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" ht="17.25" customHeight="1">
       <c r="A331" s="1" t="s">
         <v>417</v>
       </c>
@@ -5272,7 +5507,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" ht="17.25" customHeight="1">
       <c r="A332" s="1" t="s">
         <v>421</v>
       </c>
@@ -5280,7 +5515,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="17.25" customHeight="1">
       <c r="A333" s="1" t="s">
         <v>426</v>
       </c>
@@ -5288,7 +5523,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" ht="17.25" customHeight="1">
       <c r="A334" s="1" t="s">
         <v>431</v>
       </c>
@@ -5296,7 +5531,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" ht="17.25" customHeight="1">
       <c r="A335" s="1" t="s">
         <v>436</v>
       </c>
@@ -5304,7 +5539,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" ht="17.25" customHeight="1">
       <c r="A336" s="1" t="s">
         <v>442</v>
       </c>
@@ -5312,7 +5547,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" ht="17.25" customHeight="1">
       <c r="A337" s="1" t="s">
         <v>447</v>
       </c>
@@ -5320,7 +5555,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" ht="17.25" customHeight="1">
       <c r="A338" s="1" t="s">
         <v>452</v>
       </c>
@@ -5328,7 +5563,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" ht="17.25" customHeight="1">
       <c r="A339" s="1" t="s">
         <v>454</v>
       </c>
@@ -5336,7 +5571,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" ht="17.25" customHeight="1">
       <c r="A340" s="1" t="s">
         <v>460</v>
       </c>
@@ -5344,7 +5579,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" ht="17.25" customHeight="1">
       <c r="A341" s="1" t="s">
         <v>465</v>
       </c>
@@ -5352,7 +5587,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" ht="17.25" customHeight="1">
       <c r="A342" s="1" t="s">
         <v>471</v>
       </c>
@@ -5360,7 +5595,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" ht="17.25" customHeight="1">
       <c r="A343" s="1" t="s">
         <v>66</v>
       </c>
@@ -5368,7 +5603,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" ht="17.25" customHeight="1">
       <c r="A344" s="1" t="s">
         <v>474</v>
       </c>
@@ -5376,7 +5611,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" ht="17.25" customHeight="1">
       <c r="A345" s="1" t="s">
         <v>475</v>
       </c>
@@ -5384,7 +5619,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" ht="17.25" customHeight="1">
       <c r="A346" s="1" t="s">
         <v>476</v>
       </c>
@@ -5392,7 +5627,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" ht="17.25" customHeight="1">
       <c r="A347" s="1" t="s">
         <v>477</v>
       </c>
@@ -5400,7 +5635,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" ht="17.25" customHeight="1">
       <c r="A348" s="1" t="s">
         <v>478</v>
       </c>
@@ -5408,7 +5643,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" ht="17.25" customHeight="1">
       <c r="A349" s="1" t="s">
         <v>480</v>
       </c>
@@ -5416,7 +5651,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" ht="17.25" customHeight="1">
       <c r="A350" s="1" t="s">
         <v>482</v>
       </c>
@@ -5424,7 +5659,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" ht="17.25" customHeight="1">
       <c r="A351" s="2" t="s">
         <v>8</v>
       </c>
@@ -5432,7 +5667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" ht="17.25" customHeight="1">
       <c r="A352" s="1" t="s">
         <v>14</v>
       </c>
@@ -5440,7 +5675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" ht="17.25" customHeight="1">
       <c r="A353" s="1" t="s">
         <v>19</v>
       </c>
@@ -5448,7 +5683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" ht="17.25" customHeight="1">
       <c r="A354" s="1" t="s">
         <v>26</v>
       </c>
@@ -5456,7 +5691,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" ht="17.25" customHeight="1">
       <c r="A355" s="1" t="s">
         <v>31</v>
       </c>
@@ -5464,7 +5699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" ht="17.25" customHeight="1">
       <c r="A356" s="1" t="s">
         <v>37</v>
       </c>
@@ -5472,7 +5707,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" ht="17.25" customHeight="1">
       <c r="A357" s="1" t="s">
         <v>42</v>
       </c>
@@ -5480,7 +5715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" ht="17.25" customHeight="1">
       <c r="A358" s="1" t="s">
         <v>49</v>
       </c>
@@ -5488,7 +5723,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="17.25" customHeight="1">
       <c r="A359" s="1" t="s">
         <v>54</v>
       </c>
@@ -5496,7 +5731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" ht="17.25" customHeight="1">
       <c r="A360" s="1" t="s">
         <v>61</v>
       </c>
@@ -5504,7 +5739,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" ht="17.25" customHeight="1">
       <c r="A361" s="1" t="s">
         <v>66</v>
       </c>
@@ -5512,7 +5747,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" ht="17.25" customHeight="1">
       <c r="A362" s="1" t="s">
         <v>72</v>
       </c>
@@ -5520,7 +5755,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" ht="17.25" customHeight="1">
       <c r="A363" s="1" t="s">
         <v>78</v>
       </c>
@@ -5528,7 +5763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" ht="17.25" customHeight="1">
       <c r="A364" s="1" t="s">
         <v>85</v>
       </c>
@@ -5536,7 +5771,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" ht="17.25" customHeight="1">
       <c r="A365" s="1" t="s">
         <v>93</v>
       </c>
@@ -5544,7 +5779,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" ht="17.25" customHeight="1">
       <c r="A366" s="1" t="s">
         <v>100</v>
       </c>
@@ -5552,7 +5787,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" ht="17.25" customHeight="1">
       <c r="A367" s="1" t="s">
         <v>108</v>
       </c>
@@ -5560,7 +5795,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" ht="17.25" customHeight="1">
       <c r="A368" s="1" t="s">
         <v>115</v>
       </c>
@@ -5568,7 +5803,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" ht="17.25" customHeight="1">
       <c r="A369" s="1" t="s">
         <v>122</v>
       </c>
@@ -5576,7 +5811,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" ht="17.25" customHeight="1">
       <c r="A370" s="1" t="s">
         <v>130</v>
       </c>
@@ -5584,7 +5819,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" ht="17.25" customHeight="1">
       <c r="A371" s="1" t="s">
         <v>136</v>
       </c>
@@ -5592,7 +5827,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" ht="17.25" customHeight="1">
       <c r="A372" s="1" t="s">
         <v>142</v>
       </c>
@@ -5600,7 +5835,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" ht="17.25" customHeight="1">
       <c r="A373" s="1" t="s">
         <v>150</v>
       </c>
@@ -5608,7 +5843,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" ht="17.25" customHeight="1">
       <c r="A374" s="1" t="s">
         <v>157</v>
       </c>
@@ -5616,7 +5851,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" ht="17.25" customHeight="1">
       <c r="A375" s="1" t="s">
         <v>168</v>
       </c>
@@ -5624,7 +5859,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" ht="17.25" customHeight="1">
       <c r="A376" s="1" t="s">
         <v>175</v>
       </c>
@@ -5632,7 +5867,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" ht="17.25" customHeight="1">
       <c r="A377" s="1" t="s">
         <v>485</v>
       </c>
@@ -5640,13 +5875,113 @@
         <v>486</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" ht="17.25" customHeight="1">
       <c r="A378" s="1" t="s">
         <v>483</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>484</v>
       </c>
+    </row>
+    <row r="379" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A379" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A380" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A381" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A382" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A383" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="B383" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A384" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B384" s="7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A385" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="B385" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="C385" s="10"/>
+      <c r="D385" s="8"/>
+    </row>
+    <row r="386" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A386" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A387" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="B387" s="9" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A388" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A389" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="B389" s="9" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A390" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="B390" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="C390" s="14"/>
+      <c r="D390" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/all_packages.xlsx
+++ b/all_packages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="770">
   <si>
     <t>Base</t>
   </si>
@@ -2414,6 +2414,59 @@
   </si>
   <si>
     <t>An R package for visualization of unsupervised deep learning techniques.</t>
+  </si>
+  <si>
+    <t>yardstick</t>
+  </si>
+  <si>
+    <r>
+      <t>yardstick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t> is a package to estimate how well models are working using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFE95420"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t>tidy data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t> principals. The package webpage is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>https://topepo.github.io/yardstick/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Palatino Linotype"/>
+        <family val="1"/>
+      </rPr>
+      <t> for more information.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2467,12 +2520,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF0366D6"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
@@ -2490,6 +2537,12 @@
       <sz val="11"/>
       <color rgb="FFA3BE8C"/>
       <name val="Space Mono"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE95420"/>
+      <name val="Palatino Linotype"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2517,7 +2570,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2537,16 +2590,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -2845,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D390"/>
+  <dimension ref="A1:D391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A377" sqref="A377"/>
+    <sheetView tabSelected="1" topLeftCell="B388" workbookViewId="0">
+      <selection activeCell="B391" sqref="B391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.140625" defaultRowHeight="17.25" customHeight="1"/>
@@ -5983,6 +6036,14 @@
       <c r="C390" s="14"/>
       <c r="D390" s="12"/>
     </row>
+    <row r="391" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A391" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/all_packages.xlsx
+++ b/all_packages.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="772">
   <si>
     <t>Base</t>
   </si>
@@ -2468,12 +2468,38 @@
       <t> for more information.</t>
     </r>
   </si>
+  <si>
+    <t>swatches</t>
+  </si>
+  <si>
+    <r>
+      <t>Wouldn’t it be great if there were a package that read them all in with a simple </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>read_palette()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF444444"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t> function? Well, now there is.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2544,6 +2570,18 @@
       <name val="Palatino Linotype"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2572,7 +2610,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2600,6 +2638,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -2898,10 +2937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D391"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B388" workbookViewId="0">
-      <selection activeCell="B391" sqref="B391"/>
+      <selection activeCell="B392" sqref="B392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.140625" defaultRowHeight="17.25" customHeight="1"/>
@@ -6044,6 +6083,14 @@
         <v>769</v>
       </c>
     </row>
+    <row r="392" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A392" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B392" s="15" t="s">
+        <v>771</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/all_packages.xlsx
+++ b/all_packages.xlsx
@@ -1285,12 +1285,6 @@
   </si>
   <si>
     <t>RgoogleMaps</t>
-  </si>
-  <si>
-    <t>ropenscilabs/skimr</t>
-  </si>
-  <si>
-    <t>A frictionless, pipeable approach to dealing with summary statistics.</t>
   </si>
   <si>
     <t>tseries</t>
@@ -2494,12 +2488,18 @@
       <t> function? Well, now there is.</t>
     </r>
   </si>
+  <si>
+    <t>A simple to use summary function that can be used with pipes and displays nicely in the console. The default summary statistics may be modified by the user as can the default formatting. Support for data frames and vectors is included, and users can implement their own skim methods for specific object types as described in a vignette. Default summaries include support for inline spark graphs.</t>
+  </si>
+  <si>
+    <t>skimr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2582,6 +2582,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2610,7 +2616,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2639,6 +2645,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -2939,8 +2946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B388" workbookViewId="0">
-      <selection activeCell="B392" sqref="B392"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.140625" defaultRowHeight="17.25" customHeight="1"/>
@@ -2964,7 +2971,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -2972,7 +2979,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
@@ -2980,7 +2987,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -2988,7 +2995,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
@@ -2996,7 +3003,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -3004,7 +3011,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -3012,7 +3019,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -3020,7 +3027,7 @@
         <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
@@ -3028,7 +3035,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -3036,7 +3043,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -3044,7 +3051,7 @@
         <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -3052,7 +3059,7 @@
         <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
@@ -3060,7 +3067,7 @@
         <v>80</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -3076,7 +3083,7 @@
         <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -3084,7 +3091,7 @@
         <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -3116,7 +3123,7 @@
         <v>132</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">
@@ -3124,7 +3131,7 @@
         <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
@@ -3140,7 +3147,7 @@
         <v>152</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1">
@@ -3148,7 +3155,7 @@
         <v>158</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1">
@@ -3156,7 +3163,7 @@
         <v>163</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" customHeight="1">
@@ -3180,7 +3187,7 @@
         <v>183</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" customHeight="1">
@@ -3188,7 +3195,7 @@
         <v>187</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1">
@@ -3196,7 +3203,7 @@
         <v>193</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" customHeight="1">
@@ -3220,7 +3227,7 @@
         <v>208</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" customHeight="1">
@@ -3228,7 +3235,7 @@
         <v>214</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" customHeight="1">
@@ -3236,7 +3243,7 @@
         <v>218</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" customHeight="1">
@@ -3244,7 +3251,7 @@
         <v>222</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25" customHeight="1">
@@ -3252,7 +3259,7 @@
         <v>227</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" customHeight="1">
@@ -3260,7 +3267,7 @@
         <v>232</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25" customHeight="1">
@@ -3276,7 +3283,7 @@
         <v>241</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" customHeight="1">
@@ -3284,7 +3291,7 @@
         <v>247</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1">
@@ -3292,7 +3299,7 @@
         <v>251</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25" customHeight="1">
@@ -3300,7 +3307,7 @@
         <v>255</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" customHeight="1">
@@ -3308,7 +3315,7 @@
         <v>260</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" customHeight="1">
@@ -3316,7 +3323,7 @@
         <v>264</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" customHeight="1">
@@ -3324,7 +3331,7 @@
         <v>269</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" customHeight="1">
@@ -3332,7 +3339,7 @@
         <v>273</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1">
@@ -3340,7 +3347,7 @@
         <v>276</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1">
@@ -3356,7 +3363,7 @@
         <v>285</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" customHeight="1">
@@ -3372,7 +3379,7 @@
         <v>294</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1">
@@ -3380,7 +3387,7 @@
         <v>298</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.25" customHeight="1">
@@ -3388,7 +3395,7 @@
         <v>302</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25" customHeight="1">
@@ -3396,7 +3403,7 @@
         <v>306</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.25" customHeight="1">
@@ -3412,7 +3419,7 @@
         <v>318</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17.25" customHeight="1">
@@ -3428,7 +3435,7 @@
         <v>327</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17.25" customHeight="1">
@@ -3436,7 +3443,7 @@
         <v>332</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.25" customHeight="1">
@@ -3444,7 +3451,7 @@
         <v>336</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25" customHeight="1">
@@ -3452,7 +3459,7 @@
         <v>342</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.25" customHeight="1">
@@ -3460,7 +3467,7 @@
         <v>347</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17.25" customHeight="1">
@@ -3468,7 +3475,7 @@
         <v>354</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.25" customHeight="1">
@@ -3476,7 +3483,7 @@
         <v>359</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.25" customHeight="1">
@@ -3484,7 +3491,7 @@
         <v>363</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17.25" customHeight="1">
@@ -3492,7 +3499,7 @@
         <v>367</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17.25" customHeight="1">
@@ -3500,7 +3507,7 @@
         <v>370</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17.25" customHeight="1">
@@ -3524,7 +3531,7 @@
         <v>387</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17.25" customHeight="1">
@@ -3532,7 +3539,7 @@
         <v>391</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17.25" customHeight="1">
@@ -3540,7 +3547,7 @@
         <v>394</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17.25" customHeight="1">
@@ -3548,7 +3555,7 @@
         <v>398</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17.25" customHeight="1">
@@ -3556,7 +3563,7 @@
         <v>402</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17.25" customHeight="1">
@@ -3564,7 +3571,7 @@
         <v>405</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17.25" customHeight="1">
@@ -3572,7 +3579,7 @@
         <v>409</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17.25" customHeight="1">
@@ -3593,1322 +3600,1322 @@
     </row>
     <row r="81" spans="1:2" ht="17.25" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17.25" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17.25" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17.25" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="17.25" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.25" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17.25" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17.25" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A89" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>468</v>
+      <c r="A89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A90" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>3</v>
+      <c r="A90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17.25" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>507</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="17.25" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>15</v>
+        <v>575</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="17.25" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="17.25" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="17.25" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="17.25" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="17.25" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="17.25" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="17.25" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="17.25" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>584</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="17.25" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>69</v>
+        <v>583</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17.25" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="17.25" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>586</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="17.25" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>89</v>
+        <v>585</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17.25" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17.25" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="17.25" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="17.25" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>590</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="17.25" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>127</v>
+        <v>589</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17.25" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>591</v>
+        <v>491</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="17.25" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="17.25" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>508</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="17.25" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>154</v>
+        <v>590</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17.25" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17.25" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="17.25" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="17.25" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="17.25" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>596</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="17.25" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>189</v>
+        <v>595</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="17.25" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="17.25" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>598</v>
+        <v>205</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="17.25" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>205</v>
+        <v>597</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="17.25" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="17.25" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="17.25" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>601</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="17.25" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>224</v>
+        <v>600</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="17.25" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="17.25" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="17.25" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="17.25" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="17.25" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17.25" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="17.25" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17.25" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>609</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17.25" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>266</v>
+        <v>608</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="17.25" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="17.25" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="17.25" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="17.25" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17.25" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="17.25" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="17.25" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>616</v>
+        <v>300</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="17.25" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>300</v>
+        <v>615</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17.25" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="17.25" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="17.25" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="17.25" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17.25" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="17.25" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17.25" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>623</v>
+        <v>492</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="17.25" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>494</v>
+        <v>622</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="17.25" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>624</v>
+        <v>349</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17.25" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17.25" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>356</v>
+        <v>623</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17.25" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="17.25" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="17.25" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>368</v>
+        <v>485</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>627</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17.25" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>487</v>
+        <v>371</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>488</v>
+        <v>372</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="17.25" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A160" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>378</v>
+      <c r="A160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A161" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>5</v>
+      <c r="A161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17.25" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="17.25" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>629</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="17.25" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>24</v>
+        <v>628</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="17.25" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="17.25" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="17.25" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>632</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="17.25" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>47</v>
+        <v>507</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="17.25" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>509</v>
+        <v>631</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="17.25" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="17.25" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>634</v>
+        <v>508</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="17.25" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>510</v>
+        <v>633</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17.25" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>635</v>
+        <v>509</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17.25" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>511</v>
+        <v>634</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17.25" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="17.25" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>637</v>
+        <v>105</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="17.25" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>105</v>
+        <v>510</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="17.25" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="17.25" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>513</v>
+        <v>636</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="17.25" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="17.25" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="17.25" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>640</v>
+        <v>512</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="17.25" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>514</v>
+        <v>639</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="17.25" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="17.25" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="17.25" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>643</v>
+        <v>493</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="17.25" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>495</v>
+        <v>642</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="17.25" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="17.25" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>645</v>
+        <v>191</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="17.25" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>191</v>
+        <v>644</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="17.25" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="17.25" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="17.25" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>648</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="17.25" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>211</v>
+        <v>647</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="17.25" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="17.25" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="17.25" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="17.25" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="17.25" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="17.25" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>654</v>
+        <v>244</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="17.25" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>244</v>
+        <v>653</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="17.25" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="17.25" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>656</v>
+        <v>494</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="17.25" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="17.25" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>657</v>
+        <v>513</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="17.25" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>515</v>
+        <v>656</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="17.25" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="17.25" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="17.25" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="17.25" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="17.25" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="17.25" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="17.25" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>664</v>
+        <v>55</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="17.25" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>55</v>
+        <v>663</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="17.25" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>665</v>
+        <v>309</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="17.25" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="17.25" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>316</v>
+        <v>514</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="17.25" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>516</v>
+        <v>664</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="17.25" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="17.25" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="17.25" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>668</v>
+        <v>339</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="17.25" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>339</v>
+        <v>667</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="17.25" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>669</v>
+        <v>351</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="17.25" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>351</v>
+        <v>668</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="17.25" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="17.25" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="17.25" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>672</v>
+        <v>515</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="17.25" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>517</v>
+        <v>671</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="17.25" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="17.25" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="17.25" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="17.25" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>676</v>
+        <v>516</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="17.25" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>518</v>
+        <v>675</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="17.25" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="17.25" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="17.25" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="17.25" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="17.25" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>681</v>
+        <v>416</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="17.25" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>416</v>
+        <v>680</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="17.25" customHeight="1">
       <c r="A240" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>682</v>
+        <v>423</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="17.25" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="17.25" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="17.25" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="17.25" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="17.25" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>446</v>
+        <v>681</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="17.25" customHeight="1">
@@ -4916,735 +4923,735 @@
         <v>451</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="17.25" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>684</v>
+        <v>457</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="17.25" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>459</v>
+        <v>683</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="17.25" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>685</v>
+        <v>468</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="17.25" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A251" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>473</v>
+      <c r="A251" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A252" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>7</v>
+      <c r="A252" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="17.25" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="17.25" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="17.25" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="17.25" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="17.25" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="17.25" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="17.25" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="17.25" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>693</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="17.25" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>60</v>
+        <v>495</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="17.25" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>497</v>
+        <v>692</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="17.25" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="17.25" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>695</v>
+        <v>84</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="17.25" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="17.25" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="17.25" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="17.25" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>107</v>
+        <v>694</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="17.25" customHeight="1">
       <c r="A269" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="17.25" customHeight="1">
       <c r="A270" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="17.25" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="17.25" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="17.25" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>700</v>
+        <v>149</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="17.25" customHeight="1">
       <c r="A274" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>149</v>
+        <v>699</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="17.25" customHeight="1">
       <c r="A275" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="17.25" customHeight="1">
       <c r="A276" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>702</v>
+        <v>167</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="17.25" customHeight="1">
       <c r="A277" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>167</v>
+        <v>701</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="17.25" customHeight="1">
       <c r="A278" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>703</v>
+        <v>182</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="17.25" customHeight="1">
       <c r="A279" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>182</v>
+        <v>702</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="17.25" customHeight="1">
       <c r="A280" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="17.25" customHeight="1">
       <c r="A281" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>705</v>
+        <v>196</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="17.25" customHeight="1">
       <c r="A282" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>706</v>
+        <v>201</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="17.25" customHeight="1">
       <c r="A283" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="17.25" customHeight="1">
       <c r="A284" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>708</v>
+        <v>213</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="17.25" customHeight="1">
       <c r="A285" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>213</v>
+        <v>707</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="17.25" customHeight="1">
       <c r="A286" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="17.25" customHeight="1">
       <c r="A287" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="17.25" customHeight="1">
       <c r="A288" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>711</v>
+        <v>231</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="17.25" customHeight="1">
       <c r="A289" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>231</v>
+        <v>710</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="17.25" customHeight="1">
       <c r="A290" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="17.25" customHeight="1">
       <c r="A291" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>713</v>
+        <v>246</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="17.25" customHeight="1">
       <c r="A292" s="1" t="s">
-        <v>245</v>
+        <v>487</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>246</v>
+        <v>488</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="17.25" customHeight="1">
       <c r="A293" s="1" t="s">
-        <v>489</v>
+        <v>250</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>490</v>
+        <v>712</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="17.25" customHeight="1">
       <c r="A294" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="17.25" customHeight="1">
       <c r="A295" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>715</v>
+        <v>259</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="17.25" customHeight="1">
       <c r="A296" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>259</v>
+        <v>714</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="17.25" customHeight="1">
       <c r="A297" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="17.25" customHeight="1">
       <c r="A298" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="17.25" customHeight="1">
       <c r="A299" s="1" t="s">
-        <v>272</v>
+        <v>26</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="17.25" customHeight="1">
       <c r="A300" s="1" t="s">
-        <v>26</v>
+        <v>279</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="17.25" customHeight="1">
       <c r="A301" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="17.25" customHeight="1">
       <c r="A302" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="17.25" customHeight="1">
       <c r="A303" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>722</v>
+        <v>517</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="17.25" customHeight="1">
       <c r="A304" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>519</v>
+        <v>721</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="17.25" customHeight="1">
       <c r="A305" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="17.25" customHeight="1">
       <c r="A306" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="17.25" customHeight="1">
       <c r="A307" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>725</v>
+        <v>311</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="17.25" customHeight="1">
       <c r="A308" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>311</v>
+        <v>724</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="17.25" customHeight="1">
       <c r="A309" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>726</v>
+        <v>496</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="17.25" customHeight="1">
       <c r="A310" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>498</v>
+        <v>725</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="17.25" customHeight="1">
       <c r="A311" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>727</v>
+        <v>331</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="17.25" customHeight="1">
       <c r="A312" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>331</v>
+        <v>726</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="17.25" customHeight="1">
       <c r="A313" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>728</v>
+        <v>341</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="17.25" customHeight="1">
       <c r="A314" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="17.25" customHeight="1">
       <c r="A315" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="17.25" customHeight="1">
       <c r="A316" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>353</v>
+        <v>727</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="17.25" customHeight="1">
       <c r="A317" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>729</v>
+        <v>518</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="17.25" customHeight="1">
       <c r="A318" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>520</v>
+        <v>728</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="17.25" customHeight="1">
       <c r="A319" s="1" t="s">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>730</v>
+        <v>43</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="17.25" customHeight="1">
       <c r="A320" s="1" t="s">
-        <v>42</v>
+        <v>374</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>43</v>
+        <v>497</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="17.25" customHeight="1">
       <c r="A321" s="1" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>499</v>
+        <v>381</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="17.25" customHeight="1">
       <c r="A322" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="17.25" customHeight="1">
       <c r="A323" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="17.25" customHeight="1">
       <c r="A324" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>390</v>
+        <v>729</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="17.25" customHeight="1">
       <c r="A325" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>731</v>
+        <v>397</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="17.25" customHeight="1">
       <c r="A326" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="17.25" customHeight="1">
       <c r="A327" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>401</v>
+        <v>730</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="17.25" customHeight="1">
       <c r="A328" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>732</v>
+        <v>408</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="17.25" customHeight="1">
       <c r="A329" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="17.25" customHeight="1">
       <c r="A330" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>412</v>
+        <v>731</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="17.25" customHeight="1">
       <c r="A331" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="17.25" customHeight="1">
       <c r="A332" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="17.25" customHeight="1">
       <c r="A333" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="17.25" customHeight="1">
       <c r="A334" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>736</v>
+        <v>435</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="17.25" customHeight="1">
       <c r="A335" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>437</v>
+        <v>735</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="17.25" customHeight="1">
       <c r="A336" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>737</v>
+        <v>446</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="17.25" customHeight="1">
       <c r="A337" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>448</v>
+        <v>736</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="17.25" customHeight="1">
@@ -5652,79 +5659,79 @@
         <v>452</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>738</v>
+        <v>453</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="17.25" customHeight="1">
       <c r="A339" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="17.25" customHeight="1">
       <c r="A340" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="17.25" customHeight="1">
       <c r="A341" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>466</v>
+        <v>737</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="17.25" customHeight="1">
       <c r="A342" s="1" t="s">
-        <v>471</v>
+        <v>66</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="17.25" customHeight="1">
       <c r="A343" s="1" t="s">
-        <v>66</v>
+        <v>472</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>740</v>
+        <v>519</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="17.25" customHeight="1">
       <c r="A344" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>521</v>
+        <v>739</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="17.25" customHeight="1">
       <c r="A345" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>741</v>
+        <v>498</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="17.25" customHeight="1">
       <c r="A346" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>500</v>
+        <v>740</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="17.25" customHeight="1">
       <c r="A347" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="17.25" customHeight="1">
@@ -5740,242 +5747,242 @@
         <v>480</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>481</v>
+        <v>741</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A350" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>743</v>
+      <c r="A350" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A351" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>9</v>
+      <c r="A351" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="17.25" customHeight="1">
       <c r="A352" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="17.25" customHeight="1">
       <c r="A353" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>20</v>
+        <v>717</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="17.25" customHeight="1">
       <c r="A354" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>719</v>
+        <v>32</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="17.25" customHeight="1">
       <c r="A355" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>32</v>
+        <v>520</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="17.25" customHeight="1">
       <c r="A356" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>522</v>
+        <v>43</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="17.25" customHeight="1">
       <c r="A357" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>43</v>
+        <v>742</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="17.25" customHeight="1">
       <c r="A358" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>744</v>
+        <v>55</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="17.25" customHeight="1">
       <c r="A359" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>55</v>
+        <v>521</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="17.25" customHeight="1">
       <c r="A360" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>523</v>
+        <v>738</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="17.25" customHeight="1">
       <c r="A361" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>740</v>
+        <v>73</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="17.25" customHeight="1">
       <c r="A362" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="17.25" customHeight="1">
       <c r="A363" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="17.25" customHeight="1">
       <c r="A364" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="17.25" customHeight="1">
       <c r="A365" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="17.25" customHeight="1">
       <c r="A366" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="17.25" customHeight="1">
       <c r="A367" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="17.25" customHeight="1">
       <c r="A368" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" ht="17.25" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="17.25" customHeight="1">
       <c r="A369" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" ht="17.25" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="17.25" customHeight="1">
       <c r="A370" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" ht="17.25" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="17.25" customHeight="1">
       <c r="A371" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" ht="17.25" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="17.25" customHeight="1">
       <c r="A372" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" ht="17.25" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="17.25" customHeight="1">
       <c r="A373" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" ht="17.25" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="17.25" customHeight="1">
       <c r="A374" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" ht="17.25" customHeight="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="17.25" customHeight="1">
       <c r="A375" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" ht="17.25" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="17.25" customHeight="1">
       <c r="A376" s="1" t="s">
-        <v>175</v>
+        <v>483</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" ht="17.25" customHeight="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="17.25" customHeight="1">
       <c r="A377" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" ht="17.25" customHeight="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="17.25" customHeight="1">
       <c r="A378" s="1" t="s">
-        <v>483</v>
+        <v>744</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" ht="17.25" customHeight="1">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="17.25" customHeight="1">
       <c r="A379" s="1" t="s">
         <v>746</v>
       </c>
@@ -5983,112 +5990,112 @@
         <v>745</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="17.25" customHeight="1">
+    <row r="380" spans="1:4" ht="17.25" customHeight="1">
       <c r="A380" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A381" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B380" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A381" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B381" s="4" t="s">
+      <c r="B381" s="5" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A382" s="1" t="s">
+    <row r="382" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A382" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="B382" s="5" t="s">
+      <c r="B382" s="7" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A383" s="6" t="s">
+    <row r="383" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A383" s="1" t="s">
         <v>752</v>
       </c>
       <c r="B383" s="7" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A384" s="1" t="s">
+    <row r="384" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A384" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="B384" s="7" t="s">
+      <c r="B384" s="9" t="s">
         <v>755</v>
       </c>
+      <c r="C384" s="10"/>
+      <c r="D384" s="8"/>
     </row>
     <row r="385" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A385" s="8" t="s">
+      <c r="A385" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B385" s="9" t="s">
+      <c r="B385" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="C385" s="10"/>
-      <c r="D385" s="8"/>
     </row>
     <row r="386" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="B386" s="5" t="s">
+      <c r="B386" s="9" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A387" s="6" t="s">
+      <c r="A387" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="B387" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B387" s="9" t="s">
+    </row>
+    <row r="388" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A388" s="6" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A388" s="11" t="s">
+      <c r="B388" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A389" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="B388" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A389" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="B389" s="9" t="s">
+      <c r="B389" s="14" t="s">
         <v>765</v>
       </c>
+      <c r="C389" s="14"/>
+      <c r="D389" s="12"/>
     </row>
     <row r="390" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A390" s="13" t="s">
+      <c r="A390" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B390" s="14" t="s">
+      <c r="B390" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="C390" s="14"/>
-      <c r="D390" s="12"/>
     </row>
     <row r="391" spans="1:4" ht="17.25" customHeight="1">
       <c r="A391" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B391" s="4" t="s">
+      <c r="B391" s="15" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="17.25" customHeight="1">
       <c r="A392" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B392" s="16" t="s">
         <v>770</v>
-      </c>
-      <c r="B392" s="15" t="s">
-        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/all_packages.xlsx
+++ b/all_packages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="782">
   <si>
     <t>Base</t>
   </si>
@@ -2494,12 +2494,42 @@
   <si>
     <t>skimr</t>
   </si>
+  <si>
+    <t>richarddmorey/tweetRcode</t>
+  </si>
+  <si>
+    <t>mvuorre/brmstools</t>
+  </si>
+  <si>
+    <t>https://edwinth.github.io/blog/paletti/</t>
+  </si>
+  <si>
+    <t>Addin to tweet from Rstudio</t>
+  </si>
+  <si>
+    <t>Helper functions for plotting bayes brms</t>
+  </si>
+  <si>
+    <t>Create your own color palette</t>
+  </si>
+  <si>
+    <t>rtweet</t>
+  </si>
+  <si>
+    <t>Required for tweetRcode addin to work</t>
+  </si>
+  <si>
+    <t>ggstance</t>
+  </si>
+  <si>
+    <t>ggstance implements horizontal versions of common ggplot2 Geoms, Stats, and Positions. Required for brmstools</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2525,13 +2555,6 @@
       <color rgb="FF333333"/>
       <name val="Palatino Linotype"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF666666"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2561,11 +2584,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFA3BE8C"/>
-      <name val="Space Mono"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFE95420"/>
       <name val="Palatino Linotype"/>
       <family val="1"/>
@@ -2581,12 +2599,6 @@
       <color rgb="FF333333"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2614,9 +2626,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2628,24 +2640,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -2944,13 +2942,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:D397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD81"/>
+    <sheetView tabSelected="1" topLeftCell="B369" workbookViewId="0">
+      <selection activeCell="B397" sqref="A393:B397"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.140625" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" style="1"/>
     <col min="2" max="2" width="238.140625" style="1" customWidth="1"/>
@@ -2958,7 +2956,7 @@
     <col min="4" max="16384" width="29.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2966,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2974,7 +2972,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2982,7 +2980,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2990,7 +2988,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1">
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2998,7 +2996,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1">
+    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,7 +3004,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" customHeight="1">
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -3014,7 +3012,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25" customHeight="1">
+    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -3022,7 +3020,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25" customHeight="1">
+    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -3030,7 +3028,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.25" customHeight="1">
+    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -3038,7 +3036,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.25" customHeight="1">
+    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -3046,7 +3044,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.25" customHeight="1">
+    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,7 +3052,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.25" customHeight="1">
+    <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -3062,7 +3060,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.25" customHeight="1">
+    <row r="14" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -3070,7 +3068,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.25" customHeight="1">
+    <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
@@ -3078,7 +3076,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.25" customHeight="1">
+    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>95</v>
       </c>
@@ -3086,7 +3084,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.25" customHeight="1">
+    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>102</v>
       </c>
@@ -3094,7 +3092,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.25" customHeight="1">
+    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
@@ -3102,7 +3100,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.25" customHeight="1">
+    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
@@ -3110,7 +3108,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.25" customHeight="1">
+    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>124</v>
       </c>
@@ -3118,7 +3116,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.25" customHeight="1">
+    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>132</v>
       </c>
@@ -3126,7 +3124,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.25" customHeight="1">
+    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>138</v>
       </c>
@@ -3134,7 +3132,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.25" customHeight="1">
+    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>144</v>
       </c>
@@ -3142,7 +3140,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1">
+    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>152</v>
       </c>
@@ -3150,7 +3148,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.25" customHeight="1">
+    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>158</v>
       </c>
@@ -3158,7 +3156,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.25" customHeight="1">
+    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>163</v>
       </c>
@@ -3166,7 +3164,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.25" customHeight="1">
+    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>170</v>
       </c>
@@ -3174,7 +3172,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.25" customHeight="1">
+    <row r="28" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>177</v>
       </c>
@@ -3182,7 +3180,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.25" customHeight="1">
+    <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>183</v>
       </c>
@@ -3190,7 +3188,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.25" customHeight="1">
+    <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>187</v>
       </c>
@@ -3198,7 +3196,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.25" customHeight="1">
+    <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>193</v>
       </c>
@@ -3206,7 +3204,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.25" customHeight="1">
+    <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>197</v>
       </c>
@@ -3214,7 +3212,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17.25" customHeight="1">
+    <row r="33" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>202</v>
       </c>
@@ -3222,7 +3220,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17.25" customHeight="1">
+    <row r="34" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>208</v>
       </c>
@@ -3230,7 +3228,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.25" customHeight="1">
+    <row r="35" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>214</v>
       </c>
@@ -3238,7 +3236,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.25" customHeight="1">
+    <row r="36" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>218</v>
       </c>
@@ -3246,7 +3244,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17.25" customHeight="1">
+    <row r="37" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>222</v>
       </c>
@@ -3254,7 +3252,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17.25" customHeight="1">
+    <row r="38" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>227</v>
       </c>
@@ -3262,7 +3260,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17.25" customHeight="1">
+    <row r="39" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>232</v>
       </c>
@@ -3270,7 +3268,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17.25" customHeight="1">
+    <row r="40" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>236</v>
       </c>
@@ -3278,7 +3276,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17.25" customHeight="1">
+    <row r="41" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>241</v>
       </c>
@@ -3286,7 +3284,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17.25" customHeight="1">
+    <row r="42" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>247</v>
       </c>
@@ -3294,7 +3292,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17.25" customHeight="1">
+    <row r="43" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>251</v>
       </c>
@@ -3302,7 +3300,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17.25" customHeight="1">
+    <row r="44" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>255</v>
       </c>
@@ -3310,7 +3308,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17.25" customHeight="1">
+    <row r="45" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>260</v>
       </c>
@@ -3318,7 +3316,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.25" customHeight="1">
+    <row r="46" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>264</v>
       </c>
@@ -3326,7 +3324,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17.25" customHeight="1">
+    <row r="47" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>269</v>
       </c>
@@ -3334,7 +3332,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17.25" customHeight="1">
+    <row r="48" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>273</v>
       </c>
@@ -3342,7 +3340,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17.25" customHeight="1">
+    <row r="49" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>276</v>
       </c>
@@ -3350,7 +3348,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17.25" customHeight="1">
+    <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>280</v>
       </c>
@@ -3358,7 +3356,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17.25" customHeight="1">
+    <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>285</v>
       </c>
@@ -3366,7 +3364,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17.25" customHeight="1">
+    <row r="52" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>289</v>
       </c>
@@ -3374,7 +3372,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17.25" customHeight="1">
+    <row r="53" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>294</v>
       </c>
@@ -3382,7 +3380,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17.25" customHeight="1">
+    <row r="54" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>298</v>
       </c>
@@ -3390,7 +3388,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17.25" customHeight="1">
+    <row r="55" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>302</v>
       </c>
@@ -3398,7 +3396,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17.25" customHeight="1">
+    <row r="56" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>306</v>
       </c>
@@ -3406,7 +3404,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17.25" customHeight="1">
+    <row r="57" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>312</v>
       </c>
@@ -3414,7 +3412,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17.25" customHeight="1">
+    <row r="58" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>318</v>
       </c>
@@ -3422,7 +3420,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17.25" customHeight="1">
+    <row r="59" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>322</v>
       </c>
@@ -3430,7 +3428,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17.25" customHeight="1">
+    <row r="60" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>327</v>
       </c>
@@ -3438,7 +3436,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17.25" customHeight="1">
+    <row r="61" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>332</v>
       </c>
@@ -3446,7 +3444,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17.25" customHeight="1">
+    <row r="62" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>336</v>
       </c>
@@ -3454,7 +3452,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17.25" customHeight="1">
+    <row r="63" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>342</v>
       </c>
@@ -3462,7 +3460,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17.25" customHeight="1">
+    <row r="64" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>347</v>
       </c>
@@ -3470,7 +3468,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17.25" customHeight="1">
+    <row r="65" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>354</v>
       </c>
@@ -3478,7 +3476,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17.25" customHeight="1">
+    <row r="66" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>359</v>
       </c>
@@ -3486,7 +3484,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17.25" customHeight="1">
+    <row r="67" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>363</v>
       </c>
@@ -3494,7 +3492,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17.25" customHeight="1">
+    <row r="68" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>367</v>
       </c>
@@ -3502,7 +3500,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17.25" customHeight="1">
+    <row r="69" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>370</v>
       </c>
@@ -3510,7 +3508,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17.25" customHeight="1">
+    <row r="70" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>375</v>
       </c>
@@ -3518,7 +3516,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17.25" customHeight="1">
+    <row r="71" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>382</v>
       </c>
@@ -3526,7 +3524,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17.25" customHeight="1">
+    <row r="72" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>387</v>
       </c>
@@ -3534,7 +3532,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="17.25" customHeight="1">
+    <row r="73" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>391</v>
       </c>
@@ -3542,7 +3540,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="17.25" customHeight="1">
+    <row r="74" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>394</v>
       </c>
@@ -3550,7 +3548,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17.25" customHeight="1">
+    <row r="75" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>398</v>
       </c>
@@ -3558,7 +3556,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="17.25" customHeight="1">
+    <row r="76" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>402</v>
       </c>
@@ -3566,7 +3564,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="17.25" customHeight="1">
+    <row r="77" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>405</v>
       </c>
@@ -3574,7 +3572,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="17.25" customHeight="1">
+    <row r="78" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>409</v>
       </c>
@@ -3582,7 +3580,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="17.25" customHeight="1">
+    <row r="79" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>413</v>
       </c>
@@ -3590,7 +3588,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="17.25" customHeight="1">
+    <row r="80" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>418</v>
       </c>
@@ -3598,7 +3596,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="17.25" customHeight="1">
+    <row r="81" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>425</v>
       </c>
@@ -3606,7 +3604,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="17.25" customHeight="1">
+    <row r="82" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>430</v>
       </c>
@@ -3614,7 +3612,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="17.25" customHeight="1">
+    <row r="83" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>436</v>
       </c>
@@ -3622,7 +3620,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="17.25" customHeight="1">
+    <row r="84" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>441</v>
       </c>
@@ -3630,7 +3628,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="17.25" customHeight="1">
+    <row r="85" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>447</v>
       </c>
@@ -3638,7 +3636,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="17.25" customHeight="1">
+    <row r="86" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>454</v>
       </c>
@@ -3646,7 +3644,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="17.25" customHeight="1">
+    <row r="87" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>460</v>
       </c>
@@ -3654,7 +3652,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="17.25" customHeight="1">
+    <row r="88" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>465</v>
       </c>
@@ -3662,7 +3660,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="17.25" customHeight="1">
+    <row r="89" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>2</v>
       </c>
@@ -3670,7 +3668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17.25" customHeight="1">
+    <row r="90" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
@@ -3678,7 +3676,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="17.25" customHeight="1">
+    <row r="91" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -3686,7 +3684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="17.25" customHeight="1">
+    <row r="92" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>22</v>
       </c>
@@ -3694,7 +3692,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="17.25" customHeight="1">
+    <row r="93" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>28</v>
       </c>
@@ -3702,7 +3700,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="17.25" customHeight="1">
+    <row r="94" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>34</v>
       </c>
@@ -3710,7 +3708,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="17.25" customHeight="1">
+    <row r="95" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>39</v>
       </c>
@@ -3718,7 +3716,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="17.25" customHeight="1">
+    <row r="96" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>45</v>
       </c>
@@ -3726,7 +3724,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="17.25" customHeight="1">
+    <row r="97" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>51</v>
       </c>
@@ -3734,7 +3732,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="17.25" customHeight="1">
+    <row r="98" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>57</v>
       </c>
@@ -3742,7 +3740,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="17.25" customHeight="1">
+    <row r="99" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>63</v>
       </c>
@@ -3750,7 +3748,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="17.25" customHeight="1">
+    <row r="100" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>68</v>
       </c>
@@ -3758,7 +3756,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="17.25" customHeight="1">
+    <row r="101" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>75</v>
       </c>
@@ -3766,7 +3764,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="17.25" customHeight="1">
+    <row r="102" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>81</v>
       </c>
@@ -3774,7 +3772,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="17.25" customHeight="1">
+    <row r="103" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>88</v>
       </c>
@@ -3782,7 +3780,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="17.25" customHeight="1">
+    <row r="104" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>96</v>
       </c>
@@ -3790,7 +3788,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="17.25" customHeight="1">
+    <row r="105" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
@@ -3798,7 +3796,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="17.25" customHeight="1">
+    <row r="106" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>112</v>
       </c>
@@ -3806,7 +3804,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="17.25" customHeight="1">
+    <row r="107" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
@@ -3814,7 +3812,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="17.25" customHeight="1">
+    <row r="108" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>126</v>
       </c>
@@ -3822,7 +3820,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="17.25" customHeight="1">
+    <row r="109" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>133</v>
       </c>
@@ -3830,7 +3828,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="17.25" customHeight="1">
+    <row r="110" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>139</v>
       </c>
@@ -3838,7 +3836,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="17.25" customHeight="1">
+    <row r="111" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>146</v>
       </c>
@@ -3846,7 +3844,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="17.25" customHeight="1">
+    <row r="112" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>153</v>
       </c>
@@ -3854,7 +3852,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="17.25" customHeight="1">
+    <row r="113" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>159</v>
       </c>
@@ -3862,7 +3860,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="17.25" customHeight="1">
+    <row r="114" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>164</v>
       </c>
@@ -3870,7 +3868,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="17.25" customHeight="1">
+    <row r="115" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>172</v>
       </c>
@@ -3878,7 +3876,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="17.25" customHeight="1">
+    <row r="116" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>179</v>
       </c>
@@ -3886,7 +3884,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="17.25" customHeight="1">
+    <row r="117" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>184</v>
       </c>
@@ -3894,7 +3892,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="17.25" customHeight="1">
+    <row r="118" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>188</v>
       </c>
@@ -3902,7 +3900,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="17.25" customHeight="1">
+    <row r="119" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>194</v>
       </c>
@@ -3910,7 +3908,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="17.25" customHeight="1">
+    <row r="120" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>199</v>
       </c>
@@ -3918,7 +3916,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="17.25" customHeight="1">
+    <row r="121" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>204</v>
       </c>
@@ -3926,7 +3924,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="17.25" customHeight="1">
+    <row r="122" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>209</v>
       </c>
@@ -3934,7 +3932,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="17.25" customHeight="1">
+    <row r="123" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>215</v>
       </c>
@@ -3942,7 +3940,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="17.25" customHeight="1">
+    <row r="124" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>219</v>
       </c>
@@ -3950,7 +3948,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="17.25" customHeight="1">
+    <row r="125" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>223</v>
       </c>
@@ -3958,7 +3956,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="17.25" customHeight="1">
+    <row r="126" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>228</v>
       </c>
@@ -3966,7 +3964,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="17.25" customHeight="1">
+    <row r="127" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>233</v>
       </c>
@@ -3974,7 +3972,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="17.25" customHeight="1">
+    <row r="128" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>238</v>
       </c>
@@ -3982,7 +3980,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="17.25" customHeight="1">
+    <row r="129" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>242</v>
       </c>
@@ -3990,7 +3988,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="17.25" customHeight="1">
+    <row r="130" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>248</v>
       </c>
@@ -3998,7 +3996,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="17.25" customHeight="1">
+    <row r="131" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>252</v>
       </c>
@@ -4006,7 +4004,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="17.25" customHeight="1">
+    <row r="132" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>256</v>
       </c>
@@ -4014,7 +4012,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="17.25" customHeight="1">
+    <row r="133" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>261</v>
       </c>
@@ -4022,7 +4020,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="17.25" customHeight="1">
+    <row r="134" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>265</v>
       </c>
@@ -4030,7 +4028,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="17.25" customHeight="1">
+    <row r="135" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>270</v>
       </c>
@@ -4038,7 +4036,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="17.25" customHeight="1">
+    <row r="136" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>274</v>
       </c>
@@ -4046,7 +4044,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="17.25" customHeight="1">
+    <row r="137" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>277</v>
       </c>
@@ -4054,7 +4052,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="17.25" customHeight="1">
+    <row r="138" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>282</v>
       </c>
@@ -4062,7 +4060,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="17.25" customHeight="1">
+    <row r="139" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>286</v>
       </c>
@@ -4070,7 +4068,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="17.25" customHeight="1">
+    <row r="140" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>291</v>
       </c>
@@ -4078,7 +4076,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="17.25" customHeight="1">
+    <row r="141" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>295</v>
       </c>
@@ -4086,7 +4084,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="17.25" customHeight="1">
+    <row r="142" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>299</v>
       </c>
@@ -4094,7 +4092,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="17.25" customHeight="1">
+    <row r="143" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>303</v>
       </c>
@@ -4102,7 +4100,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="17.25" customHeight="1">
+    <row r="144" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>307</v>
       </c>
@@ -4110,7 +4108,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="17.25" customHeight="1">
+    <row r="145" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>314</v>
       </c>
@@ -4118,7 +4116,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="17.25" customHeight="1">
+    <row r="146" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>319</v>
       </c>
@@ -4126,7 +4124,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="17.25" customHeight="1">
+    <row r="147" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>324</v>
       </c>
@@ -4134,7 +4132,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="17.25" customHeight="1">
+    <row r="148" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>328</v>
       </c>
@@ -4142,7 +4140,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="17.25" customHeight="1">
+    <row r="149" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>333</v>
       </c>
@@ -4150,7 +4148,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="17.25" customHeight="1">
+    <row r="150" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>337</v>
       </c>
@@ -4158,7 +4156,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="17.25" customHeight="1">
+    <row r="151" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>343</v>
       </c>
@@ -4166,7 +4164,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="17.25" customHeight="1">
+    <row r="152" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>348</v>
       </c>
@@ -4174,7 +4172,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="17.25" customHeight="1">
+    <row r="153" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>355</v>
       </c>
@@ -4182,7 +4180,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="17.25" customHeight="1">
+    <row r="154" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>360</v>
       </c>
@@ -4190,7 +4188,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="17.25" customHeight="1">
+    <row r="155" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>364</v>
       </c>
@@ -4198,7 +4196,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="17.25" customHeight="1">
+    <row r="156" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>368</v>
       </c>
@@ -4206,7 +4204,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="17.25" customHeight="1">
+    <row r="157" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>485</v>
       </c>
@@ -4214,7 +4212,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="17.25" customHeight="1">
+    <row r="158" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>371</v>
       </c>
@@ -4222,7 +4220,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="17.25" customHeight="1">
+    <row r="159" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>377</v>
       </c>
@@ -4230,7 +4228,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="17.25" customHeight="1">
+    <row r="160" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>4</v>
       </c>
@@ -4238,7 +4236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="17.25" customHeight="1">
+    <row r="161" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>12</v>
       </c>
@@ -4246,7 +4244,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="17.25" customHeight="1">
+    <row r="162" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>17</v>
       </c>
@@ -4254,7 +4252,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="17.25" customHeight="1">
+    <row r="163" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>23</v>
       </c>
@@ -4262,7 +4260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="17.25" customHeight="1">
+    <row r="164" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>29</v>
       </c>
@@ -4270,7 +4268,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="17.25" customHeight="1">
+    <row r="165" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>35</v>
       </c>
@@ -4278,7 +4276,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="17.25" customHeight="1">
+    <row r="166" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>40</v>
       </c>
@@ -4286,7 +4284,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="17.25" customHeight="1">
+    <row r="167" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>46</v>
       </c>
@@ -4294,7 +4292,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="17.25" customHeight="1">
+    <row r="168" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>52</v>
       </c>
@@ -4302,7 +4300,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="17.25" customHeight="1">
+    <row r="169" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>58</v>
       </c>
@@ -4310,7 +4308,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="17.25" customHeight="1">
+    <row r="170" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>64</v>
       </c>
@@ -4318,7 +4316,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="17.25" customHeight="1">
+    <row r="171" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>70</v>
       </c>
@@ -4326,7 +4324,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="17.25" customHeight="1">
+    <row r="172" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>76</v>
       </c>
@@ -4334,7 +4332,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="17.25" customHeight="1">
+    <row r="173" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>82</v>
       </c>
@@ -4342,7 +4340,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="17.25" customHeight="1">
+    <row r="174" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>90</v>
       </c>
@@ -4350,7 +4348,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="17.25" customHeight="1">
+    <row r="175" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>97</v>
       </c>
@@ -4358,7 +4356,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="17.25" customHeight="1">
+    <row r="176" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>104</v>
       </c>
@@ -4366,7 +4364,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="17.25" customHeight="1">
+    <row r="177" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>113</v>
       </c>
@@ -4374,7 +4372,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="17.25" customHeight="1">
+    <row r="178" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>120</v>
       </c>
@@ -4382,7 +4380,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="17.25" customHeight="1">
+    <row r="179" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>128</v>
       </c>
@@ -4390,7 +4388,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="17.25" customHeight="1">
+    <row r="180" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>134</v>
       </c>
@@ -4398,7 +4396,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="17.25" customHeight="1">
+    <row r="181" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>140</v>
       </c>
@@ -4406,7 +4404,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="17.25" customHeight="1">
+    <row r="182" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>147</v>
       </c>
@@ -4414,7 +4412,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="17.25" customHeight="1">
+    <row r="183" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>155</v>
       </c>
@@ -4422,7 +4420,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="17.25" customHeight="1">
+    <row r="184" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>160</v>
       </c>
@@ -4430,7 +4428,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="17.25" customHeight="1">
+    <row r="185" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>165</v>
       </c>
@@ -4438,7 +4436,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="17.25" customHeight="1">
+    <row r="186" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>173</v>
       </c>
@@ -4446,7 +4444,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="17.25" customHeight="1">
+    <row r="187" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>180</v>
       </c>
@@ -4454,7 +4452,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="17.25" customHeight="1">
+    <row r="188" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>185</v>
       </c>
@@ -4462,7 +4460,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="17.25" customHeight="1">
+    <row r="189" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -4470,7 +4468,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="17.25" customHeight="1">
+    <row r="190" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>195</v>
       </c>
@@ -4478,7 +4476,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="17.25" customHeight="1">
+    <row r="191" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>200</v>
       </c>
@@ -4486,7 +4484,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="17.25" customHeight="1">
+    <row r="192" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>206</v>
       </c>
@@ -4494,7 +4492,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="17.25" customHeight="1">
+    <row r="193" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>210</v>
       </c>
@@ -4502,7 +4500,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="17.25" customHeight="1">
+    <row r="194" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>216</v>
       </c>
@@ -4510,7 +4508,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="17.25" customHeight="1">
+    <row r="195" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>220</v>
       </c>
@@ -4518,7 +4516,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="17.25" customHeight="1">
+    <row r="196" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>225</v>
       </c>
@@ -4526,7 +4524,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="17.25" customHeight="1">
+    <row r="197" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>229</v>
       </c>
@@ -4534,7 +4532,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="17.25" customHeight="1">
+    <row r="198" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>234</v>
       </c>
@@ -4542,7 +4540,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="17.25" customHeight="1">
+    <row r="199" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>239</v>
       </c>
@@ -4550,7 +4548,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="17.25" customHeight="1">
+    <row r="200" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>243</v>
       </c>
@@ -4558,7 +4556,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="17.25" customHeight="1">
+    <row r="201" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>249</v>
       </c>
@@ -4566,7 +4564,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="17.25" customHeight="1">
+    <row r="202" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>253</v>
       </c>
@@ -4574,7 +4572,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="17.25" customHeight="1">
+    <row r="203" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>257</v>
       </c>
@@ -4582,7 +4580,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="17.25" customHeight="1">
+    <row r="204" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>262</v>
       </c>
@@ -4590,7 +4588,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="17.25" customHeight="1">
+    <row r="205" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>267</v>
       </c>
@@ -4598,7 +4596,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="17.25" customHeight="1">
+    <row r="206" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>271</v>
       </c>
@@ -4606,7 +4604,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="17.25" customHeight="1">
+    <row r="207" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>275</v>
       </c>
@@ -4614,7 +4612,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="17.25" customHeight="1">
+    <row r="208" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>278</v>
       </c>
@@ -4622,7 +4620,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="17.25" customHeight="1">
+    <row r="209" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>283</v>
       </c>
@@ -4630,7 +4628,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="17.25" customHeight="1">
+    <row r="210" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>287</v>
       </c>
@@ -4638,7 +4636,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="17.25" customHeight="1">
+    <row r="211" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>292</v>
       </c>
@@ -4646,7 +4644,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="17.25" customHeight="1">
+    <row r="212" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>296</v>
       </c>
@@ -4654,7 +4652,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="17.25" customHeight="1">
+    <row r="213" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>54</v>
       </c>
@@ -4662,7 +4660,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="17.25" customHeight="1">
+    <row r="214" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>304</v>
       </c>
@@ -4670,7 +4668,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="17.25" customHeight="1">
+    <row r="215" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>308</v>
       </c>
@@ -4678,7 +4676,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="17.25" customHeight="1">
+    <row r="216" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>315</v>
       </c>
@@ -4686,7 +4684,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="17.25" customHeight="1">
+    <row r="217" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>320</v>
       </c>
@@ -4694,7 +4692,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="17.25" customHeight="1">
+    <row r="218" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>325</v>
       </c>
@@ -4702,7 +4700,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="17.25" customHeight="1">
+    <row r="219" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>329</v>
       </c>
@@ -4710,7 +4708,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="17.25" customHeight="1">
+    <row r="220" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>334</v>
       </c>
@@ -4718,7 +4716,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="17.25" customHeight="1">
+    <row r="221" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>338</v>
       </c>
@@ -4726,7 +4724,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="17.25" customHeight="1">
+    <row r="222" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>344</v>
       </c>
@@ -4734,7 +4732,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="17.25" customHeight="1">
+    <row r="223" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>350</v>
       </c>
@@ -4742,7 +4740,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="17.25" customHeight="1">
+    <row r="224" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>357</v>
       </c>
@@ -4750,7 +4748,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="17.25" customHeight="1">
+    <row r="225" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>361</v>
       </c>
@@ -4758,7 +4756,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="17.25" customHeight="1">
+    <row r="226" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>365</v>
       </c>
@@ -4766,7 +4764,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="17.25" customHeight="1">
+    <row r="227" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>369</v>
       </c>
@@ -4774,7 +4772,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="17.25" customHeight="1">
+    <row r="228" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>373</v>
       </c>
@@ -4782,7 +4780,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="17.25" customHeight="1">
+    <row r="229" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>379</v>
       </c>
@@ -4790,7 +4788,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="17.25" customHeight="1">
+    <row r="230" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>384</v>
       </c>
@@ -4798,7 +4796,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="17.25" customHeight="1">
+    <row r="231" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>388</v>
       </c>
@@ -4806,7 +4804,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="17.25" customHeight="1">
+    <row r="232" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>392</v>
       </c>
@@ -4814,7 +4812,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="17.25" customHeight="1">
+    <row r="233" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>395</v>
       </c>
@@ -4822,7 +4820,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="17.25" customHeight="1">
+    <row r="234" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>399</v>
       </c>
@@ -4830,7 +4828,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="17.25" customHeight="1">
+    <row r="235" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>403</v>
       </c>
@@ -4838,7 +4836,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="17.25" customHeight="1">
+    <row r="236" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>406</v>
       </c>
@@ -4846,7 +4844,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="17.25" customHeight="1">
+    <row r="237" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>410</v>
       </c>
@@ -4854,7 +4852,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="17.25" customHeight="1">
+    <row r="238" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>415</v>
       </c>
@@ -4862,7 +4860,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="17.25" customHeight="1">
+    <row r="239" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>420</v>
       </c>
@@ -4870,7 +4868,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="17.25" customHeight="1">
+    <row r="240" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>422</v>
       </c>
@@ -4878,7 +4876,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="17.25" customHeight="1">
+    <row r="241" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>427</v>
       </c>
@@ -4886,7 +4884,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="17.25" customHeight="1">
+    <row r="242" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>432</v>
       </c>
@@ -4894,7 +4892,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="17.25" customHeight="1">
+    <row r="243" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>438</v>
       </c>
@@ -4902,7 +4900,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="17.25" customHeight="1">
+    <row r="244" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>443</v>
       </c>
@@ -4910,7 +4908,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="17.25" customHeight="1">
+    <row r="245" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>449</v>
       </c>
@@ -4918,7 +4916,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="17.25" customHeight="1">
+    <row r="246" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>451</v>
       </c>
@@ -4926,7 +4924,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="17.25" customHeight="1">
+    <row r="247" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>456</v>
       </c>
@@ -4934,7 +4932,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="17.25" customHeight="1">
+    <row r="248" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>462</v>
       </c>
@@ -4942,7 +4940,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="17.25" customHeight="1">
+    <row r="249" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>467</v>
       </c>
@@ -4950,7 +4948,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="17.25" customHeight="1">
+    <row r="250" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>470</v>
       </c>
@@ -4958,7 +4956,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="17.25" customHeight="1">
+    <row r="251" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>6</v>
       </c>
@@ -4966,7 +4964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="17.25" customHeight="1">
+    <row r="252" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>13</v>
       </c>
@@ -4974,7 +4972,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="17.25" customHeight="1">
+    <row r="253" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>18</v>
       </c>
@@ -4982,7 +4980,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="17.25" customHeight="1">
+    <row r="254" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>25</v>
       </c>
@@ -4990,7 +4988,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="17.25" customHeight="1">
+    <row r="255" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>30</v>
       </c>
@@ -4998,7 +4996,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="17.25" customHeight="1">
+    <row r="256" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>36</v>
       </c>
@@ -5006,7 +5004,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="17.25" customHeight="1">
+    <row r="257" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>41</v>
       </c>
@@ -5014,7 +5012,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="17.25" customHeight="1">
+    <row r="258" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>48</v>
       </c>
@@ -5022,7 +5020,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="17.25" customHeight="1">
+    <row r="259" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>53</v>
       </c>
@@ -5030,7 +5028,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="17.25" customHeight="1">
+    <row r="260" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>59</v>
       </c>
@@ -5038,7 +5036,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="17.25" customHeight="1">
+    <row r="261" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>65</v>
       </c>
@@ -5046,7 +5044,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="17.25" customHeight="1">
+    <row r="262" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>71</v>
       </c>
@@ -5054,7 +5052,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="17.25" customHeight="1">
+    <row r="263" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>77</v>
       </c>
@@ -5062,7 +5060,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="17.25" customHeight="1">
+    <row r="264" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>83</v>
       </c>
@@ -5070,7 +5068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="17.25" customHeight="1">
+    <row r="265" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>91</v>
       </c>
@@ -5078,7 +5076,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="17.25" customHeight="1">
+    <row r="266" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>98</v>
       </c>
@@ -5086,7 +5084,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="17.25" customHeight="1">
+    <row r="267" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>106</v>
       </c>
@@ -5094,7 +5092,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="17.25" customHeight="1">
+    <row r="268" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>114</v>
       </c>
@@ -5102,7 +5100,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="17.25" customHeight="1">
+    <row r="269" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>121</v>
       </c>
@@ -5110,7 +5108,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="17.25" customHeight="1">
+    <row r="270" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>129</v>
       </c>
@@ -5118,7 +5116,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="17.25" customHeight="1">
+    <row r="271" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>135</v>
       </c>
@@ -5126,7 +5124,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="17.25" customHeight="1">
+    <row r="272" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>141</v>
       </c>
@@ -5134,7 +5132,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="17.25" customHeight="1">
+    <row r="273" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>148</v>
       </c>
@@ -5142,7 +5140,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="17.25" customHeight="1">
+    <row r="274" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>156</v>
       </c>
@@ -5150,7 +5148,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="17.25" customHeight="1">
+    <row r="275" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>161</v>
       </c>
@@ -5158,7 +5156,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="17.25" customHeight="1">
+    <row r="276" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>166</v>
       </c>
@@ -5166,7 +5164,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="17.25" customHeight="1">
+    <row r="277" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>174</v>
       </c>
@@ -5174,7 +5172,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="17.25" customHeight="1">
+    <row r="278" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>181</v>
       </c>
@@ -5182,7 +5180,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="17.25" customHeight="1">
+    <row r="279" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>186</v>
       </c>
@@ -5190,7 +5188,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="17.25" customHeight="1">
+    <row r="280" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>192</v>
       </c>
@@ -5198,7 +5196,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="17.25" customHeight="1">
+    <row r="281" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>196</v>
       </c>
@@ -5206,7 +5204,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="17.25" customHeight="1">
+    <row r="282" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>201</v>
       </c>
@@ -5214,7 +5212,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="17.25" customHeight="1">
+    <row r="283" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>207</v>
       </c>
@@ -5222,7 +5220,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="17.25" customHeight="1">
+    <row r="284" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>212</v>
       </c>
@@ -5230,7 +5228,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="17.25" customHeight="1">
+    <row r="285" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>217</v>
       </c>
@@ -5238,7 +5236,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="17.25" customHeight="1">
+    <row r="286" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>221</v>
       </c>
@@ -5246,7 +5244,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="17.25" customHeight="1">
+    <row r="287" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>226</v>
       </c>
@@ -5254,7 +5252,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="17.25" customHeight="1">
+    <row r="288" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>230</v>
       </c>
@@ -5262,7 +5260,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="17.25" customHeight="1">
+    <row r="289" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>235</v>
       </c>
@@ -5270,7 +5268,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="17.25" customHeight="1">
+    <row r="290" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>240</v>
       </c>
@@ -5278,7 +5276,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="17.25" customHeight="1">
+    <row r="291" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>245</v>
       </c>
@@ -5286,7 +5284,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="17.25" customHeight="1">
+    <row r="292" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>487</v>
       </c>
@@ -5294,7 +5292,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="17.25" customHeight="1">
+    <row r="293" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>250</v>
       </c>
@@ -5302,7 +5300,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="17.25" customHeight="1">
+    <row r="294" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>254</v>
       </c>
@@ -5310,7 +5308,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="17.25" customHeight="1">
+    <row r="295" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>258</v>
       </c>
@@ -5318,7 +5316,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="17.25" customHeight="1">
+    <row r="296" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>263</v>
       </c>
@@ -5326,7 +5324,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="17.25" customHeight="1">
+    <row r="297" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>268</v>
       </c>
@@ -5334,7 +5332,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="17.25" customHeight="1">
+    <row r="298" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>272</v>
       </c>
@@ -5342,7 +5340,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="17.25" customHeight="1">
+    <row r="299" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>26</v>
       </c>
@@ -5350,7 +5348,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="17.25" customHeight="1">
+    <row r="300" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>279</v>
       </c>
@@ -5358,7 +5356,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="17.25" customHeight="1">
+    <row r="301" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>284</v>
       </c>
@@ -5366,7 +5364,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="17.25" customHeight="1">
+    <row r="302" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>288</v>
       </c>
@@ -5374,7 +5372,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="17.25" customHeight="1">
+    <row r="303" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>293</v>
       </c>
@@ -5382,7 +5380,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="17.25" customHeight="1">
+    <row r="304" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>297</v>
       </c>
@@ -5390,7 +5388,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="17.25" customHeight="1">
+    <row r="305" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>301</v>
       </c>
@@ -5398,7 +5396,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="17.25" customHeight="1">
+    <row r="306" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>305</v>
       </c>
@@ -5406,7 +5404,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="17.25" customHeight="1">
+    <row r="307" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>310</v>
       </c>
@@ -5414,7 +5412,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="17.25" customHeight="1">
+    <row r="308" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>317</v>
       </c>
@@ -5422,7 +5420,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="17.25" customHeight="1">
+    <row r="309" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>321</v>
       </c>
@@ -5430,7 +5428,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="17.25" customHeight="1">
+    <row r="310" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>326</v>
       </c>
@@ -5438,7 +5436,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="17.25" customHeight="1">
+    <row r="311" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>330</v>
       </c>
@@ -5446,7 +5444,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="17.25" customHeight="1">
+    <row r="312" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>335</v>
       </c>
@@ -5454,7 +5452,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="17.25" customHeight="1">
+    <row r="313" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>340</v>
       </c>
@@ -5462,7 +5460,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="17.25" customHeight="1">
+    <row r="314" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>345</v>
       </c>
@@ -5470,7 +5468,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="17.25" customHeight="1">
+    <row r="315" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>352</v>
       </c>
@@ -5478,7 +5476,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="17.25" customHeight="1">
+    <row r="316" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>358</v>
       </c>
@@ -5486,7 +5484,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="17.25" customHeight="1">
+    <row r="317" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>362</v>
       </c>
@@ -5494,7 +5492,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="17.25" customHeight="1">
+    <row r="318" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>366</v>
       </c>
@@ -5502,7 +5500,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="17.25" customHeight="1">
+    <row r="319" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>42</v>
       </c>
@@ -5510,7 +5508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="17.25" customHeight="1">
+    <row r="320" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>374</v>
       </c>
@@ -5518,7 +5516,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="17.25" customHeight="1">
+    <row r="321" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>380</v>
       </c>
@@ -5526,7 +5524,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="17.25" customHeight="1">
+    <row r="322" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>385</v>
       </c>
@@ -5534,7 +5532,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="17.25" customHeight="1">
+    <row r="323" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>389</v>
       </c>
@@ -5542,7 +5540,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="17.25" customHeight="1">
+    <row r="324" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>393</v>
       </c>
@@ -5550,7 +5548,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="17.25" customHeight="1">
+    <row r="325" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>396</v>
       </c>
@@ -5558,7 +5556,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="17.25" customHeight="1">
+    <row r="326" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>400</v>
       </c>
@@ -5566,7 +5564,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="17.25" customHeight="1">
+    <row r="327" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>404</v>
       </c>
@@ -5574,7 +5572,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="17.25" customHeight="1">
+    <row r="328" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>407</v>
       </c>
@@ -5582,7 +5580,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="17.25" customHeight="1">
+    <row r="329" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>411</v>
       </c>
@@ -5590,7 +5588,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="17.25" customHeight="1">
+    <row r="330" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>417</v>
       </c>
@@ -5598,7 +5596,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="17.25" customHeight="1">
+    <row r="331" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>421</v>
       </c>
@@ -5606,7 +5604,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="17.25" customHeight="1">
+    <row r="332" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>424</v>
       </c>
@@ -5614,7 +5612,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="17.25" customHeight="1">
+    <row r="333" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>429</v>
       </c>
@@ -5622,7 +5620,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="17.25" customHeight="1">
+    <row r="334" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>434</v>
       </c>
@@ -5630,7 +5628,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="17.25" customHeight="1">
+    <row r="335" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>440</v>
       </c>
@@ -5638,7 +5636,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="17.25" customHeight="1">
+    <row r="336" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>445</v>
       </c>
@@ -5646,7 +5644,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="17.25" customHeight="1">
+    <row r="337" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>450</v>
       </c>
@@ -5654,7 +5652,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="17.25" customHeight="1">
+    <row r="338" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>452</v>
       </c>
@@ -5662,7 +5660,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="17.25" customHeight="1">
+    <row r="339" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>458</v>
       </c>
@@ -5670,7 +5668,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="17.25" customHeight="1">
+    <row r="340" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>463</v>
       </c>
@@ -5678,7 +5676,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="17.25" customHeight="1">
+    <row r="341" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>469</v>
       </c>
@@ -5686,7 +5684,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="17.25" customHeight="1">
+    <row r="342" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>66</v>
       </c>
@@ -5694,7 +5692,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="17.25" customHeight="1">
+    <row r="343" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>472</v>
       </c>
@@ -5702,7 +5700,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="17.25" customHeight="1">
+    <row r="344" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>473</v>
       </c>
@@ -5710,7 +5708,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="17.25" customHeight="1">
+    <row r="345" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>474</v>
       </c>
@@ -5718,7 +5716,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="17.25" customHeight="1">
+    <row r="346" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>475</v>
       </c>
@@ -5726,7 +5724,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="17.25" customHeight="1">
+    <row r="347" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>476</v>
       </c>
@@ -5734,7 +5732,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="17.25" customHeight="1">
+    <row r="348" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>478</v>
       </c>
@@ -5742,7 +5740,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="17.25" customHeight="1">
+    <row r="349" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>480</v>
       </c>
@@ -5750,7 +5748,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="17.25" customHeight="1">
+    <row r="350" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>8</v>
       </c>
@@ -5758,7 +5756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="17.25" customHeight="1">
+    <row r="351" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>14</v>
       </c>
@@ -5766,7 +5764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="17.25" customHeight="1">
+    <row r="352" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>19</v>
       </c>
@@ -5774,7 +5772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="17.25" customHeight="1">
+    <row r="353" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>26</v>
       </c>
@@ -5782,7 +5780,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="17.25" customHeight="1">
+    <row r="354" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>31</v>
       </c>
@@ -5790,7 +5788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="17.25" customHeight="1">
+    <row r="355" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>37</v>
       </c>
@@ -5798,7 +5796,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="17.25" customHeight="1">
+    <row r="356" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>42</v>
       </c>
@@ -5806,7 +5804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="17.25" customHeight="1">
+    <row r="357" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>49</v>
       </c>
@@ -5814,7 +5812,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="17.25" customHeight="1">
+    <row r="358" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>54</v>
       </c>
@@ -5822,7 +5820,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="17.25" customHeight="1">
+    <row r="359" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>61</v>
       </c>
@@ -5830,7 +5828,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="17.25" customHeight="1">
+    <row r="360" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>66</v>
       </c>
@@ -5838,7 +5836,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="17.25" customHeight="1">
+    <row r="361" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>72</v>
       </c>
@@ -5846,7 +5844,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="17.25" customHeight="1">
+    <row r="362" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>78</v>
       </c>
@@ -5854,7 +5852,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="17.25" customHeight="1">
+    <row r="363" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>85</v>
       </c>
@@ -5862,7 +5860,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="17.25" customHeight="1">
+    <row r="364" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>93</v>
       </c>
@@ -5870,7 +5868,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="17.25" customHeight="1">
+    <row r="365" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>100</v>
       </c>
@@ -5878,7 +5876,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="17.25" customHeight="1">
+    <row r="366" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>108</v>
       </c>
@@ -5886,7 +5884,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="17.25" customHeight="1">
+    <row r="367" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>115</v>
       </c>
@@ -5894,7 +5892,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="17.25" customHeight="1">
+    <row r="368" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>122</v>
       </c>
@@ -5902,7 +5900,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="17.25" customHeight="1">
+    <row r="369" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>130</v>
       </c>
@@ -5910,7 +5908,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="17.25" customHeight="1">
+    <row r="370" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>136</v>
       </c>
@@ -5918,7 +5916,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="17.25" customHeight="1">
+    <row r="371" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>142</v>
       </c>
@@ -5926,7 +5924,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="17.25" customHeight="1">
+    <row r="372" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>150</v>
       </c>
@@ -5934,7 +5932,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="17.25" customHeight="1">
+    <row r="373" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>157</v>
       </c>
@@ -5942,7 +5940,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="17.25" customHeight="1">
+    <row r="374" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>168</v>
       </c>
@@ -5950,7 +5948,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="17.25" customHeight="1">
+    <row r="375" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>175</v>
       </c>
@@ -5958,7 +5956,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="17.25" customHeight="1">
+    <row r="376" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>483</v>
       </c>
@@ -5966,7 +5964,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="17.25" customHeight="1">
+    <row r="377" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>481</v>
       </c>
@@ -5974,7 +5972,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="17.25" customHeight="1">
+    <row r="378" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>744</v>
       </c>
@@ -5982,7 +5980,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="17.25" customHeight="1">
+    <row r="379" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>746</v>
       </c>
@@ -5990,7 +5988,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="17.25" customHeight="1">
+    <row r="380" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>338</v>
       </c>
@@ -5998,104 +5996,144 @@
         <v>747</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="17.25" customHeight="1">
+    <row r="381" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B381" s="5" t="s">
+      <c r="B381" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A382" s="6" t="s">
+    <row r="382" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A382" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B382" s="7" t="s">
+      <c r="B382" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="17.25" customHeight="1">
+    <row r="383" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B383" s="7" t="s">
+      <c r="B383" s="1" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A384" s="8" t="s">
+    <row r="384" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B384" s="9" t="s">
+      <c r="B384" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C384" s="10"/>
-      <c r="D384" s="8"/>
-    </row>
-    <row r="385" spans="1:4" ht="17.25" customHeight="1">
+      <c r="C384" s="6"/>
+      <c r="D384" s="5"/>
+    </row>
+    <row r="385" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B385" s="5" t="s">
+      <c r="B385" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A386" s="6" t="s">
+    <row r="386" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B386" s="9" t="s">
+      <c r="B386" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A387" s="11" t="s">
+    <row r="387" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
         <v>762</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A388" s="6" t="s">
+    <row r="388" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B388" s="9" t="s">
+      <c r="B388" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A389" s="13" t="s">
+    <row r="389" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B389" s="14" t="s">
+      <c r="B389" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C389" s="14"/>
-      <c r="D389" s="12"/>
-    </row>
-    <row r="390" spans="1:4" ht="17.25" customHeight="1">
+      <c r="C389" s="8"/>
+      <c r="D389" s="7"/>
+    </row>
+    <row r="390" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B390" s="4" t="s">
+      <c r="B390" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="17.25" customHeight="1">
+    <row r="391" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B391" s="15" t="s">
+      <c r="B391" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="17.25" customHeight="1">
+    <row r="392" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B392" s="16" t="s">
+      <c r="B392" s="1" t="s">
         <v>770</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B397" s="8" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/all_packages.xlsx
+++ b/all_packages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="809">
   <si>
     <t>Base</t>
   </si>
@@ -1417,9 +1417,6 @@
   </si>
   <si>
     <t>MilesMcBain/gistfo</t>
-  </si>
-  <si>
-    <t>Collect multiple functions for in-database visualization code.</t>
   </si>
   <si>
     <t>gabrielrvsc/Hdeconometrics</t>
@@ -2523,6 +2520,90 @@
   </si>
   <si>
     <t>ggstance implements horizontal versions of common ggplot2 Geoms, Stats, and Positions. Required for brmstools</t>
+  </si>
+  <si>
+    <t>Search for packages and functions inside Rstudio</t>
+  </si>
+  <si>
+    <t>DataExplorer</t>
+  </si>
+  <si>
+    <t>Preliminary Data Exploration</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>user interaction</t>
+  </si>
+  <si>
+    <t>data simultion</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>formatting</t>
+  </si>
+  <si>
+    <t>data manipulation</t>
+  </si>
+  <si>
+    <t>fonts</t>
+  </si>
+  <si>
+    <t>read/write</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Data ingestion</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>stats</t>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>databases</t>
+  </si>
+  <si>
+    <t>quant</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>Descriptive</t>
+  </si>
+  <si>
+    <t>cli</t>
+  </si>
+  <si>
+    <t>Turn your RStudio untitled tabs into gists. You monsters.</t>
   </si>
 </sst>
 </file>
@@ -2942,21 +3023,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D397"/>
+  <dimension ref="A1:D399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B369" workbookViewId="0">
-      <selection activeCell="B397" sqref="A393:B397"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" style="1"/>
-    <col min="2" max="2" width="238.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="204" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="29.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2964,703 +3045,964 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>394</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>398</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>405</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>425</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>2</v>
       </c>
@@ -3668,15 +4010,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -3684,44 +4026,44 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3729,7 +4071,7 @@
         <v>51</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3737,7 +4079,7 @@
         <v>57</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3745,7 +4087,7 @@
         <v>63</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3761,7 +4103,7 @@
         <v>75</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3769,7 +4111,7 @@
         <v>81</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3785,7 +4127,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3793,7 +4135,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3801,7 +4143,7 @@
         <v>112</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3809,7 +4151,7 @@
         <v>119</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3825,7 +4167,7 @@
         <v>133</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3833,7 +4175,7 @@
         <v>139</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3841,7 +4183,7 @@
         <v>146</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3857,7 +4199,7 @@
         <v>159</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3865,7 +4207,7 @@
         <v>164</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3873,7 +4215,7 @@
         <v>172</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3881,7 +4223,7 @@
         <v>179</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3889,7 +4231,7 @@
         <v>184</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3905,7 +4247,7 @@
         <v>194</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3913,7 +4255,7 @@
         <v>199</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3929,7 +4271,7 @@
         <v>209</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3937,7 +4279,7 @@
         <v>215</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3945,7 +4287,7 @@
         <v>219</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3961,7 +4303,7 @@
         <v>228</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3969,7 +4311,7 @@
         <v>233</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3977,7 +4319,7 @@
         <v>238</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3985,7 +4327,7 @@
         <v>242</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3993,7 +4335,7 @@
         <v>248</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4001,7 +4343,7 @@
         <v>252</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4009,7 +4351,7 @@
         <v>256</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4017,7 +4359,7 @@
         <v>261</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4033,7 +4375,7 @@
         <v>270</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4041,7 +4383,7 @@
         <v>274</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4049,7 +4391,7 @@
         <v>277</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4057,7 +4399,7 @@
         <v>282</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4065,7 +4407,7 @@
         <v>286</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4073,7 +4415,7 @@
         <v>291</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4081,7 +4423,7 @@
         <v>295</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4097,7 +4439,7 @@
         <v>303</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4105,7 +4447,7 @@
         <v>307</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4113,7 +4455,7 @@
         <v>314</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4121,7 +4463,7 @@
         <v>319</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4129,7 +4471,7 @@
         <v>324</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4137,7 +4479,7 @@
         <v>328</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4145,7 +4487,7 @@
         <v>333</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4153,7 +4495,7 @@
         <v>337</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4161,7 +4503,7 @@
         <v>343</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4185,7 +4527,7 @@
         <v>360</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4193,7 +4535,7 @@
         <v>364</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4201,15 +4543,15 @@
         <v>368</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4241,7 +4583,7 @@
         <v>12</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4249,7 +4591,7 @@
         <v>17</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4265,7 +4607,7 @@
         <v>29</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4273,7 +4615,7 @@
         <v>35</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4281,7 +4623,7 @@
         <v>40</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4297,7 +4639,7 @@
         <v>52</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4305,7 +4647,7 @@
         <v>58</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4313,7 +4655,7 @@
         <v>64</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4321,7 +4663,7 @@
         <v>70</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4329,7 +4671,7 @@
         <v>76</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4337,7 +4679,7 @@
         <v>82</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4345,7 +4687,7 @@
         <v>90</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4353,7 +4695,7 @@
         <v>97</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4369,7 +4711,7 @@
         <v>113</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4377,7 +4719,7 @@
         <v>120</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4385,7 +4727,7 @@
         <v>128</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4393,7 +4735,7 @@
         <v>134</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4401,7 +4743,7 @@
         <v>140</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4409,7 +4751,7 @@
         <v>147</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4417,7 +4759,7 @@
         <v>155</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4425,7 +4767,7 @@
         <v>160</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4433,7 +4775,7 @@
         <v>165</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4441,7 +4783,7 @@
         <v>173</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4449,7 +4791,7 @@
         <v>180</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4457,7 +4799,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4473,7 +4815,7 @@
         <v>195</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4481,7 +4823,7 @@
         <v>200</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4489,7 +4831,7 @@
         <v>206</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4505,7 +4847,7 @@
         <v>216</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4513,7 +4855,7 @@
         <v>220</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4521,7 +4863,7 @@
         <v>225</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4529,7 +4871,7 @@
         <v>229</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4537,7 +4879,7 @@
         <v>234</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4545,7 +4887,7 @@
         <v>239</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4561,7 +4903,7 @@
         <v>249</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4569,7 +4911,7 @@
         <v>253</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4577,7 +4919,7 @@
         <v>257</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4585,7 +4927,7 @@
         <v>262</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4593,7 +4935,7 @@
         <v>267</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4601,7 +4943,7 @@
         <v>271</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4609,7 +4951,7 @@
         <v>275</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4617,7 +4959,7 @@
         <v>278</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4625,7 +4967,7 @@
         <v>283</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4633,7 +4975,7 @@
         <v>287</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4641,7 +4983,7 @@
         <v>292</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4649,7 +4991,7 @@
         <v>296</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4665,7 +5007,7 @@
         <v>304</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4689,7 +5031,7 @@
         <v>320</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4697,7 +5039,7 @@
         <v>325</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4705,7 +5047,7 @@
         <v>329</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4713,7 +5055,7 @@
         <v>334</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4729,7 +5071,7 @@
         <v>344</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4745,7 +5087,7 @@
         <v>357</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4753,7 +5095,7 @@
         <v>361</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4761,7 +5103,7 @@
         <v>365</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4769,7 +5111,7 @@
         <v>369</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4777,7 +5119,7 @@
         <v>373</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4785,7 +5127,7 @@
         <v>379</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4793,7 +5135,7 @@
         <v>384</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4801,7 +5143,7 @@
         <v>388</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4809,7 +5151,7 @@
         <v>392</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4817,7 +5159,7 @@
         <v>395</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4825,7 +5167,7 @@
         <v>399</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4833,7 +5175,7 @@
         <v>403</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4841,7 +5183,7 @@
         <v>406</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4849,7 +5191,7 @@
         <v>410</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4865,7 +5207,7 @@
         <v>420</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4913,7 +5255,7 @@
         <v>449</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4921,7 +5263,7 @@
         <v>451</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4937,23 +5279,23 @@
         <v>462</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4969,7 +5311,7 @@
         <v>13</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4977,7 +5319,7 @@
         <v>18</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4985,7 +5327,7 @@
         <v>25</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4993,7 +5335,7 @@
         <v>30</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5001,7 +5343,7 @@
         <v>36</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5009,7 +5351,7 @@
         <v>41</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5017,7 +5359,7 @@
         <v>48</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5025,7 +5367,7 @@
         <v>53</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5041,7 +5383,7 @@
         <v>65</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5049,7 +5391,7 @@
         <v>71</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5057,7 +5399,7 @@
         <v>77</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5097,7 +5439,7 @@
         <v>114</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5105,7 +5447,7 @@
         <v>121</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5113,7 +5455,7 @@
         <v>129</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5121,7 +5463,7 @@
         <v>135</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5129,7 +5471,7 @@
         <v>141</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5145,7 +5487,7 @@
         <v>156</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5153,7 +5495,7 @@
         <v>161</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5169,7 +5511,7 @@
         <v>174</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5185,7 +5527,7 @@
         <v>186</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5193,7 +5535,7 @@
         <v>192</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5201,7 +5543,7 @@
         <v>196</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5209,7 +5551,7 @@
         <v>201</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5217,7 +5559,7 @@
         <v>207</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5233,7 +5575,7 @@
         <v>217</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5241,7 +5583,7 @@
         <v>221</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5249,7 +5591,7 @@
         <v>226</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5265,7 +5607,7 @@
         <v>235</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5273,7 +5615,7 @@
         <v>240</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5286,10 +5628,10 @@
     </row>
     <row r="292" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5297,7 +5639,7 @@
         <v>250</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5305,7 +5647,7 @@
         <v>254</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5321,7 +5663,7 @@
         <v>263</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5329,7 +5671,7 @@
         <v>268</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5337,7 +5679,7 @@
         <v>272</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5345,7 +5687,7 @@
         <v>26</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5353,7 +5695,7 @@
         <v>279</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5361,7 +5703,7 @@
         <v>284</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5369,7 +5711,7 @@
         <v>288</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5377,7 +5719,7 @@
         <v>293</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5385,7 +5727,7 @@
         <v>297</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5393,7 +5735,7 @@
         <v>301</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5401,7 +5743,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5417,7 +5759,7 @@
         <v>317</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5425,7 +5767,7 @@
         <v>321</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5433,7 +5775,7 @@
         <v>326</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5449,7 +5791,7 @@
         <v>335</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5481,7 +5823,7 @@
         <v>358</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5489,7 +5831,7 @@
         <v>362</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5497,7 +5839,7 @@
         <v>366</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5513,7 +5855,7 @@
         <v>374</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5545,7 +5887,7 @@
         <v>393</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5569,7 +5911,7 @@
         <v>404</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5593,7 +5935,7 @@
         <v>417</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5601,7 +5943,7 @@
         <v>421</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5609,7 +5951,7 @@
         <v>424</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5617,7 +5959,7 @@
         <v>429</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5633,7 +5975,7 @@
         <v>440</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5649,7 +5991,7 @@
         <v>450</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5678,10 +6020,10 @@
     </row>
     <row r="341" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5689,63 +6031,63 @@
         <v>66</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5777,7 +6119,7 @@
         <v>26</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5793,7 +6135,7 @@
         <v>37</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5809,7 +6151,7 @@
         <v>49</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5825,7 +6167,7 @@
         <v>61</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5833,7 +6175,7 @@
         <v>66</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5958,34 +6300,34 @@
     </row>
     <row r="376" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B376" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B377" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5993,147 +6335,163 @@
         <v>338</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B381" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B383" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B384" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="C384" s="6"/>
       <c r="D384" s="5"/>
     </row>
     <row r="385" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B385" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="C389" s="8"/>
       <c r="D389" s="7"/>
     </row>
     <row r="390" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B390" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B396" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B397" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="B397" s="8" t="s">
+    </row>
+    <row r="398" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B398" s="1" t="s">
         <v>781</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>783</v>
       </c>
     </row>
   </sheetData>
